--- a/ScrumEntregable.xlsx
+++ b/ScrumEntregable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos (RF)" sheetId="1" state="visible" r:id="rId2"/>
@@ -657,26 +657,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="dddd&quot;, &quot;d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
+    <numFmt numFmtId="169" formatCode="dddd, d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="170" formatCode="0"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="172" formatCode="ddd\,dd/mm/yyyy"/>
-    <numFmt numFmtId="173" formatCode="ddd&quot;, &quot;dd/mm/yyyy"/>
-    <numFmt numFmtId="174" formatCode="dd"/>
-    <numFmt numFmtId="175" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="dddd&quot;, &quot;d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="173" formatCode="ddd\,dd/mm/yyyy"/>
+    <numFmt numFmtId="174" formatCode="ddd&quot;, &quot;dd/mm/yyyy"/>
+    <numFmt numFmtId="175" formatCode="dd"/>
+    <numFmt numFmtId="176" formatCode="0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -698,7 +698,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -706,21 +705,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -728,18 +718,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -748,7 +731,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -756,7 +738,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -764,17 +745,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,18 +764,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF468A1A"/>
         <bgColor rgb="FF706E0C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA7074B"/>
-        <bgColor rgb="FF800080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFE3A167"/>
       </patternFill>
     </fill>
     <fill>
@@ -815,6 +782,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7074B"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
     <fill>
@@ -844,7 +817,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE3A167"/>
-        <bgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -930,21 +903,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
         <color rgb="FF00A933"/>
       </left>
       <right style="hair">
@@ -988,6 +946,21 @@
       </top>
       <bottom style="hair">
         <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,7 +1062,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1113,60 +1086,39 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1187,19 +1139,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,10 +1163,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1235,19 +1187,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1275,97 +1223,97 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="22" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1383,35 +1331,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="23" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="8" fillId="22" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,47 +1415,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="4" fillId="23" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="22" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="24" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="23" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="24" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="23" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1471,11 +1463,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1487,10 +1479,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1499,11 +1487,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1511,6 +1499,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1519,11 +1511,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1536,7 +1528,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="17">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -1544,17 +1536,16 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Sin título1" xfId="20"/>
-    <cellStyle name="Sin título10" xfId="21"/>
-    <cellStyle name="Sin título11" xfId="22"/>
-    <cellStyle name="Sin título12" xfId="23"/>
-    <cellStyle name="Sin título2" xfId="24"/>
-    <cellStyle name="Sin título3" xfId="25"/>
-    <cellStyle name="Sin título4" xfId="26"/>
-    <cellStyle name="Sin título5" xfId="27"/>
-    <cellStyle name="Sin título6" xfId="28"/>
-    <cellStyle name="Sin título7" xfId="29"/>
-    <cellStyle name="Sin título8" xfId="30"/>
-    <cellStyle name="Sin título9" xfId="31"/>
+    <cellStyle name="Sin título2" xfId="21"/>
+    <cellStyle name="Sin título3" xfId="22"/>
+    <cellStyle name="Sin título4" xfId="23"/>
+    <cellStyle name="Sin título5" xfId="24"/>
+    <cellStyle name="Sin título6" xfId="25"/>
+    <cellStyle name="Sin título7" xfId="26"/>
+    <cellStyle name="Sin título8" xfId="27"/>
+    <cellStyle name="Sin título9" xfId="28"/>
+    <cellStyle name="Sin título10" xfId="29"/>
+    <cellStyle name="Sin título11" xfId="30"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1627,7 +1618,7 @@
       <rgbColor rgb="FF71B585"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF972F"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF999999"/>
@@ -1644,7 +1635,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1659,7 +1650,380 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurnDownChart!$C$15:$C$15</c:f>
+              <c:f>BurnDownChart!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDEAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BurnDownChart!$B$16:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sábado 11 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>domingo 12 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lunes 13 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>martes 14 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>miércoles 15 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jueves 16 de septiembre de 2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurnDownChart!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurnDownChart!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BurnDownChart!$B$16:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sábado 11 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>domingo 12 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lunes 13 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>martes 14 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>miércoles 15 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jueves 16 de septiembre de 2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurnDownChart!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="54205885"/>
+        <c:axId val="49683063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54205885"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49683063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49683063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54205885"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurnDownChart!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1716,52 +2080,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BurnDownChart!$B$16:$B$21</c:f>
+              <c:f>BurnDownChart!$B$43:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>sábado, 11 de septiembre de 2021</c:v>
+                  <c:v>lunes, 20 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>domingo, 12 de septiembre de 2021</c:v>
+                  <c:v>martes, 21 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>lunes, 13 de septiembre de 2021</c:v>
+                  <c:v>miércoles, 22 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>martes, 14 de septiembre de 2021</c:v>
+                  <c:v>jueves, 23 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>miércoles, 15 de septiembre de 2021</c:v>
+                  <c:v>viernes, 24 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jueves, 16 de septiembre de 2021</c:v>
+                  <c:v>sábado, 25 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>domingo, 26 de septiembre de 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDownChart!$C$16:$C$21</c:f>
+              <c:f>BurnDownChart!$C$43:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>116.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>93.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>46.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>23.3333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1774,7 +2144,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurnDownChart!$D$15:$D$15</c:f>
+              <c:f>BurnDownChart!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1831,53 +2201,56 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BurnDownChart!$B$16:$B$21</c:f>
+              <c:f>BurnDownChart!$B$43:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>sábado, 11 de septiembre de 2021</c:v>
+                  <c:v>lunes, 20 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>domingo, 12 de septiembre de 2021</c:v>
+                  <c:v>martes, 21 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>lunes, 13 de septiembre de 2021</c:v>
+                  <c:v>miércoles, 22 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>martes, 14 de septiembre de 2021</c:v>
+                  <c:v>jueves, 23 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>miércoles, 15 de septiembre de 2021</c:v>
+                  <c:v>viernes, 24 de septiembre de 2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jueves, 16 de septiembre de 2021</c:v>
+                  <c:v>sábado, 25 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>domingo, 26 de septiembre de 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDownChart!$D$16:$D$21</c:f>
+              <c:f>BurnDownChart!$D$43:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,11 +2265,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="12742495"/>
-        <c:axId val="93569101"/>
+        <c:axId val="17457275"/>
+        <c:axId val="55058383"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12742495"/>
+        <c:axId val="17457275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +2297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93569101"/>
+        <c:crossAx val="55058383"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1932,7 +2305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93569101"/>
+        <c:axId val="55058383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,391 +2342,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12742495"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BurnDownChart!$C$41:$C$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IDEAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>BurnDownChart!$B$42:$B$48</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>lunes, 20 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>martes, 21 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>miércoles, 22 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>jueves, 23 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>viernes, 24 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sábado, 25 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>domingo, 26 de septiembre de 2021</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BurnDownChart!$C$42:$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>116.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.3333333333334</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BurnDownChart!$D$41:$D$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>BurnDownChart!$B$42:$B$48</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>lunes, 20 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>martes, 21 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>miércoles, 22 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>jueves, 23 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>viernes, 24 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sábado, 25 de septiembre de 2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>domingo, 26 de septiembre de 2021</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BurnDownChart!$D$42:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="97036478"/>
-        <c:axId val="36314364"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="97036478"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36314364"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="36314364"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="97036478"/>
+        <c:crossAx val="17457275"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2407,16 +2396,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>774360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>475920</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:colOff>619200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2424,8 +2413,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5405400" y="935640"/>
-        <a:ext cx="5391000" cy="3269160"/>
+        <a:off x="5548320" y="676440"/>
+        <a:ext cx="5391360" cy="3269520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2438,15 +2427,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:colOff>533880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2454,8 +2443,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5460480" y="5791320"/>
-        <a:ext cx="5391000" cy="3269160"/>
+        <a:off x="5463360" y="5762160"/>
+        <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2468,287 +2457,377 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>891000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>11520</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>-10800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name="Barra de desplazamiento 1" descr="" hidden="0"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:p>
+              <a:r>
+                <a:t/>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G22"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="80.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="79.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="12.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="12.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="187.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="n">
+    <row r="3" s="2" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="6"/>
+      <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
+    <row r="14" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2768,98 +2847,96 @@
   </sheetPr>
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="79.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.2"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -2874,18 +2951,16 @@
   </sheetPr>
   <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.5"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,7 +3554,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -3492,18 +3567,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:M1048576"/>
+  <dimension ref="B3:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.38"/>
   </cols>
@@ -3624,7 +3699,7 @@
       <c r="C12" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="26" t="n">
+      <c r="D12" s="31" t="n">
         <f aca="false">D13+D14+D15+D16+D17</f>
         <v>140</v>
       </c>
@@ -3692,10 +3767,6 @@
         <v>2</v>
       </c>
       <c r="F16" s="27"/>
-    </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31"/>
-      <c r="M24" s="32"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3705,7 +3776,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -3718,132 +3789,132 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L48"/>
+  <dimension ref="B2:L49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P40" activeCellId="0" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="35.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="6.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="33" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="35.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="6.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="32" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="34" t="s">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="L3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="38" t="n">
+      <c r="C4" s="37" t="n">
         <v>44450</v>
       </c>
-      <c r="L4" s="36"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="38" t="n">
+      <c r="C5" s="37" t="n">
         <v>44455</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="40" t="n">
+      <c r="C6" s="39" t="n">
         <f aca="false">_xlfn.DAYS(C5,C4)+1</f>
         <v>6</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="41" t="n">
+      <c r="C7" s="40" t="n">
         <f aca="false">8*C6</f>
         <v>48</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="42" t="n">
+      <c r="C8" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="42" t="s">
         <v>137</v>
       </c>
       <c r="C9" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="44" t="n">
         <f aca="false">C7*C8*C9</f>
         <v>48</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="45" t="n">
-        <f aca="false">C10/C6</f>
-        <v>8</v>
-      </c>
-      <c r="L11" s="36"/>
+        <f aca="false">C10/7</f>
+        <v>6.85714285714286</v>
+      </c>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>140</v>
       </c>
       <c r="C12" s="46" t="n">
         <f aca="false">IFERROR(C11/C9,0)</f>
-        <v>1.6</v>
-      </c>
-      <c r="L12" s="36"/>
+        <v>1.37142857142857</v>
+      </c>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="47"/>
-      <c r="L13" s="36"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="48" t="s">
@@ -3851,7 +3922,7 @@
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
-      <c r="L14" s="36"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="49" t="s">
@@ -3863,7 +3934,7 @@
       <c r="D15" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="50" t="n">
@@ -3877,7 +3948,7 @@
         <f aca="false">C16</f>
         <v>100</v>
       </c>
-      <c r="L16" s="36"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="50" t="n">
@@ -3890,7 +3961,7 @@
       <c r="D17" s="52" t="n">
         <v>90</v>
       </c>
-      <c r="L17" s="36"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="50" t="n">
@@ -3903,7 +3974,7 @@
       <c r="D18" s="52" t="n">
         <v>70</v>
       </c>
-      <c r="L18" s="36"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="50" t="n">
@@ -3916,7 +3987,7 @@
       <c r="D19" s="52" t="n">
         <v>52</v>
       </c>
-      <c r="L19" s="36"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="50" t="n">
@@ -3929,7 +4000,7 @@
       <c r="D20" s="52" t="n">
         <v>42</v>
       </c>
-      <c r="L20" s="36"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="50" t="n">
@@ -3954,285 +4025,278 @@
     <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-    </row>
-    <row r="25" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="58" t="s">
+      <c r="D22" s="58"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="C27" s="65"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="38" t="n">
+      <c r="C28" s="37" t="n">
         <v>44459</v>
       </c>
-      <c r="L28" s="36"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="38" t="n">
+      <c r="C29" s="37" t="n">
         <v>44465</v>
       </c>
-      <c r="L29" s="36"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="44" t="n">
+      <c r="C30" s="66" t="n">
         <f aca="false">_xlfn.DAYS(C29,C28)+1</f>
         <v>7</v>
       </c>
-      <c r="L30" s="36"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="41" t="n">
+      <c r="C31" s="67" t="n">
         <f aca="false">8*C30</f>
         <v>56</v>
       </c>
-      <c r="L31" s="36"/>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="42" t="n">
+      <c r="C32" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="L32" s="36"/>
+      <c r="L32" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="43" t="n">
+      <c r="C33" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="L33" s="36"/>
+      <c r="L33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="44" t="n">
+      <c r="C34" s="66" t="n">
         <f aca="false">C31*C32*C33</f>
         <v>56</v>
       </c>
-      <c r="L34" s="36"/>
+      <c r="L34" s="35"/>
     </row>
     <row r="35" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="45" t="n">
+      <c r="C35" s="69" t="n">
         <f aca="false">C34/C30</f>
         <v>8</v>
       </c>
-      <c r="L35" s="36"/>
+      <c r="L35" s="35"/>
     </row>
     <row r="36" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="46" t="n">
+      <c r="C36" s="70" t="n">
         <f aca="false">IFERROR(C35/C33,0)</f>
         <v>1.6</v>
       </c>
-      <c r="L36" s="36"/>
+      <c r="L36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="47"/>
-      <c r="L37" s="36"/>
+      <c r="L37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="47"/>
-      <c r="L38" s="36"/>
+      <c r="L38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="47"/>
-      <c r="L39" s="36"/>
+      <c r="L39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47"/>
+      <c r="L40" s="35"/>
+    </row>
+    <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="L40" s="36"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="49" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="L41" s="35"/>
+    </row>
+    <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C42" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D42" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="L41" s="36"/>
-    </row>
-    <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="50" t="n">
+      <c r="L42" s="35"/>
+    </row>
+    <row r="43" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="71" t="n">
         <v>44459</v>
       </c>
-      <c r="C42" s="51" t="n">
+      <c r="C43" s="72" t="n">
         <f aca="false">Backlog!D12</f>
         <v>140</v>
       </c>
-      <c r="D42" s="52" t="n">
-        <f aca="false">C42</f>
+      <c r="D43" s="73" t="n">
+        <f aca="false">C43</f>
         <v>140</v>
       </c>
-      <c r="L42" s="36"/>
-    </row>
-    <row r="43" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="50" t="n">
+      <c r="L43" s="35"/>
+    </row>
+    <row r="44" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="71" t="n">
         <v>44460</v>
       </c>
-      <c r="C43" s="53" t="n">
-        <f aca="false">C42-($C$42/(($C$30)-1))</f>
+      <c r="C44" s="74" t="n">
+        <f aca="false">C43-($C$43/(($C$30)-1))</f>
         <v>116.666666666667</v>
       </c>
-      <c r="D43" s="52" t="n">
+      <c r="D44" s="73" t="n">
         <v>120</v>
       </c>
-      <c r="L43" s="36"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="50" t="n">
+      <c r="L44" s="35"/>
+    </row>
+    <row r="45" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="71" t="n">
         <v>44461</v>
       </c>
-      <c r="C44" s="53" t="n">
-        <f aca="false">C43-($C$42/(($C$30)-1))</f>
+      <c r="C45" s="74" t="n">
+        <f aca="false">C44-($C$43/(($C$30)-1))</f>
         <v>93.3333333333333</v>
       </c>
-      <c r="D44" s="52" t="n">
+      <c r="D45" s="73" t="n">
         <v>100</v>
       </c>
-      <c r="L44" s="36"/>
-    </row>
-    <row r="45" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="50" t="n">
+      <c r="L45" s="35"/>
+    </row>
+    <row r="46" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="71" t="n">
         <v>44462</v>
       </c>
-      <c r="C45" s="53" t="n">
-        <f aca="false">C44-($C$42/(($C$30)-1))</f>
+      <c r="C46" s="74" t="n">
+        <f aca="false">C45-($C$43/(($C$30)-1))</f>
         <v>70</v>
       </c>
-      <c r="D45" s="52" t="n">
+      <c r="D46" s="73" t="n">
         <v>70</v>
       </c>
-      <c r="L45" s="36"/>
-    </row>
-    <row r="46" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="50" t="n">
+      <c r="L46" s="35"/>
+    </row>
+    <row r="47" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="71" t="n">
         <v>44463</v>
       </c>
-      <c r="C46" s="53" t="n">
-        <f aca="false">C45-($C$42/(($C$30)-1))</f>
+      <c r="C47" s="74" t="n">
+        <f aca="false">C46-($C$43/(($C$30)-1))</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="D46" s="52" t="n">
+      <c r="D47" s="73" t="n">
         <v>65</v>
       </c>
-      <c r="L46" s="36"/>
-    </row>
-    <row r="47" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="50" t="n">
+      <c r="L47" s="35"/>
+    </row>
+    <row r="48" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="71" t="n">
         <v>44464</v>
       </c>
-      <c r="C47" s="53" t="n">
-        <f aca="false">C46-($C$42/(($C$30)-1))</f>
+      <c r="C48" s="74" t="n">
+        <f aca="false">C47-($C$43/(($C$30)-1))</f>
         <v>23.3333333333334</v>
       </c>
-      <c r="D47" s="52" t="n">
+      <c r="D48" s="73" t="n">
         <v>65</v>
       </c>
-      <c r="L47" s="36"/>
-    </row>
-    <row r="48" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="50" t="n">
+      <c r="L48" s="35"/>
+    </row>
+    <row r="49" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="71" t="n">
         <v>44465</v>
       </c>
-      <c r="C48" s="53" t="n">
-        <f aca="false">C47-($C$42/(($C$30)-1))</f>
+      <c r="C49" s="74" t="n">
+        <f aca="false">C48-($C$43/(($C$30)-1))</f>
         <v>0</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="55"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="6">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4248,20 +4312,21 @@
   </sheetPr>
   <dimension ref="A2:AR33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="Z31" activeCellId="0" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="64" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="4.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="7" style="64" width="4.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="64" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="75" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="75" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="75" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="75" width="4.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="75" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4273,1623 +4338,1498 @@
       <c r="D4" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="65" t="n">
+      <c r="E4" s="76" t="n">
         <f aca="false">D5+D4</f>
         <v>44450</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68" t="n">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79" t="n">
         <f aca="false">I5</f>
         <v>44450</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68" t="n">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79" t="n">
         <f aca="false">P5</f>
         <v>44457</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68" t="n">
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79" t="n">
         <f aca="false">W5</f>
         <v>44464</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68" t="n">
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79" t="n">
         <f aca="false">AD5</f>
         <v>44471</v>
       </c>
-      <c r="AE4" s="68" t="n">
+      <c r="AE4" s="79" t="n">
         <f aca="false">AE5</f>
         <v>44472</v>
       </c>
-      <c r="AF4" s="68" t="n">
+      <c r="AF4" s="79" t="n">
         <f aca="false">AF5</f>
         <v>44473</v>
       </c>
-      <c r="AG4" s="68" t="n">
+      <c r="AG4" s="79" t="n">
         <f aca="false">AG5</f>
         <v>44474</v>
       </c>
-      <c r="AH4" s="68" t="n">
+      <c r="AH4" s="79" t="n">
         <f aca="false">AH5</f>
         <v>44475</v>
       </c>
-      <c r="AI4" s="68" t="n">
+      <c r="AI4" s="79" t="n">
         <f aca="false">AI5</f>
         <v>44476</v>
       </c>
-      <c r="AJ4" s="68" t="n">
+      <c r="AJ4" s="79" t="n">
         <f aca="false">AJ5</f>
         <v>44477</v>
       </c>
-      <c r="AK4" s="68" t="n">
+      <c r="AK4" s="79" t="n">
         <f aca="false">AK5</f>
         <v>44478</v>
       </c>
-      <c r="AL4" s="68" t="n">
+      <c r="AL4" s="79" t="n">
         <f aca="false">AL5</f>
         <v>44479</v>
       </c>
-      <c r="AM4" s="68" t="n">
+      <c r="AM4" s="79" t="n">
         <f aca="false">AM5</f>
         <v>44480</v>
       </c>
-      <c r="AN4" s="68" t="n">
+      <c r="AN4" s="79" t="n">
         <f aca="false">AN5</f>
         <v>44481</v>
       </c>
-      <c r="AO4" s="68" t="n">
+      <c r="AO4" s="79" t="n">
         <f aca="false">AO5</f>
         <v>44482</v>
       </c>
-      <c r="AP4" s="68" t="n">
+      <c r="AP4" s="79" t="n">
         <f aca="false">AP5</f>
         <v>44483</v>
       </c>
-      <c r="AQ4" s="68" t="n">
+      <c r="AQ4" s="79" t="n">
         <f aca="false">AQ5</f>
         <v>44484</v>
       </c>
-      <c r="AR4" s="68"/>
+      <c r="AR4" s="79"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="71" t="n">
+      <c r="D5" s="82" t="n">
         <v>44450</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74" t="n">
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85" t="n">
         <f aca="false">E4</f>
         <v>44450</v>
       </c>
-      <c r="J5" s="75" t="n">
+      <c r="J5" s="86" t="n">
         <f aca="false">I5+1</f>
         <v>44451</v>
       </c>
-      <c r="K5" s="75" t="n">
+      <c r="K5" s="86" t="n">
         <f aca="false">J5+1</f>
         <v>44452</v>
       </c>
-      <c r="L5" s="75" t="n">
+      <c r="L5" s="86" t="n">
         <f aca="false">K5+1</f>
         <v>44453</v>
       </c>
-      <c r="M5" s="75" t="n">
+      <c r="M5" s="86" t="n">
         <f aca="false">L5+1</f>
         <v>44454</v>
       </c>
-      <c r="N5" s="75" t="n">
+      <c r="N5" s="86" t="n">
         <f aca="false">M5+1</f>
         <v>44455</v>
       </c>
-      <c r="O5" s="76" t="n">
+      <c r="O5" s="87" t="n">
         <f aca="false">N5+1</f>
         <v>44456</v>
       </c>
-      <c r="P5" s="74" t="n">
+      <c r="P5" s="85" t="n">
         <f aca="false">O5+1</f>
         <v>44457</v>
       </c>
-      <c r="Q5" s="75" t="n">
+      <c r="Q5" s="86" t="n">
         <f aca="false">P5+1</f>
         <v>44458</v>
       </c>
-      <c r="R5" s="75" t="n">
+      <c r="R5" s="86" t="n">
         <f aca="false">Q5+1</f>
         <v>44459</v>
       </c>
-      <c r="S5" s="75" t="n">
+      <c r="S5" s="86" t="n">
         <f aca="false">R5+1</f>
         <v>44460</v>
       </c>
-      <c r="T5" s="75" t="n">
+      <c r="T5" s="86" t="n">
         <f aca="false">S5+1</f>
         <v>44461</v>
       </c>
-      <c r="U5" s="75" t="n">
+      <c r="U5" s="86" t="n">
         <f aca="false">T5+1</f>
         <v>44462</v>
       </c>
-      <c r="V5" s="76" t="n">
+      <c r="V5" s="87" t="n">
         <f aca="false">U5+1</f>
         <v>44463</v>
       </c>
-      <c r="W5" s="74" t="n">
+      <c r="W5" s="85" t="n">
         <f aca="false">V5+1</f>
         <v>44464</v>
       </c>
-      <c r="X5" s="75" t="n">
+      <c r="X5" s="86" t="n">
         <f aca="false">W5+1</f>
         <v>44465</v>
       </c>
-      <c r="Y5" s="75" t="n">
+      <c r="Y5" s="86" t="n">
         <f aca="false">X5+1</f>
         <v>44466</v>
       </c>
-      <c r="Z5" s="75" t="n">
+      <c r="Z5" s="86" t="n">
         <f aca="false">Y5+1</f>
         <v>44467</v>
       </c>
-      <c r="AA5" s="75" t="n">
+      <c r="AA5" s="86" t="n">
         <f aca="false">Z5+1</f>
         <v>44468</v>
       </c>
-      <c r="AB5" s="75" t="n">
+      <c r="AB5" s="86" t="n">
         <f aca="false">AA5+1</f>
         <v>44469</v>
       </c>
-      <c r="AC5" s="76" t="n">
+      <c r="AC5" s="87" t="n">
         <f aca="false">AB5+1</f>
         <v>44470</v>
       </c>
-      <c r="AD5" s="74" t="n">
+      <c r="AD5" s="85" t="n">
         <f aca="false">AC5+1</f>
         <v>44471</v>
       </c>
-      <c r="AE5" s="75" t="n">
+      <c r="AE5" s="86" t="n">
         <f aca="false">AD5+1</f>
         <v>44472</v>
       </c>
-      <c r="AF5" s="75" t="n">
+      <c r="AF5" s="86" t="n">
         <f aca="false">AE5+1</f>
         <v>44473</v>
       </c>
-      <c r="AG5" s="75" t="n">
+      <c r="AG5" s="86" t="n">
         <f aca="false">AF5+1</f>
         <v>44474</v>
       </c>
-      <c r="AH5" s="75" t="n">
+      <c r="AH5" s="86" t="n">
         <f aca="false">AG5+1</f>
         <v>44475</v>
       </c>
-      <c r="AI5" s="75" t="n">
+      <c r="AI5" s="86" t="n">
         <f aca="false">AH5+1</f>
         <v>44476</v>
       </c>
-      <c r="AJ5" s="76" t="n">
+      <c r="AJ5" s="87" t="n">
         <f aca="false">AI5+1</f>
         <v>44477</v>
       </c>
-      <c r="AK5" s="74" t="n">
+      <c r="AK5" s="85" t="n">
         <f aca="false">AJ5+1</f>
         <v>44478</v>
       </c>
-      <c r="AL5" s="75" t="n">
+      <c r="AL5" s="86" t="n">
         <f aca="false">AK5+1</f>
         <v>44479</v>
       </c>
-      <c r="AM5" s="75" t="n">
+      <c r="AM5" s="86" t="n">
         <f aca="false">AL5+1</f>
         <v>44480</v>
       </c>
-      <c r="AN5" s="75" t="n">
+      <c r="AN5" s="86" t="n">
         <f aca="false">AM5+1</f>
         <v>44481</v>
       </c>
-      <c r="AO5" s="75" t="n">
+      <c r="AO5" s="86" t="n">
         <f aca="false">AN5+1</f>
         <v>44482</v>
       </c>
-      <c r="AP5" s="75" t="n">
+      <c r="AP5" s="86" t="n">
         <f aca="false">AO5+1</f>
         <v>44483</v>
       </c>
-      <c r="AQ5" s="76" t="n">
+      <c r="AQ5" s="87" t="n">
         <f aca="false">AP5+1</f>
         <v>44484</v>
       </c>
-      <c r="AR5" s="76" t="n">
+      <c r="AR5" s="87" t="n">
         <f aca="false">AQ5+1</f>
         <v>44485</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78" t="str">
+      <c r="H6" s="88"/>
+      <c r="I6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(I5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="J6" s="78" t="str">
+      <c r="J6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(J5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="K6" s="78" t="str">
+      <c r="K6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(K5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="L6" s="78" t="str">
+      <c r="L6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(L5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="M6" s="78" t="str">
+      <c r="M6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(M5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="N6" s="78" t="str">
+      <c r="N6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(N5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="O6" s="78" t="str">
+      <c r="O6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(O5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="P6" s="78" t="str">
+      <c r="P6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(P5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="Q6" s="78" t="str">
+      <c r="Q6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Q5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="R6" s="78" t="str">
+      <c r="R6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(R5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="S6" s="78" t="str">
+      <c r="S6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(S5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="T6" s="78" t="str">
+      <c r="T6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(T5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="U6" s="78" t="str">
+      <c r="U6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(U5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="V6" s="78" t="str">
+      <c r="V6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(V5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="W6" s="78" t="str">
+      <c r="W6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(W5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="X6" s="78" t="str">
+      <c r="X6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(X5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="Y6" s="78" t="str">
+      <c r="Y6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Y5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="Z6" s="78" t="str">
+      <c r="Z6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Z5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AA6" s="78" t="str">
+      <c r="AA6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AA5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AB6" s="78" t="str">
+      <c r="AB6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AB5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AC6" s="78" t="str">
+      <c r="AC6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AC5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AD6" s="78" t="str">
+      <c r="AD6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AD5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AE6" s="78" t="str">
+      <c r="AE6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AE5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AF6" s="78" t="str">
+      <c r="AF6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AF5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AG6" s="78" t="str">
+      <c r="AG6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AG5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AH6" s="78" t="str">
+      <c r="AH6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AH5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="78" t="str">
+      <c r="AI6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AI5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AJ6" s="78" t="str">
+      <c r="AJ6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AJ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AK6" s="78" t="str">
+      <c r="AK6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AK5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AL6" s="78" t="str">
+      <c r="AL6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AL5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AM6" s="78" t="str">
+      <c r="AM6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AM5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AN6" s="78" t="str">
+      <c r="AN6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AN5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AO6" s="78" t="str">
+      <c r="AO6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AO5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AP6" s="78" t="str">
+      <c r="AP6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AP5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AQ6" s="78" t="str">
+      <c r="AQ6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AQ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AR6" s="78" t="str">
+      <c r="AR6" s="89" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AR5,"DDD")))</f>
         <v>S</v>
       </c>
     </row>
-    <row r="7" s="83" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="s">
+    <row r="7" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80" t="n">
+      <c r="B7" s="90"/>
+      <c r="C7" s="91" t="n">
         <f aca="false">(C8+C15+C21+C28)/4</f>
         <v>0.41875</v>
       </c>
-      <c r="D7" s="81" t="n">
+      <c r="D7" s="92" t="n">
         <v>44450</v>
       </c>
-      <c r="E7" s="81" t="n">
+      <c r="E7" s="92" t="n">
         <v>44485</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="79"/>
-    </row>
-    <row r="8" s="83" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+    </row>
+    <row r="8" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80" t="n">
+      <c r="B8" s="90"/>
+      <c r="C8" s="91" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="81" t="n">
+      <c r="D8" s="92" t="n">
         <v>44450</v>
       </c>
-      <c r="E8" s="81" t="n">
+      <c r="E8" s="92" t="n">
         <v>44458</v>
       </c>
-      <c r="F8" s="84" t="n">
+      <c r="F8" s="93" t="n">
         <f aca="false">Backlog!D5</f>
         <v>100</v>
       </c>
-      <c r="G8" s="79" t="n">
+      <c r="G8" s="93" t="n">
         <f aca="false">C8*F8</f>
         <v>100</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="95"/>
+      <c r="AN8" s="95"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="95"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="87" t="n">
+      <c r="C9" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="88" t="n">
+      <c r="D9" s="98" t="n">
         <v>44450</v>
       </c>
-      <c r="E9" s="88" t="n">
+      <c r="E9" s="98" t="n">
         <v>44452</v>
       </c>
-      <c r="F9" s="89" t="n">
+      <c r="F9" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="86" t="n">
+      <c r="G9" s="100" t="n">
         <f aca="false">C9*F9</f>
         <v>10</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="101"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="92" t="n">
+      <c r="C10" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="93" t="n">
+      <c r="D10" s="104" t="n">
         <v>44452</v>
       </c>
-      <c r="E10" s="93" t="n">
+      <c r="E10" s="104" t="n">
         <v>44453</v>
       </c>
-      <c r="F10" s="94" t="n">
+      <c r="F10" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="86" t="n">
+      <c r="G10" s="100" t="n">
         <f aca="false">C10*F10</f>
         <v>20</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="95"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="106"/>
+      <c r="AJ10" s="106"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="106"/>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="92" t="n">
+      <c r="C11" s="103" t="n">
         <v>0.4</v>
       </c>
-      <c r="D11" s="93" t="n">
+      <c r="D11" s="104" t="n">
         <v>44453</v>
       </c>
-      <c r="E11" s="93" t="n">
+      <c r="E11" s="104" t="n">
         <v>44455</v>
       </c>
-      <c r="F11" s="94" t="n">
+      <c r="F11" s="105" t="n">
         <v>40</v>
       </c>
-      <c r="G11" s="86" t="n">
+      <c r="G11" s="100" t="n">
         <f aca="false">C11*F11</f>
         <v>16</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="95"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="95"/>
-      <c r="AL11" s="95"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="92" t="n">
+      <c r="C12" s="103" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="93" t="n">
+      <c r="D12" s="104" t="n">
         <v>44454</v>
       </c>
-      <c r="E12" s="93" t="n">
+      <c r="E12" s="104" t="n">
         <v>44455</v>
       </c>
-      <c r="F12" s="94" t="n">
+      <c r="F12" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="G12" s="86" t="n">
+      <c r="G12" s="100" t="n">
         <f aca="false">C12*F12</f>
         <v>10</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="106"/>
+      <c r="AL12" s="106"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="92" t="n">
+      <c r="C13" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="93" t="n">
+      <c r="D13" s="104" t="n">
         <v>44455</v>
       </c>
-      <c r="E13" s="93" t="n">
+      <c r="E13" s="104" t="n">
         <v>44458</v>
       </c>
-      <c r="F13" s="94" t="n">
+      <c r="F13" s="105" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="86" t="n">
+      <c r="G13" s="100" t="n">
         <f aca="false">C13*F13</f>
         <v>10</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-    </row>
-    <row r="15" s="83" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="79" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="106"/>
+      <c r="AJ14" s="106"/>
+      <c r="AK14" s="106"/>
+      <c r="AL14" s="106"/>
+    </row>
+    <row r="15" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80" t="n">
+      <c r="B15" s="90"/>
+      <c r="C15" s="91" t="n">
         <f aca="false">(C16+C17+C18+C19)/4</f>
         <v>0.675</v>
       </c>
-      <c r="D15" s="93" t="n">
+      <c r="D15" s="104" t="n">
         <v>44459</v>
       </c>
-      <c r="E15" s="93" t="n">
+      <c r="E15" s="104" t="n">
         <v>44465</v>
       </c>
-      <c r="F15" s="84" t="n">
+      <c r="F15" s="93" t="n">
         <f aca="false">Backlog!D12</f>
         <v>140</v>
       </c>
-      <c r="G15" s="86" t="n">
+      <c r="G15" s="93" t="n">
         <f aca="false">C15*F15</f>
         <v>94.5</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="79"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="90"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="92" t="n">
+      <c r="C16" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="93" t="n">
+      <c r="D16" s="104" t="n">
         <v>44459</v>
       </c>
-      <c r="E16" s="93" t="n">
+      <c r="E16" s="104" t="n">
         <v>44460</v>
       </c>
-      <c r="F16" s="94" t="n">
+      <c r="F16" s="99" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="86" t="n">
+      <c r="G16" s="100" t="n">
         <f aca="false">C16*F16</f>
         <v>20</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95" t="s">
+      <c r="H16" s="102"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="106"/>
+      <c r="AJ16" s="106"/>
+      <c r="AK16" s="106"/>
+      <c r="AL16" s="106"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="92" t="n">
+      <c r="C17" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="93" t="n">
+      <c r="D17" s="104" t="n">
         <v>44460</v>
       </c>
-      <c r="E17" s="93" t="n">
+      <c r="E17" s="104" t="n">
         <v>44461</v>
       </c>
-      <c r="F17" s="94" t="n">
+      <c r="F17" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="86" t="n">
+      <c r="G17" s="100" t="n">
         <f aca="false">C17*F17</f>
         <v>20</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="95"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="106"/>
+      <c r="AJ17" s="106"/>
+      <c r="AK17" s="106"/>
+      <c r="AL17" s="106"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="92" t="n">
+      <c r="C18" s="103" t="n">
         <v>0.7</v>
       </c>
-      <c r="D18" s="93" t="n">
+      <c r="D18" s="104" t="n">
         <v>44461</v>
       </c>
-      <c r="E18" s="93" t="n">
+      <c r="E18" s="104" t="n">
         <v>44463</v>
       </c>
-      <c r="F18" s="94" t="n">
+      <c r="F18" s="105" t="n">
         <v>40</v>
       </c>
-      <c r="G18" s="86" t="n">
+      <c r="G18" s="100" t="n">
         <f aca="false">C18*F18</f>
         <v>28</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="92" t="n">
+      <c r="C19" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="93" t="n">
+      <c r="D19" s="104" t="n">
         <v>44463</v>
       </c>
-      <c r="E19" s="93" t="n">
+      <c r="E19" s="104" t="n">
         <v>44465</v>
       </c>
-      <c r="F19" s="94" t="n">
+      <c r="F19" s="105" t="n">
         <v>60</v>
       </c>
-      <c r="G19" s="86" t="n">
+      <c r="G19" s="100" t="n">
         <f aca="false">C19*F19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="106"/>
+      <c r="AH19" s="106"/>
+      <c r="AI19" s="106"/>
+      <c r="AJ19" s="106"/>
+      <c r="AK19" s="106"/>
+      <c r="AL19" s="106"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-    </row>
-    <row r="21" s="83" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="79" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="106"/>
+      <c r="AK20" s="106"/>
+      <c r="AL20" s="106"/>
+    </row>
+    <row r="21" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80" t="n">
+      <c r="B21" s="90"/>
+      <c r="C21" s="91" t="n">
         <f aca="false">(C22+C23+C24+C25+C26)/5</f>
         <v>0</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="86" t="n">
-        <f aca="false">C21*F21</f>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="90"/>
+    </row>
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="79"/>
-    </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="91" t="s">
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="106"/>
+      <c r="AK22" s="106"/>
+      <c r="AL22" s="106"/>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="92" t="n">
+      <c r="C23" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="86" t="n">
-        <f aca="false">C22*F22</f>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="106"/>
+      <c r="AJ23" s="106"/>
+      <c r="AK23" s="106"/>
+      <c r="AL23" s="106"/>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="86"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-    </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="91" t="s">
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="106"/>
+      <c r="AL24" s="106"/>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="92" t="n">
+      <c r="C25" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="86" t="n">
-        <f aca="false">C23*F23</f>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="106"/>
+    </row>
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-    </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="91" t="s">
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="106"/>
+      <c r="AL26" s="106"/>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="86" t="n">
-        <f aca="false">C24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="95"/>
-      <c r="AL24" s="95"/>
-    </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="86" t="n">
-        <f aca="false">C25*F25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="86"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="95"/>
-      <c r="AL25" s="95"/>
-    </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="86" t="n">
-        <f aca="false">C26*F26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="86"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="95"/>
-      <c r="AL26" s="95"/>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
-      <c r="AL27" s="95"/>
-    </row>
-    <row r="28" s="83" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="80" t="n">
+      <c r="C28" s="91" t="n">
         <f aca="false">(C29+C30+C31+C32+C33)/5</f>
         <v>0</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="86" t="n">
-        <f aca="false">C28*F28</f>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="86"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="92" t="n">
+    </row>
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="86" t="n">
-        <f aca="false">C29*F29</f>
+    </row>
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="86"/>
-      <c r="V29" s="79"/>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="92" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="86" t="n">
-        <f aca="false">C30*F30</f>
+    </row>
+    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="V30" s="79"/>
-    </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="86" t="n">
-        <f aca="false">C31*F31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="86"/>
-      <c r="V31" s="79"/>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="86" t="n">
-        <f aca="false">C32*F32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="86"/>
-      <c r="V32" s="79"/>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="86" t="n">
-        <f aca="false">C33*F33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5900,7 +5840,7 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C22:C26 C10:C14 C16:C20">
+  <conditionalFormatting sqref="C10:C14">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -5909,12 +5849,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AA9157BD-C55C-45D9-8C90-1E7CCC8E33BA}</x14:id>
+          <x14:id>{5B1C87EA-BC1F-4CC2-9726-E5978DD848C5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AR7 I8:AL28 V29:V32">
+  <conditionalFormatting sqref="I8:AL26 I7:AK14 AL7:AR7">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(I$5&gt;=$D7,I$5&lt;=((($E7-$D7+1)*$C7)+$D7-1))</formula>
     </cfRule>
@@ -5934,7 +5874,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9736E1C0-2CDF-4524-9AD5-5FC6E0F41CCC}</x14:id>
+          <x14:id>{EF2E57E6-91F6-4C90-8882-5F6E38345CF7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5948,12 +5888,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A9CB481-4A90-4C71-B692-369060F9A276}</x14:id>
+          <x14:id>{FF3FE0B7-58D6-4BB9-93E0-3A512B624544}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C8">
     <cfRule type="dataBar" priority="8">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -5962,12 +5902,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CD83954B-D0DB-4AAE-B8F8-E512F0AF4ECE}</x14:id>
+          <x14:id>{9A1B91B0-74E2-41BE-9AF6-A72CAC584763}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C22:C26 C16:C20">
     <cfRule type="dataBar" priority="9">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -5976,12 +5916,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D954D6C4-2530-419B-A9B3-76DA697ADAAA}</x14:id>
+          <x14:id>{1838B9F0-DE73-47E7-AFC0-16CE4934BEB6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C15">
     <cfRule type="dataBar" priority="10">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -5990,12 +5930,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E7F79099-3C12-4F5E-AE28-13E6A6985448}</x14:id>
+          <x14:id>{D2352019-92F0-478C-90D8-1279993AEFB7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C21">
     <cfRule type="dataBar" priority="11">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -6004,12 +5944,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{940090BB-51FB-4A7D-83AD-B6DDB07DC0C8}</x14:id>
+          <x14:id>{899EE6B4-7EAC-436B-BF69-AAFC6FA72ED8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C28">
     <cfRule type="dataBar" priority="12">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -6018,7 +5958,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50DA8DC0-2CC3-4D46-9427-A024B2F8E447}</x14:id>
+          <x14:id>{B73BA45F-4A92-4828-9024-6D99D99224C3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6032,23 +5972,24 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22EE6E17-1026-4663-A546-4C4253172693}</x14:id>
+          <x14:id>{B04C33E5-7F36-434E-8B3F-1652E311CD87}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AA9157BD-C55C-45D9-8C90-1E7CCC8E33BA}">
+          <x14:cfRule type="dataBar" id="{5B1C87EA-BC1F-4CC2-9726-E5978DD848C5}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6060,10 +6001,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C22:C26 C10:C14 C16:C20</xm:sqref>
+          <xm:sqref>C10:C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9736E1C0-2CDF-4524-9AD5-5FC6E0F41CCC}">
+          <x14:cfRule type="dataBar" id="{EF2E57E6-91F6-4C90-8882-5F6E38345CF7}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6078,7 +6019,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A9CB481-4A90-4C71-B692-369060F9A276}">
+          <x14:cfRule type="dataBar" id="{FF3FE0B7-58D6-4BB9-93E0-3A512B624544}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6093,7 +6034,37 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD83954B-D0DB-4AAE-B8F8-E512F0AF4ECE}">
+          <x14:cfRule type="dataBar" id="{9A1B91B0-74E2-41BE-9AF6-A72CAC584763}">
+            <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1838B9F0-DE73-47E7-AFC0-16CE4934BEB6}">
+            <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C22:C26 C16:C20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2352019-92F0-478C-90D8-1279993AEFB7}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6108,7 +6079,7 @@
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D954D6C4-2530-419B-A9B3-76DA697ADAAA}">
+          <x14:cfRule type="dataBar" id="{899EE6B4-7EAC-436B-BF69-AAFC6FA72ED8}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6123,22 +6094,7 @@
           <xm:sqref>C21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E7F79099-3C12-4F5E-AE28-13E6A6985448}">
-            <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{940090BB-51FB-4A7D-83AD-B6DDB07DC0C8}">
+          <x14:cfRule type="dataBar" id="{B73BA45F-4A92-4828-9024-6D99D99224C3}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6153,22 +6109,7 @@
           <xm:sqref>C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{50DA8DC0-2CC3-4D46-9427-A024B2F8E447}">
-            <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22EE6E17-1026-4663-A546-4C4253172693}">
+          <x14:cfRule type="dataBar" id="{B04C33E5-7F36-434E-8B3F-1652E311CD87}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ScrumEntregable.xlsx
+++ b/ScrumEntregable.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="197">
   <si>
     <t xml:space="preserve">Ítem</t>
   </si>
@@ -201,8 +201,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">N/a </t>
+  </si>
+  <si>
     <t xml:space="preserve">*Los datos deben poseer persistencia. no se requieren campos multivaluados
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/a</t>
   </si>
   <si>
     <t xml:space="preserve">*La interfaz debe favorecer la usabilidad, debe ser amigable intuitiva y minimalista, 
@@ -214,6 +220,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">*Desarrollo en C# y framework .NET
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIPO</t>
   </si>
   <si>
@@ -226,33 +236,72 @@
     <t xml:space="preserve">DEPENDENCIAS</t>
   </si>
   <si>
+    <t xml:space="preserve">OBLIGATORIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
     <t xml:space="preserve">emp_id</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_NIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_telefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_direccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_fk_producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPRESA - PRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_apellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_cedula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_email</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPLEADO</t>
   </si>
   <si>
-    <t xml:space="preserve">pk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emp_Cedula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emp_Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emp_Apellido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emp_Genero</t>
-  </si>
-  <si>
     <t xml:space="preserve">emp_EPS</t>
   </si>
   <si>
@@ -262,28 +311,34 @@
     <t xml:space="preserve">emp_Salario</t>
   </si>
   <si>
-    <t xml:space="preserve">emp_Correo</t>
-  </si>
-  <si>
     <t xml:space="preserve">emp_Celular</t>
   </si>
   <si>
     <t xml:space="preserve">emp_Dirección</t>
   </si>
   <si>
+    <t xml:space="preserve">emp_pk_persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLEADO – PERSONA</t>
+  </si>
+  <si>
     <t xml:space="preserve">cli_id</t>
   </si>
   <si>
     <t xml:space="preserve">CLIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">cli_nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli_cedula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli_correo</t>
+    <t xml:space="preserve">cli_pk_factura_venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIENTE – FAC_VENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli_pk_persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIENTE – PERSONA</t>
   </si>
   <si>
     <t xml:space="preserve">pvd_id</t>
@@ -307,7 +362,7 @@
     <t xml:space="preserve">pvd_direccion</t>
   </si>
   <si>
-    <t xml:space="preserve">pro_id</t>
+    <t xml:space="preserve">prod_id</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCTO</t>
@@ -316,28 +371,28 @@
     <t xml:space="preserve">vartchar</t>
   </si>
   <si>
-    <t xml:space="preserve">pro_nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro_codigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro_valor_unitario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro_cantidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro_fk_fac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTO – Factura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro_fk_pvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTO_Proveedor</t>
+    <t xml:space="preserve">prod_nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prod_codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prod_valor_unitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prod_cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prod_fk_factura_compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO – FAC_COMPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prod_fk_proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO – PROVEEDOR</t>
   </si>
   <si>
     <t xml:space="preserve">facc_id</t>
@@ -358,34 +413,22 @@
     <t xml:space="preserve">facc_fecha_vencimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">pqr_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pqr_tipo _reclamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pqr_fecha_registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pqr_cedula_usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pqr_pk_cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PQRS-Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVENTARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv_fk_producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVENTARIO_producto</t>
+    <t xml:space="preserve">pqrs_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pqrs_tipo _reclamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pqrs_fecha_registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pqrs_cedula_usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pqrs_pk_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQRS - CLIENTE</t>
   </si>
   <si>
     <t xml:space="preserve">facv_id</t>
@@ -409,7 +452,13 @@
     <t xml:space="preserve">facv_fk_producto</t>
   </si>
   <si>
-    <t xml:space="preserve">FAC_VENTA-Producto</t>
+    <t xml:space="preserve">FAC_VENTA – PRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facv_fk_empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAC_VENTA – EMPLEADO</t>
   </si>
   <si>
     <t xml:space="preserve">TAREAS</t>
@@ -753,7 +802,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,7 +830,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB3CAC7"/>
       </patternFill>
     </fill>
     <fill>
@@ -793,7 +842,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB3CAC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
         <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF706E0C"/>
+        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
     <fill>
@@ -834,12 +895,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF706E0C"/>
-        <bgColor rgb="FF666666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
         <bgColor rgb="FFFFDE59"/>
       </patternFill>
@@ -865,7 +920,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB3CAC7"/>
       </patternFill>
     </fill>
     <fill>
@@ -1098,7 +1153,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1139,6 +1194,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1147,55 +1206,103 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1231,11 +1338,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1243,19 +1350,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1263,19 +1386,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1283,35 +1394,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="22" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1335,67 +1442,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="22" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="8" fillId="23" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1415,15 +1522,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="23" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="21" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1431,31 +1538,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="23" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="24" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="23" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="24" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1476,10 +1583,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1588,7 +1691,7 @@
       <rgbColor rgb="FF706E0C"/>
       <rgbColor rgb="FFA7074B"/>
       <rgbColor rgb="FF5983B0"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFB3CAC7"/>
       <rgbColor rgb="FF806868"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFAA68B9"/>
@@ -1597,7 +1700,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFE3A167"/>
       <rgbColor rgb="FF2A6099"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1610,9 +1713,9 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FFC77272"/>
-      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF71B585"/>
@@ -1627,7 +1730,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFFF4000"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFC77272"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -1881,11 +1984,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="54205885"/>
-        <c:axId val="49683063"/>
+        <c:axId val="85298273"/>
+        <c:axId val="29339091"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54205885"/>
+        <c:axId val="85298273"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +2016,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49683063"/>
+        <c:crossAx val="29339091"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,7 +2024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49683063"/>
+        <c:axId val="29339091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +2061,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54205885"/>
+        <c:crossAx val="85298273"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2250,7 +2353,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,11 +2368,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17457275"/>
-        <c:axId val="55058383"/>
+        <c:axId val="11572069"/>
+        <c:axId val="53946481"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17457275"/>
+        <c:axId val="11572069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55058383"/>
+        <c:crossAx val="53946481"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55058383"/>
+        <c:axId val="53946481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2445,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17457275"/>
+        <c:crossAx val="11572069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2397,15 +2500,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104760</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>619200</xdr:colOff>
+      <xdr:colOff>619920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2413,7 +2516,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5548320" y="676440"/>
+        <a:off x="5549040" y="677160"/>
         <a:ext cx="5391360" cy="3269520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2427,15 +2530,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2443,7 +2546,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5463360" y="5762160"/>
+        <a:off x="5464080" y="5762880"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2513,8 +2616,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2845,10 +2948,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2881,7 +2984,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2890,10 +2993,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -2902,10 +3005,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -2926,12 +3029,24 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2949,606 +3064,852 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E48"/>
+  <dimension ref="B2:F54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.58"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>42</v>
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="s">
+      <c r="D15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
+      <c r="C21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
+      <c r="F22" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C23" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="s">
+      <c r="C26" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
+      <c r="C31" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="s">
+      <c r="C36" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12" t="s">
+      <c r="C37" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12" t="s">
+      <c r="C38" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12" t="s">
+      <c r="C43" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12" t="s">
+      <c r="C47" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12" t="s">
+      <c r="C48" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12" t="s">
+      <c r="C53" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>100</v>
+      <c r="C54" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3569,7 +3930,7 @@
   </sheetPr>
   <dimension ref="B3:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
@@ -3580,193 +3941,193 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="8.38"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>105</v>
+      <c r="B4" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="26" t="n">
+      <c r="B5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="39" t="n">
         <f aca="false">D6+D7+D8+D9+D10</f>
         <v>100</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
-        <v>108</v>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="29" t="n">
+      <c r="B6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="42" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="29" t="n">
+      <c r="E6" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="29" t="n">
+      <c r="B7" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="42" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="29" t="n">
+      <c r="E7" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="29" t="n">
+      <c r="B8" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="42" t="n">
         <v>40</v>
       </c>
-      <c r="E8" s="29" t="n">
+      <c r="E8" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="29" t="n">
+      <c r="B9" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="42" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="29" t="n">
+      <c r="B10" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="42" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="29" t="n">
+      <c r="E10" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="31" t="n">
+      <c r="B12" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="44" t="n">
         <f aca="false">D13+D14+D15+D16+D17</f>
         <v>140</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="27" t="s">
-        <v>121</v>
+      <c r="E12" s="43"/>
+      <c r="F12" s="40" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="29" t="n">
+      <c r="B13" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="42" t="n">
         <v>20</v>
       </c>
-      <c r="E13" s="29" t="n">
+      <c r="E13" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="29" t="n">
+      <c r="B14" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="42" t="n">
         <v>20</v>
       </c>
-      <c r="E14" s="29" t="n">
+      <c r="E14" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="29" t="n">
+      <c r="B15" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="42" t="n">
         <v>40</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="29" t="n">
+      <c r="B16" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="42" t="n">
         <v>60</v>
       </c>
-      <c r="E16" s="29" t="n">
+      <c r="E16" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3791,499 +4152,499 @@
   </sheetPr>
   <dimension ref="B2:L49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P40" activeCellId="0" sqref="P40"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="35.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="6.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="32" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="35.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="6.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="45" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="B2" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="L3" s="35"/>
+      <c r="B3" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="37" t="n">
+      <c r="B4" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="50" t="n">
         <v>44450</v>
       </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="37" t="n">
+      <c r="B5" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="50" t="n">
         <v>44455</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="39" t="n">
+      <c r="B6" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="52" t="n">
         <f aca="false">_xlfn.DAYS(C5,C4)+1</f>
         <v>6</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="40" t="n">
+      <c r="B7" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="53" t="n">
         <f aca="false">8*C6</f>
         <v>48</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="41" t="n">
+      <c r="B8" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="54" t="n">
         <v>0.2</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="43" t="n">
+      <c r="B9" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="44" t="n">
+      <c r="B10" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="57" t="n">
         <f aca="false">C7*C8*C9</f>
         <v>48</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="45" t="n">
+      <c r="B11" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="58" t="n">
         <f aca="false">C10/7</f>
         <v>6.85714285714286</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="46" t="n">
+      <c r="B12" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="59" t="n">
         <f aca="false">IFERROR(C11/C9,0)</f>
         <v>1.37142857142857</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="47"/>
-      <c r="L13" s="35"/>
+      <c r="B13" s="60"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="L14" s="35"/>
+      <c r="B14" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="35"/>
+      <c r="B15" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="50" t="n">
+      <c r="B16" s="63" t="n">
         <v>44450</v>
       </c>
-      <c r="C16" s="51" t="n">
+      <c r="C16" s="64" t="n">
         <f aca="false">Backlog!D5</f>
         <v>100</v>
       </c>
-      <c r="D16" s="52" t="n">
+      <c r="D16" s="65" t="n">
         <f aca="false">C16</f>
         <v>100</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="50" t="n">
+      <c r="B17" s="63" t="n">
         <v>44451</v>
       </c>
-      <c r="C17" s="53" t="n">
+      <c r="C17" s="66" t="n">
         <f aca="false">C16-($C$16/(($C$6)-1))</f>
         <v>80</v>
       </c>
-      <c r="D17" s="52" t="n">
+      <c r="D17" s="65" t="n">
         <v>90</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="50" t="n">
+      <c r="B18" s="63" t="n">
         <v>44452</v>
       </c>
-      <c r="C18" s="53" t="n">
+      <c r="C18" s="66" t="n">
         <f aca="false">C17-($C$16/(($C$6)-1))</f>
         <v>60</v>
       </c>
-      <c r="D18" s="52" t="n">
+      <c r="D18" s="65" t="n">
         <v>70</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="50" t="n">
+      <c r="B19" s="63" t="n">
         <v>44453</v>
       </c>
-      <c r="C19" s="53" t="n">
+      <c r="C19" s="66" t="n">
         <f aca="false">C18-($C$16/(($C$6)-1))</f>
         <v>40</v>
       </c>
-      <c r="D19" s="52" t="n">
+      <c r="D19" s="65" t="n">
         <v>52</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="50" t="n">
+      <c r="B20" s="63" t="n">
         <v>44454</v>
       </c>
-      <c r="C20" s="53" t="n">
+      <c r="C20" s="66" t="n">
         <f aca="false">C19-($C$16/(($C$6)-1))</f>
         <v>20</v>
       </c>
-      <c r="D20" s="52" t="n">
+      <c r="D20" s="65" t="n">
         <v>42</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="50" t="n">
+      <c r="B21" s="63" t="n">
         <v>44455</v>
       </c>
-      <c r="C21" s="53" t="n">
+      <c r="C21" s="66" t="n">
         <f aca="false">C20-($C$16/(($C$6)-1))</f>
         <v>0</v>
       </c>
-      <c r="D21" s="52" t="n">
+      <c r="D21" s="65" t="n">
         <v>32</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="B25" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
     </row>
     <row r="26" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="37" t="n">
+      <c r="C28" s="50" t="n">
         <v>44459</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="37" t="n">
+      <c r="B29" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="50" t="n">
         <v>44465</v>
       </c>
-      <c r="L29" s="35"/>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="66" t="n">
+      <c r="B30" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="79" t="n">
         <f aca="false">_xlfn.DAYS(C29,C28)+1</f>
         <v>7</v>
       </c>
-      <c r="L30" s="35"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="67" t="n">
+      <c r="B31" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="80" t="n">
         <f aca="false">8*C30</f>
         <v>56</v>
       </c>
-      <c r="L31" s="35"/>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="41" t="n">
+      <c r="B32" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="54" t="n">
         <v>0.2</v>
       </c>
-      <c r="L32" s="35"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="68" t="n">
+      <c r="B33" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="L33" s="35"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="66" t="n">
+      <c r="B34" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="79" t="n">
         <f aca="false">C31*C32*C33</f>
         <v>56</v>
       </c>
-      <c r="L34" s="35"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="69" t="n">
+      <c r="B35" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="82" t="n">
         <f aca="false">C34/C30</f>
         <v>8</v>
       </c>
-      <c r="L35" s="35"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="70" t="n">
+      <c r="B36" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="83" t="n">
         <f aca="false">IFERROR(C35/C33,0)</f>
         <v>1.6</v>
       </c>
-      <c r="L36" s="35"/>
+      <c r="L36" s="48"/>
     </row>
     <row r="37" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="47"/>
-      <c r="L37" s="35"/>
+      <c r="B37" s="60"/>
+      <c r="L37" s="48"/>
     </row>
     <row r="38" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="47"/>
-      <c r="L38" s="35"/>
+      <c r="B38" s="60"/>
+      <c r="L38" s="48"/>
     </row>
     <row r="39" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="47"/>
-      <c r="L39" s="35"/>
+      <c r="B39" s="60"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="47"/>
-      <c r="L40" s="35"/>
+      <c r="B40" s="60"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="L41" s="35"/>
+      <c r="B41" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="L42" s="35"/>
+      <c r="B42" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" s="48"/>
     </row>
     <row r="43" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="71" t="n">
+      <c r="B43" s="84" t="n">
         <v>44459</v>
       </c>
-      <c r="C43" s="72" t="n">
+      <c r="C43" s="85" t="n">
         <f aca="false">Backlog!D12</f>
         <v>140</v>
       </c>
-      <c r="D43" s="73" t="n">
+      <c r="D43" s="86" t="n">
         <f aca="false">C43</f>
         <v>140</v>
       </c>
-      <c r="L43" s="35"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="71" t="n">
+      <c r="B44" s="84" t="n">
         <v>44460</v>
       </c>
-      <c r="C44" s="74" t="n">
+      <c r="C44" s="87" t="n">
         <f aca="false">C43-($C$43/(($C$30)-1))</f>
         <v>116.666666666667</v>
       </c>
-      <c r="D44" s="73" t="n">
+      <c r="D44" s="86" t="n">
         <v>120</v>
       </c>
-      <c r="L44" s="35"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="71" t="n">
+      <c r="B45" s="84" t="n">
         <v>44461</v>
       </c>
-      <c r="C45" s="74" t="n">
+      <c r="C45" s="87" t="n">
         <f aca="false">C44-($C$43/(($C$30)-1))</f>
         <v>93.3333333333333</v>
       </c>
-      <c r="D45" s="73" t="n">
+      <c r="D45" s="86" t="n">
         <v>100</v>
       </c>
-      <c r="L45" s="35"/>
+      <c r="L45" s="48"/>
     </row>
     <row r="46" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="71" t="n">
+      <c r="B46" s="84" t="n">
         <v>44462</v>
       </c>
-      <c r="C46" s="74" t="n">
+      <c r="C46" s="87" t="n">
         <f aca="false">C45-($C$43/(($C$30)-1))</f>
         <v>70</v>
       </c>
-      <c r="D46" s="73" t="n">
+      <c r="D46" s="86" t="n">
         <v>70</v>
       </c>
-      <c r="L46" s="35"/>
+      <c r="L46" s="48"/>
     </row>
     <row r="47" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="71" t="n">
+      <c r="B47" s="84" t="n">
         <v>44463</v>
       </c>
-      <c r="C47" s="74" t="n">
+      <c r="C47" s="87" t="n">
         <f aca="false">C46-($C$43/(($C$30)-1))</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="D47" s="73" t="n">
+      <c r="D47" s="86" t="n">
         <v>65</v>
       </c>
-      <c r="L47" s="35"/>
+      <c r="L47" s="48"/>
     </row>
     <row r="48" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="71" t="n">
+      <c r="B48" s="84" t="n">
         <v>44464</v>
       </c>
-      <c r="C48" s="74" t="n">
+      <c r="C48" s="87" t="n">
         <f aca="false">C47-($C$43/(($C$30)-1))</f>
         <v>23.3333333333334</v>
       </c>
-      <c r="D48" s="73" t="n">
-        <v>65</v>
-      </c>
-      <c r="L48" s="35"/>
+      <c r="D48" s="86" t="n">
+        <v>55</v>
+      </c>
+      <c r="L48" s="48"/>
     </row>
     <row r="49" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="71" t="n">
+      <c r="B49" s="84" t="n">
         <v>44465</v>
       </c>
-      <c r="C49" s="74" t="n">
+      <c r="C49" s="87" t="n">
         <f aca="false">C48-($C$43/(($C$30)-1))</f>
         <v>0</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="55"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4312,1524 +4673,1935 @@
   </sheetPr>
   <dimension ref="A2:AR33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Z31" activeCellId="0" sqref="Z31"/>
+      <selection pane="bottomLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="75" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="75" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="75" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="75" width="4.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="75" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="88" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="88" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="88" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="88" width="4.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="88" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F2" s="22" t="s">
-        <v>149</v>
+      <c r="F2" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="76" t="n">
+      <c r="E4" s="89" t="n">
         <f aca="false">D5+D4</f>
         <v>44450</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79" t="n">
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92" t="n">
         <f aca="false">I5</f>
         <v>44450</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79" t="n">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92" t="n">
         <f aca="false">P5</f>
         <v>44457</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79" t="n">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92" t="n">
         <f aca="false">W5</f>
         <v>44464</v>
       </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79" t="n">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92" t="n">
         <f aca="false">AD5</f>
         <v>44471</v>
       </c>
-      <c r="AE4" s="79" t="n">
+      <c r="AE4" s="92" t="n">
         <f aca="false">AE5</f>
         <v>44472</v>
       </c>
-      <c r="AF4" s="79" t="n">
+      <c r="AF4" s="92" t="n">
         <f aca="false">AF5</f>
         <v>44473</v>
       </c>
-      <c r="AG4" s="79" t="n">
+      <c r="AG4" s="92" t="n">
         <f aca="false">AG5</f>
         <v>44474</v>
       </c>
-      <c r="AH4" s="79" t="n">
+      <c r="AH4" s="92" t="n">
         <f aca="false">AH5</f>
         <v>44475</v>
       </c>
-      <c r="AI4" s="79" t="n">
+      <c r="AI4" s="92" t="n">
         <f aca="false">AI5</f>
         <v>44476</v>
       </c>
-      <c r="AJ4" s="79" t="n">
+      <c r="AJ4" s="92" t="n">
         <f aca="false">AJ5</f>
         <v>44477</v>
       </c>
-      <c r="AK4" s="79" t="n">
+      <c r="AK4" s="92" t="n">
         <f aca="false">AK5</f>
         <v>44478</v>
       </c>
-      <c r="AL4" s="79" t="n">
+      <c r="AL4" s="92" t="n">
         <f aca="false">AL5</f>
         <v>44479</v>
       </c>
-      <c r="AM4" s="79" t="n">
+      <c r="AM4" s="92" t="n">
         <f aca="false">AM5</f>
         <v>44480</v>
       </c>
-      <c r="AN4" s="79" t="n">
+      <c r="AN4" s="92" t="n">
         <f aca="false">AN5</f>
         <v>44481</v>
       </c>
-      <c r="AO4" s="79" t="n">
+      <c r="AO4" s="92" t="n">
         <f aca="false">AO5</f>
         <v>44482</v>
       </c>
-      <c r="AP4" s="79" t="n">
+      <c r="AP4" s="92" t="n">
         <f aca="false">AP5</f>
         <v>44483</v>
       </c>
-      <c r="AQ4" s="79" t="n">
+      <c r="AQ4" s="92" t="n">
         <f aca="false">AQ5</f>
         <v>44484</v>
       </c>
-      <c r="AR4" s="79"/>
+      <c r="AR4" s="92"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="82" t="n">
+      <c r="B5" s="93"/>
+      <c r="C5" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="95" t="n">
         <v>44450</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85" t="n">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98" t="n">
         <f aca="false">E4</f>
         <v>44450</v>
       </c>
-      <c r="J5" s="86" t="n">
+      <c r="J5" s="99" t="n">
         <f aca="false">I5+1</f>
         <v>44451</v>
       </c>
-      <c r="K5" s="86" t="n">
+      <c r="K5" s="99" t="n">
         <f aca="false">J5+1</f>
         <v>44452</v>
       </c>
-      <c r="L5" s="86" t="n">
+      <c r="L5" s="99" t="n">
         <f aca="false">K5+1</f>
         <v>44453</v>
       </c>
-      <c r="M5" s="86" t="n">
+      <c r="M5" s="99" t="n">
         <f aca="false">L5+1</f>
         <v>44454</v>
       </c>
-      <c r="N5" s="86" t="n">
+      <c r="N5" s="99" t="n">
         <f aca="false">M5+1</f>
         <v>44455</v>
       </c>
-      <c r="O5" s="87" t="n">
+      <c r="O5" s="100" t="n">
         <f aca="false">N5+1</f>
         <v>44456</v>
       </c>
-      <c r="P5" s="85" t="n">
+      <c r="P5" s="98" t="n">
         <f aca="false">O5+1</f>
         <v>44457</v>
       </c>
-      <c r="Q5" s="86" t="n">
+      <c r="Q5" s="99" t="n">
         <f aca="false">P5+1</f>
         <v>44458</v>
       </c>
-      <c r="R5" s="86" t="n">
+      <c r="R5" s="99" t="n">
         <f aca="false">Q5+1</f>
         <v>44459</v>
       </c>
-      <c r="S5" s="86" t="n">
+      <c r="S5" s="99" t="n">
         <f aca="false">R5+1</f>
         <v>44460</v>
       </c>
-      <c r="T5" s="86" t="n">
+      <c r="T5" s="99" t="n">
         <f aca="false">S5+1</f>
         <v>44461</v>
       </c>
-      <c r="U5" s="86" t="n">
+      <c r="U5" s="99" t="n">
         <f aca="false">T5+1</f>
         <v>44462</v>
       </c>
-      <c r="V5" s="87" t="n">
+      <c r="V5" s="100" t="n">
         <f aca="false">U5+1</f>
         <v>44463</v>
       </c>
-      <c r="W5" s="85" t="n">
+      <c r="W5" s="98" t="n">
         <f aca="false">V5+1</f>
         <v>44464</v>
       </c>
-      <c r="X5" s="86" t="n">
+      <c r="X5" s="99" t="n">
         <f aca="false">W5+1</f>
         <v>44465</v>
       </c>
-      <c r="Y5" s="86" t="n">
+      <c r="Y5" s="99" t="n">
         <f aca="false">X5+1</f>
         <v>44466</v>
       </c>
-      <c r="Z5" s="86" t="n">
+      <c r="Z5" s="99" t="n">
         <f aca="false">Y5+1</f>
         <v>44467</v>
       </c>
-      <c r="AA5" s="86" t="n">
+      <c r="AA5" s="99" t="n">
         <f aca="false">Z5+1</f>
         <v>44468</v>
       </c>
-      <c r="AB5" s="86" t="n">
+      <c r="AB5" s="99" t="n">
         <f aca="false">AA5+1</f>
         <v>44469</v>
       </c>
-      <c r="AC5" s="87" t="n">
+      <c r="AC5" s="100" t="n">
         <f aca="false">AB5+1</f>
         <v>44470</v>
       </c>
-      <c r="AD5" s="85" t="n">
+      <c r="AD5" s="98" t="n">
         <f aca="false">AC5+1</f>
         <v>44471</v>
       </c>
-      <c r="AE5" s="86" t="n">
+      <c r="AE5" s="99" t="n">
         <f aca="false">AD5+1</f>
         <v>44472</v>
       </c>
-      <c r="AF5" s="86" t="n">
+      <c r="AF5" s="99" t="n">
         <f aca="false">AE5+1</f>
         <v>44473</v>
       </c>
-      <c r="AG5" s="86" t="n">
+      <c r="AG5" s="99" t="n">
         <f aca="false">AF5+1</f>
         <v>44474</v>
       </c>
-      <c r="AH5" s="86" t="n">
+      <c r="AH5" s="99" t="n">
         <f aca="false">AG5+1</f>
         <v>44475</v>
       </c>
-      <c r="AI5" s="86" t="n">
+      <c r="AI5" s="99" t="n">
         <f aca="false">AH5+1</f>
         <v>44476</v>
       </c>
-      <c r="AJ5" s="87" t="n">
+      <c r="AJ5" s="100" t="n">
         <f aca="false">AI5+1</f>
         <v>44477</v>
       </c>
-      <c r="AK5" s="85" t="n">
+      <c r="AK5" s="98" t="n">
         <f aca="false">AJ5+1</f>
         <v>44478</v>
       </c>
-      <c r="AL5" s="86" t="n">
+      <c r="AL5" s="99" t="n">
         <f aca="false">AK5+1</f>
         <v>44479</v>
       </c>
-      <c r="AM5" s="86" t="n">
+      <c r="AM5" s="99" t="n">
         <f aca="false">AL5+1</f>
         <v>44480</v>
       </c>
-      <c r="AN5" s="86" t="n">
+      <c r="AN5" s="99" t="n">
         <f aca="false">AM5+1</f>
         <v>44481</v>
       </c>
-      <c r="AO5" s="86" t="n">
+      <c r="AO5" s="99" t="n">
         <f aca="false">AN5+1</f>
         <v>44482</v>
       </c>
-      <c r="AP5" s="86" t="n">
+      <c r="AP5" s="99" t="n">
         <f aca="false">AO5+1</f>
         <v>44483</v>
       </c>
-      <c r="AQ5" s="87" t="n">
+      <c r="AQ5" s="100" t="n">
         <f aca="false">AP5+1</f>
         <v>44484</v>
       </c>
-      <c r="AR5" s="87" t="n">
+      <c r="AR5" s="100" t="n">
         <f aca="false">AQ5+1</f>
         <v>44485</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89" t="str">
+      <c r="A6" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(I5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="J6" s="89" t="str">
+      <c r="J6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(J5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="K6" s="89" t="str">
+      <c r="K6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(K5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="L6" s="89" t="str">
+      <c r="L6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(L5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="M6" s="89" t="str">
+      <c r="M6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(M5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="N6" s="89" t="str">
+      <c r="N6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(N5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="O6" s="89" t="str">
+      <c r="O6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(O5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="P6" s="89" t="str">
+      <c r="P6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(P5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="Q6" s="89" t="str">
+      <c r="Q6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Q5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="R6" s="89" t="str">
+      <c r="R6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(R5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="S6" s="89" t="str">
+      <c r="S6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(S5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="T6" s="89" t="str">
+      <c r="T6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(T5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="U6" s="89" t="str">
+      <c r="U6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(U5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="V6" s="89" t="str">
+      <c r="V6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(V5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="W6" s="89" t="str">
+      <c r="W6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(W5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="X6" s="89" t="str">
+      <c r="X6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(X5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="Y6" s="89" t="str">
+      <c r="Y6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Y5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="Z6" s="89" t="str">
+      <c r="Z6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Z5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AA6" s="89" t="str">
+      <c r="AA6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AA5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AB6" s="89" t="str">
+      <c r="AB6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AB5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AC6" s="89" t="str">
+      <c r="AC6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AC5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AD6" s="89" t="str">
+      <c r="AD6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AD5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AE6" s="89" t="str">
+      <c r="AE6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AE5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AF6" s="89" t="str">
+      <c r="AF6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AF5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AG6" s="89" t="str">
+      <c r="AG6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AG5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AH6" s="89" t="str">
+      <c r="AH6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AH5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="89" t="str">
+      <c r="AI6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AI5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AJ6" s="89" t="str">
+      <c r="AJ6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AJ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AK6" s="89" t="str">
+      <c r="AK6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AK5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AL6" s="89" t="str">
+      <c r="AL6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AL5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AM6" s="89" t="str">
+      <c r="AM6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AM5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AN6" s="89" t="str">
+      <c r="AN6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AN5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AO6" s="89" t="str">
+      <c r="AO6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AO5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AP6" s="89" t="str">
+      <c r="AP6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AP5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AQ6" s="89" t="str">
+      <c r="AQ6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AQ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AR6" s="89" t="str">
+      <c r="AR6" s="102" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AR5,"DDD")))</f>
         <v>S</v>
       </c>
     </row>
-    <row r="7" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91" t="n">
+    <row r="7" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104" t="n">
         <f aca="false">(C8+C15+C21+C28)/4</f>
-        <v>0.41875</v>
-      </c>
-      <c r="D7" s="92" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="D7" s="105" t="n">
         <v>44450</v>
       </c>
-      <c r="E7" s="92" t="n">
+      <c r="E7" s="105" t="n">
         <v>44485</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-    </row>
-    <row r="8" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91" t="n">
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="103"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="103"/>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="103"/>
+    </row>
+    <row r="8" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="103"/>
+      <c r="C8" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="92" t="n">
+      <c r="D8" s="105" t="n">
         <v>44450</v>
       </c>
-      <c r="E8" s="92" t="n">
+      <c r="E8" s="105" t="n">
         <v>44458</v>
       </c>
-      <c r="F8" s="93" t="n">
+      <c r="F8" s="106" t="n">
         <f aca="false">Backlog!D5</f>
         <v>100</v>
       </c>
-      <c r="G8" s="93" t="n">
+      <c r="G8" s="106" t="n">
         <f aca="false">C8*F8</f>
         <v>100</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="95"/>
-      <c r="AN8" s="95"/>
-      <c r="AO8" s="95"/>
-      <c r="AP8" s="95"/>
-      <c r="AQ8" s="95"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="97" t="n">
+      <c r="A9" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="98" t="n">
+      <c r="D9" s="110" t="n">
         <v>44450</v>
       </c>
-      <c r="E9" s="98" t="n">
+      <c r="E9" s="110" t="n">
         <v>44452</v>
       </c>
-      <c r="F9" s="99" t="n">
+      <c r="F9" s="111" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="100" t="n">
+      <c r="G9" s="112" t="n">
         <f aca="false">C9*F9</f>
         <v>10</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="101"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="113"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="103" t="n">
+      <c r="A10" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="104" t="n">
+      <c r="D10" s="116" t="n">
         <v>44452</v>
       </c>
-      <c r="E10" s="104" t="n">
+      <c r="E10" s="116" t="n">
         <v>44453</v>
       </c>
-      <c r="F10" s="105" t="n">
+      <c r="F10" s="117" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="100" t="n">
+      <c r="G10" s="112" t="n">
         <f aca="false">C10*F10</f>
         <v>20</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="106"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="106"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="118"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="118"/>
+      <c r="AM10" s="118"/>
+      <c r="AN10" s="118"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="118"/>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="103" t="n">
+      <c r="A11" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="115" t="n">
         <v>0.4</v>
       </c>
-      <c r="D11" s="104" t="n">
+      <c r="D11" s="116" t="n">
         <v>44453</v>
       </c>
-      <c r="E11" s="104" t="n">
+      <c r="E11" s="116" t="n">
         <v>44455</v>
       </c>
-      <c r="F11" s="105" t="n">
+      <c r="F11" s="117" t="n">
         <v>40</v>
       </c>
-      <c r="G11" s="100" t="n">
+      <c r="G11" s="112" t="n">
         <f aca="false">C11*F11</f>
         <v>16</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="118"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="118"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="103" t="n">
+      <c r="A12" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="115" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="104" t="n">
+      <c r="D12" s="116" t="n">
         <v>44454</v>
       </c>
-      <c r="E12" s="104" t="n">
+      <c r="E12" s="116" t="n">
         <v>44455</v>
       </c>
-      <c r="F12" s="105" t="n">
+      <c r="F12" s="117" t="n">
         <v>20</v>
       </c>
-      <c r="G12" s="100" t="n">
+      <c r="G12" s="112" t="n">
         <f aca="false">C12*F12</f>
         <v>10</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="106"/>
-      <c r="AK12" s="106"/>
-      <c r="AL12" s="106"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="118"/>
+      <c r="AI12" s="118"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="118"/>
+      <c r="AL12" s="118"/>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="118"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="118"/>
+      <c r="AQ12" s="118"/>
+      <c r="AR12" s="118"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="103" t="n">
+      <c r="A13" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="104" t="n">
+      <c r="D13" s="116" t="n">
         <v>44455</v>
       </c>
-      <c r="E13" s="104" t="n">
+      <c r="E13" s="116" t="n">
         <v>44458</v>
       </c>
-      <c r="F13" s="105" t="n">
+      <c r="F13" s="117" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="100" t="n">
+      <c r="G13" s="112" t="n">
         <f aca="false">C13*F13</f>
         <v>10</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="118"/>
+      <c r="AN13" s="118"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="106"/>
-    </row>
-    <row r="15" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="n">
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="118"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="118"/>
+      <c r="AK14" s="118"/>
+      <c r="AL14" s="118"/>
+      <c r="AM14" s="118"/>
+      <c r="AN14" s="118"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+    </row>
+    <row r="15" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104" t="n">
         <f aca="false">(C16+C17+C18+C19)/4</f>
-        <v>0.675</v>
-      </c>
-      <c r="D15" s="104" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="116" t="n">
         <v>44459</v>
       </c>
-      <c r="E15" s="104" t="n">
+      <c r="E15" s="116" t="n">
         <v>44465</v>
       </c>
-      <c r="F15" s="93" t="n">
+      <c r="F15" s="106" t="n">
         <f aca="false">Backlog!D12</f>
         <v>140</v>
       </c>
-      <c r="G15" s="93" t="n">
+      <c r="G15" s="106" t="n">
         <f aca="false">C15*F15</f>
-        <v>94.5</v>
-      </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="90"/>
+        <v>98</v>
+      </c>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="103"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="103"/>
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="103"/>
+      <c r="AR15" s="103"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="103" t="n">
+      <c r="A16" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="104" t="n">
+      <c r="D16" s="116" t="n">
         <v>44459</v>
       </c>
-      <c r="E16" s="104" t="n">
+      <c r="E16" s="116" t="n">
         <v>44460</v>
       </c>
-      <c r="F16" s="99" t="n">
+      <c r="F16" s="111" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="100" t="n">
+      <c r="G16" s="112" t="n">
         <f aca="false">C16*F16</f>
         <v>20</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="106"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="106"/>
-      <c r="AJ16" s="106"/>
-      <c r="AK16" s="106"/>
-      <c r="AL16" s="106"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="118"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="103" t="n">
+      <c r="A17" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="104" t="n">
+      <c r="D17" s="116" t="n">
         <v>44460</v>
       </c>
-      <c r="E17" s="104" t="n">
+      <c r="E17" s="116" t="n">
         <v>44461</v>
       </c>
-      <c r="F17" s="105" t="n">
+      <c r="F17" s="117" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="100" t="n">
+      <c r="G17" s="112" t="n">
         <f aca="false">C17*F17</f>
         <v>20</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="103" t="n">
+      <c r="A18" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="115" t="n">
         <v>0.7</v>
       </c>
-      <c r="D18" s="104" t="n">
+      <c r="D18" s="116" t="n">
         <v>44461</v>
       </c>
-      <c r="E18" s="104" t="n">
+      <c r="E18" s="116" t="n">
         <v>44463</v>
       </c>
-      <c r="F18" s="105" t="n">
+      <c r="F18" s="117" t="n">
         <v>40</v>
       </c>
-      <c r="G18" s="100" t="n">
+      <c r="G18" s="112" t="n">
         <f aca="false">C18*F18</f>
         <v>28</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="104" t="n">
+      <c r="A19" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="115" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="116" t="n">
         <v>44463</v>
       </c>
-      <c r="E19" s="104" t="n">
+      <c r="E19" s="116" t="n">
         <v>44465</v>
       </c>
-      <c r="F19" s="105" t="n">
+      <c r="F19" s="117" t="n">
         <v>60</v>
       </c>
-      <c r="G19" s="100" t="n">
+      <c r="G19" s="112" t="n">
         <f aca="false">C19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="114"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="102"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
-    </row>
-    <row r="21" s="94" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91" t="n">
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+    </row>
+    <row r="21" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104" t="n">
         <f aca="false">(C22+C23+C24+C25+C26)/5</f>
         <v>0</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="90"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="103"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="103" t="n">
+      <c r="A22" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="106"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="118"/>
+      <c r="AG22" s="118"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="118"/>
+      <c r="AJ22" s="118"/>
+      <c r="AK22" s="118"/>
+      <c r="AL22" s="118"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="103" t="n">
+      <c r="A23" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="106"/>
-      <c r="AL23" s="106"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="118"/>
+      <c r="AG23" s="118"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
+      <c r="AJ23" s="118"/>
+      <c r="AK23" s="118"/>
+      <c r="AL23" s="118"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="118"/>
+      <c r="AQ23" s="118"/>
+      <c r="AR23" s="118"/>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="103" t="n">
+      <c r="A24" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
-      <c r="AL24" s="106"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="118"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="118"/>
+      <c r="AR24" s="118"/>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="103" t="n">
+      <c r="A25" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="106"/>
-      <c r="AL25" s="106"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="118"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="118"/>
+      <c r="AJ25" s="118"/>
+      <c r="AK25" s="118"/>
+      <c r="AL25" s="118"/>
+      <c r="AM25" s="118"/>
+      <c r="AN25" s="118"/>
+      <c r="AO25" s="118"/>
+      <c r="AP25" s="118"/>
+      <c r="AQ25" s="118"/>
+      <c r="AR25" s="118"/>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="103" t="n">
+      <c r="A26" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="106"/>
-      <c r="AK26" s="106"/>
-      <c r="AL26" s="106"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="118"/>
+      <c r="AG26" s="118"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="118"/>
+      <c r="AL26" s="118"/>
+      <c r="AM26" s="118"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="118"/>
+      <c r="AQ26" s="118"/>
+      <c r="AR26" s="118"/>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="118"/>
+      <c r="AF27" s="118"/>
+      <c r="AG27" s="118"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="118"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="118"/>
+      <c r="AL27" s="118"/>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="118"/>
+      <c r="AP27" s="118"/>
+      <c r="AQ27" s="118"/>
+      <c r="AR27" s="118"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="91" t="n">
+      <c r="A28" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="114"/>
+      <c r="C28" s="104" t="n">
         <f aca="false">(C29+C30+C31+C32+C33)/5</f>
         <v>0</v>
       </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="118"/>
+      <c r="AF28" s="118"/>
+      <c r="AG28" s="118"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="118"/>
+      <c r="AJ28" s="118"/>
+      <c r="AK28" s="118"/>
+      <c r="AL28" s="118"/>
+      <c r="AM28" s="118"/>
+      <c r="AN28" s="118"/>
+      <c r="AO28" s="118"/>
+      <c r="AP28" s="118"/>
+      <c r="AQ28" s="118"/>
+      <c r="AR28" s="118"/>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="103" t="n">
+      <c r="A29" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="115" t="n">
         <v>0</v>
       </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="118"/>
+      <c r="AG29" s="118"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="118"/>
+      <c r="AK29" s="118"/>
+      <c r="AL29" s="118"/>
+      <c r="AM29" s="118"/>
+      <c r="AN29" s="118"/>
+      <c r="AO29" s="118"/>
+      <c r="AP29" s="118"/>
+      <c r="AQ29" s="118"/>
+      <c r="AR29" s="118"/>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="103" t="n">
+      <c r="A30" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="115" t="n">
         <v>0</v>
       </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="118"/>
+      <c r="AF30" s="118"/>
+      <c r="AG30" s="118"/>
+      <c r="AH30" s="118"/>
+      <c r="AI30" s="118"/>
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="118"/>
+      <c r="AL30" s="118"/>
+      <c r="AM30" s="118"/>
+      <c r="AN30" s="118"/>
+      <c r="AO30" s="118"/>
+      <c r="AP30" s="118"/>
+      <c r="AQ30" s="118"/>
+      <c r="AR30" s="118"/>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="103" t="n">
+      <c r="A31" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="115" t="n">
         <v>0</v>
       </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="118"/>
+      <c r="AE31" s="118"/>
+      <c r="AF31" s="118"/>
+      <c r="AG31" s="118"/>
+      <c r="AH31" s="118"/>
+      <c r="AI31" s="118"/>
+      <c r="AJ31" s="118"/>
+      <c r="AK31" s="118"/>
+      <c r="AL31" s="118"/>
+      <c r="AM31" s="118"/>
+      <c r="AN31" s="118"/>
+      <c r="AO31" s="118"/>
+      <c r="AP31" s="118"/>
+      <c r="AQ31" s="118"/>
+      <c r="AR31" s="118"/>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="103" t="n">
+      <c r="A32" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="115" t="n">
         <v>0</v>
       </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="118"/>
+      <c r="AG32" s="118"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="118"/>
+      <c r="AO32" s="118"/>
+      <c r="AP32" s="118"/>
+      <c r="AQ32" s="118"/>
+      <c r="AR32" s="118"/>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="103" t="n">
+      <c r="A33" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="115" t="n">
         <v>0</v>
       </c>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="118"/>
+      <c r="AG33" s="118"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="118"/>
+      <c r="AN33" s="118"/>
+      <c r="AO33" s="118"/>
+      <c r="AP33" s="118"/>
+      <c r="AQ33" s="118"/>
+      <c r="AR33" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5849,12 +6621,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5B1C87EA-BC1F-4CC2-9726-E5978DD848C5}</x14:id>
+          <x14:id>{4B541CAF-A090-49D6-BD2B-842A9C2FF7C0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:AL26 I7:AK14 AL7:AR7">
+  <conditionalFormatting sqref="I8:AR33 I7:AK14 AL7:AR7">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(I$5&gt;=$D7,I$5&lt;=((($E7-$D7+1)*$C7)+$D7-1))</formula>
     </cfRule>
@@ -5874,7 +6646,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF2E57E6-91F6-4C90-8882-5F6E38345CF7}</x14:id>
+          <x14:id>{7B2F23C4-40E0-448F-8530-102FE0FF8A60}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5888,7 +6660,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF3FE0B7-58D6-4BB9-93E0-3A512B624544}</x14:id>
+          <x14:id>{55B850F0-54AC-4D1E-AC8A-B4D61E9F13A0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5902,7 +6674,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A1B91B0-74E2-41BE-9AF6-A72CAC584763}</x14:id>
+          <x14:id>{E05F8F49-AECE-4297-9E2B-B59DB4359B00}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5916,7 +6688,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1838B9F0-DE73-47E7-AFC0-16CE4934BEB6}</x14:id>
+          <x14:id>{FA63BB65-AC60-4C86-9814-CF4D49168875}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5930,7 +6702,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D2352019-92F0-478C-90D8-1279993AEFB7}</x14:id>
+          <x14:id>{5047D5EB-B3C7-4E89-8FFF-657A159DCB99}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5944,7 +6716,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{899EE6B4-7EAC-436B-BF69-AAFC6FA72ED8}</x14:id>
+          <x14:id>{3ADCB0C0-8E51-40E1-B1D4-5856C665235C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5958,7 +6730,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B73BA45F-4A92-4828-9024-6D99D99224C3}</x14:id>
+          <x14:id>{C14E6012-16BC-458D-8152-F95390EA61D1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5972,7 +6744,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B04C33E5-7F36-434E-8B3F-1652E311CD87}</x14:id>
+          <x14:id>{B04D18C0-FD70-4DC9-8C4F-E59B202D7A10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5989,7 +6761,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5B1C87EA-BC1F-4CC2-9726-E5978DD848C5}">
+          <x14:cfRule type="dataBar" id="{4B541CAF-A090-49D6-BD2B-842A9C2FF7C0}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6004,7 +6776,7 @@
           <xm:sqref>C10:C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF2E57E6-91F6-4C90-8882-5F6E38345CF7}">
+          <x14:cfRule type="dataBar" id="{7B2F23C4-40E0-448F-8530-102FE0FF8A60}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6019,7 +6791,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF3FE0B7-58D6-4BB9-93E0-3A512B624544}">
+          <x14:cfRule type="dataBar" id="{55B850F0-54AC-4D1E-AC8A-B4D61E9F13A0}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6034,7 +6806,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A1B91B0-74E2-41BE-9AF6-A72CAC584763}">
+          <x14:cfRule type="dataBar" id="{E05F8F49-AECE-4297-9E2B-B59DB4359B00}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6049,7 +6821,7 @@
           <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1838B9F0-DE73-47E7-AFC0-16CE4934BEB6}">
+          <x14:cfRule type="dataBar" id="{FA63BB65-AC60-4C86-9814-CF4D49168875}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6064,7 +6836,7 @@
           <xm:sqref>C22:C26 C16:C20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D2352019-92F0-478C-90D8-1279993AEFB7}">
+          <x14:cfRule type="dataBar" id="{5047D5EB-B3C7-4E89-8FFF-657A159DCB99}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6079,7 +6851,7 @@
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{899EE6B4-7EAC-436B-BF69-AAFC6FA72ED8}">
+          <x14:cfRule type="dataBar" id="{3ADCB0C0-8E51-40E1-B1D4-5856C665235C}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6094,7 +6866,7 @@
           <xm:sqref>C21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B73BA45F-4A92-4828-9024-6D99D99224C3}">
+          <x14:cfRule type="dataBar" id="{C14E6012-16BC-458D-8152-F95390EA61D1}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6109,7 +6881,7 @@
           <xm:sqref>C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B04C33E5-7F36-434E-8B3F-1652E311CD87}">
+          <x14:cfRule type="dataBar" id="{B04D18C0-FD70-4DC9-8C4F-E59B202D7A10}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ScrumEntregable.xlsx
+++ b/ScrumEntregable.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="197">
   <si>
     <t xml:space="preserve">Ítem</t>
   </si>
@@ -52,7 +52,6 @@
 - Registro de correo electrónico
 - Registro de teléfono
 - Registro de dirección 
-- Registro de sueldo
 </t>
   </si>
   <si>
@@ -204,7 +203,7 @@
     <t xml:space="preserve">N/a </t>
   </si>
   <si>
-    <t xml:space="preserve">*Los datos deben poseer persistencia. no se requieren campos multivaluados
+    <t xml:space="preserve">*Los datos deben poseer persistencia.
 </t>
   </si>
   <si>
@@ -251,9 +250,6 @@
     <t xml:space="preserve">pk</t>
   </si>
   <si>
-    <t xml:space="preserve">si</t>
-  </si>
-  <si>
     <t xml:space="preserve">varchar</t>
   </si>
   <si>
@@ -269,39 +265,21 @@
     <t xml:space="preserve">emp_direccion</t>
   </si>
   <si>
-    <t xml:space="preserve">emp_fk_producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPRESA - PRODUCTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_apellido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_cedula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_genero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_email</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPLEADO</t>
   </si>
   <si>
+    <t xml:space="preserve">emp_apellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_cedula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp_correo</t>
+  </si>
+  <si>
     <t xml:space="preserve">emp_EPS</t>
   </si>
   <si>
@@ -317,28 +295,19 @@
     <t xml:space="preserve">emp_Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">emp_pk_persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLEADO – PERSONA</t>
-  </si>
-  <si>
     <t xml:space="preserve">cli_id</t>
   </si>
   <si>
     <t xml:space="preserve">CLIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">cli_pk_factura_venta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLIENTE – FAC_VENTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli_pk_persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLIENTE – PERSONA</t>
+    <t xml:space="preserve">cli_nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli_correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli_cedula</t>
   </si>
   <si>
     <t xml:space="preserve">pvd_id</t>
@@ -383,18 +352,6 @@
     <t xml:space="preserve">prod_cantidad</t>
   </si>
   <si>
-    <t xml:space="preserve">prod_fk_factura_compra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTO – FAC_COMPRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prod_fk_proveedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTO – PROVEEDOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">facc_id</t>
   </si>
   <si>
@@ -413,6 +370,12 @@
     <t xml:space="preserve">facc_fecha_vencimiento</t>
   </si>
   <si>
+    <t xml:space="preserve">facc_fk_proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAC_COMPRA – PROVEEDOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">pqrs_id</t>
   </si>
   <si>
@@ -422,10 +385,10 @@
     <t xml:space="preserve">pqrs_fecha_registro</t>
   </si>
   <si>
-    <t xml:space="preserve">pqrs_cedula_usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pqrs_pk_cliente</t>
+    <t xml:space="preserve">pqrs_cedula_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pqrs_fk_cliente</t>
   </si>
   <si>
     <t xml:space="preserve">PQRS - CLIENTE</t>
@@ -449,10 +412,16 @@
     <t xml:space="preserve">facv_fecha_vencimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">facv_fk_producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAC_VENTA – PRODUCTO</t>
+    <t xml:space="preserve">facv_fk_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAC_VENTA – CLIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facv_fk_empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAC_VENTA – EMPRESA</t>
   </si>
   <si>
     <t xml:space="preserve">facv_fk_empleado</t>
@@ -549,7 +518,52 @@
     <t xml:space="preserve">Crear modelo relacional</t>
   </si>
   <si>
-    <t xml:space="preserve">SEMANA 1</t>
+    <t xml:space="preserve">ÉPICA 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño y modelo conceptual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 3,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizar modelo conceptual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizar modelo relacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 3,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear plantillas de vista general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa de Dominio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 3,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar capa de vista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 3,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecer arquitectura de trabajo en git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 3,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar la base de datos</t>
   </si>
   <si>
     <t xml:space="preserve">SPRINT 1</t>
@@ -594,7 +608,7 @@
     <t xml:space="preserve">REAL</t>
   </si>
   <si>
-    <t xml:space="preserve">SEMANA 2</t>
+    <t xml:space="preserve">SPRINT 2</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -603,7 +617,7 @@
     <t xml:space="preserve">SPRINT2</t>
   </si>
   <si>
-    <t xml:space="preserve">SPRINT 2</t>
+    <t xml:space="preserve">SPRINT 3</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -663,25 +677,10 @@
     <t xml:space="preserve">Sofia,Julia</t>
   </si>
   <si>
-    <t xml:space="preserve">ÉPICA 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 3,1</t>
+    <t xml:space="preserve">Luis</t>
   </si>
   <si>
     <t xml:space="preserve">Persona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 3,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 3,5</t>
   </si>
   <si>
     <t xml:space="preserve">ÉPICA 4</t>
@@ -802,7 +801,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,7 +811,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF468A1A"/>
-        <bgColor rgb="FF706E0C"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -853,13 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF706E0C"/>
-        <bgColor rgb="FF666666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC77272"/>
+        <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FFAA68B9"/>
       </patternFill>
     </fill>
@@ -872,13 +865,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAA68B9"/>
-        <bgColor rgb="FFC77272"/>
+        <bgColor rgb="FFBF819E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE3A167"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFBF819E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1159,22 +1152,42 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,10 +1203,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1226,14 +1235,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1242,10 +1255,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1286,23 +1295,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1312,10 +1309,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1338,11 +1331,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1350,35 +1343,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1386,7 +1363,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1394,31 +1383,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="22" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1442,67 +1435,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="23" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="8" fillId="22" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="21" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1522,15 +1515,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="4" fillId="23" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1538,31 +1531,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="24" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="23" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="24" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="9" fillId="23" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1603,7 +1596,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1688,7 +1681,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF706E0C"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FFA7074B"/>
       <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FFB3CAC7"/>
@@ -1696,7 +1689,7 @@
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFAA68B9"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFE3A167"/>
       <rgbColor rgb="FF2A6099"/>
@@ -1714,7 +1707,7 @@
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFB4C7DC"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3465A4"/>
@@ -1730,7 +1723,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFFF4000"/>
-      <rgbColor rgb="FFC77272"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -1738,7 +1731,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1984,11 +1977,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="85298273"/>
-        <c:axId val="29339091"/>
+        <c:axId val="83995592"/>
+        <c:axId val="10169664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85298273"/>
+        <c:axId val="83995592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2009,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29339091"/>
+        <c:crossAx val="10169664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2024,7 +2017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29339091"/>
+        <c:axId val="10169664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2054,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85298273"/>
+        <c:crossAx val="83995592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2111,7 +2104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2355,6 +2348,9 @@
                 <c:pt idx="5">
                   <c:v>55</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2368,11 +2364,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="11572069"/>
-        <c:axId val="53946481"/>
+        <c:axId val="2452279"/>
+        <c:axId val="13428755"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11572069"/>
+        <c:axId val="2452279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2396,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53946481"/>
+        <c:crossAx val="13428755"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2408,7 +2404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53946481"/>
+        <c:axId val="13428755"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2441,433 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11572069"/>
+        <c:crossAx val="2452279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurnDownChart!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDEAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BurnDownChart!$B$71:$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>lunes, 27 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>martes, 28 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miércoles, 29 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jueves, 30 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>viernes, 1 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sábado, 2 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>domingo, 3 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lunes, 4 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>martes, 5 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>miércoles, 6 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jueves, 7 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>viernes, 8 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sábado, 9 de octubre de 2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurnDownChart!$C$71:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurnDownChart!$D$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BurnDownChart!$B$71:$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>lunes, 27 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>martes, 28 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>miércoles, 29 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jueves, 30 de septiembre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>viernes, 1 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sábado, 2 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>domingo, 3 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lunes, 4 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>martes, 5 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>miércoles, 6 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jueves, 7 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>viernes, 8 de octubre de 2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sábado, 9 de octubre de 2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurnDownChart!$D$71:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="91700006"/>
+        <c:axId val="48389977"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91700006"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48389977"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48389977"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91700006"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2500,15 +2922,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>621360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2516,7 +2938,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5549040" y="677160"/>
+        <a:off x="5550480" y="678600"/>
         <a:ext cx="5391360" cy="3269520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2530,15 +2952,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>534600</xdr:colOff>
+      <xdr:colOff>536040</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2546,12 +2968,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5464080" y="5762880"/>
+        <a:off x="5465520" y="5764320"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21960</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536040</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5465520" y="11620080"/>
+        <a:ext cx="5391000" cy="4121280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2616,14 +3068,14 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="79.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="81.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="12.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="11.52"/>
@@ -2646,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="2" customFormat="true" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
@@ -2659,7 +3111,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="n">
         <v>2</v>
       </c>
@@ -2671,7 +3123,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="2" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="n">
         <v>3</v>
       </c>
@@ -2683,7 +3135,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="2" customFormat="true" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="n">
         <v>4</v>
       </c>
@@ -2695,7 +3147,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="n">
         <v>5</v>
       </c>
@@ -2707,7 +3159,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="2" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="n">
         <v>6</v>
       </c>
@@ -2719,7 +3171,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" s="2" customFormat="true" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="2" customFormat="true" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="n">
         <v>7</v>
       </c>
@@ -2731,7 +3183,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="n">
         <v>8</v>
       </c>
@@ -2743,7 +3195,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="n">
         <v>9</v>
       </c>
@@ -2755,7 +3207,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="n">
         <v>10</v>
       </c>
@@ -2767,7 +3219,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="8" t="n">
         <v>11</v>
       </c>
@@ -2778,11 +3230,11 @@
         <v>13</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="2" customFormat="true" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="n">
         <v>12</v>
       </c>
@@ -2794,7 +3246,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="n">
         <v>13</v>
       </c>
@@ -2806,7 +3258,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="n">
         <v>14</v>
       </c>
@@ -2818,7 +3270,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="2" customFormat="true" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="n">
         <v>15</v>
       </c>
@@ -2950,8 +3402,8 @@
   </sheetPr>
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2963,90 +3415,90 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="13" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="8" t="n">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="13" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="13" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="13" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="13" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="13" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3064,853 +3516,715 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F54"/>
+  <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.7"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="s">
+      <c r="C6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="D9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="C11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
+      <c r="C12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="C20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C23" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+      <c r="C24" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
+      <c r="C25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="C26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
+      <c r="C27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="19" t="s">
+      <c r="C28" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="C29" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="16" t="s">
+      <c r="C35" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="16" t="s">
+      <c r="C36" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="16" t="s">
+      <c r="C37" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="16" t="s">
+      <c r="C38" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="16" t="s">
+      <c r="C41" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="19" t="s">
+      <c r="C42" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="C44" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="19" t="s">
+      <c r="C46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="19" t="s">
+      <c r="C50" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="19" t="s">
+      <c r="C51" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="30" t="s">
+      <c r="C52" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="E52" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="F52" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3928,12 +4242,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F1048576"/>
+  <dimension ref="B3:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3941,49 +4255,49 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.38"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>121</v>
+      <c r="B4" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="39" t="n">
+      <c r="B5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="40" t="n">
         <f aca="false">D6+D7+D8+D9+D10</f>
         <v>100</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
-        <v>124</v>
+      <c r="E5" s="40"/>
+      <c r="F5" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="41" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D6" s="42" t="n">
         <v>10</v>
@@ -3991,14 +4305,14 @@
       <c r="E6" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="41" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D7" s="42" t="n">
         <v>20</v>
@@ -4006,14 +4320,14 @@
       <c r="E7" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="41" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D8" s="42" t="n">
         <v>40</v>
@@ -4021,14 +4335,14 @@
       <c r="E8" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="41" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D9" s="42" t="n">
         <v>10</v>
@@ -4036,14 +4350,14 @@
       <c r="E9" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="41" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D10" s="42" t="n">
         <v>20</v>
@@ -4051,30 +4365,30 @@
       <c r="E10" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="43" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D12" s="44" t="n">
         <f aca="false">D13+D14+D15+D16+D17</f>
         <v>140</v>
       </c>
       <c r="E12" s="43"/>
-      <c r="F12" s="40" t="s">
-        <v>137</v>
+      <c r="F12" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="41" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D13" s="42" t="n">
         <v>20</v>
@@ -4082,14 +4396,14 @@
       <c r="E13" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D14" s="42" t="n">
         <v>20</v>
@@ -4097,14 +4411,14 @@
       <c r="E14" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="41" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D15" s="42" t="n">
         <v>40</v>
@@ -4112,14 +4426,14 @@
       <c r="E15" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="40"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="41" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D16" s="42" t="n">
         <v>60</v>
@@ -4127,13 +4441,134 @@
       <c r="E16" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="40"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="44" t="n">
+        <f aca="false">D19+D20+D21+D22+D23+D24+D25</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E21" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="42" t="n">
+        <v>80</v>
+      </c>
+      <c r="E22" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="42" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E25" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F18:F25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4150,10 +4585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L49"/>
+  <dimension ref="B2:L83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4167,7 +4602,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="46" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -4182,14 +4617,14 @@
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="47" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="47"/>
       <c r="L3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="49" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C4" s="50" t="n">
         <v>44450</v>
@@ -4198,7 +4633,7 @@
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C5" s="50" t="n">
         <v>44455</v>
@@ -4207,7 +4642,7 @@
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="49" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C6" s="52" t="n">
         <f aca="false">_xlfn.DAYS(C5,C4)+1</f>
@@ -4217,7 +4652,7 @@
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="51" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C7" s="53" t="n">
         <f aca="false">8*C6</f>
@@ -4227,7 +4662,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="49" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C8" s="54" t="n">
         <v>0.2</v>
@@ -4236,7 +4671,7 @@
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="55" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C9" s="56" t="n">
         <v>5</v>
@@ -4245,7 +4680,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="49" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C10" s="57" t="n">
         <f aca="false">C7*C8*C9</f>
@@ -4255,7 +4690,7 @@
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="51" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C11" s="58" t="n">
         <f aca="false">C10/7</f>
@@ -4265,7 +4700,7 @@
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="49" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C12" s="59" t="n">
         <f aca="false">IFERROR(C11/C9,0)</f>
@@ -4279,7 +4714,7 @@
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="61" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -4287,13 +4722,13 @@
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="62" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L15" s="48"/>
     </row>
@@ -4390,14 +4825,14 @@
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="72" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="72" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
@@ -4422,14 +4857,14 @@
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="78" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C27" s="78"/>
       <c r="L27" s="48"/>
     </row>
     <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="49" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C28" s="50" t="n">
         <v>44459</v>
@@ -4438,7 +4873,7 @@
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C29" s="50" t="n">
         <v>44465</v>
@@ -4447,7 +4882,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="49" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C30" s="79" t="n">
         <f aca="false">_xlfn.DAYS(C29,C28)+1</f>
@@ -4457,7 +4892,7 @@
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C31" s="80" t="n">
         <f aca="false">8*C30</f>
@@ -4467,7 +4902,7 @@
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="49" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C32" s="54" t="n">
         <v>0.2</v>
@@ -4476,7 +4911,7 @@
     </row>
     <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C33" s="81" t="n">
         <v>5</v>
@@ -4485,7 +4920,7 @@
     </row>
     <row r="34" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="49" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C34" s="79" t="n">
         <f aca="false">C31*C32*C33</f>
@@ -4495,7 +4930,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C35" s="82" t="n">
         <f aca="false">C34/C30</f>
@@ -4505,7 +4940,7 @@
     </row>
     <row r="36" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="49" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C36" s="83" t="n">
         <f aca="false">IFERROR(C35/C33,0)</f>
@@ -4531,7 +4966,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="61" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
@@ -4539,13 +4974,13 @@
     </row>
     <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="62" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L42" s="48"/>
     </row>
@@ -4636,7 +5071,9 @@
         <f aca="false">C48-($C$43/(($C$30)-1))</f>
         <v>0</v>
       </c>
-      <c r="D49" s="86"/>
+      <c r="D49" s="86" t="n">
+        <v>30</v>
+      </c>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
@@ -4646,14 +5083,327 @@
       <c r="K49" s="67"/>
       <c r="L49" s="68"/>
     </row>
+    <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+    </row>
+    <row r="54" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="77"/>
+    </row>
+    <row r="55" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="L55" s="48"/>
+    </row>
+    <row r="56" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="50" t="n">
+        <v>44466</v>
+      </c>
+      <c r="L56" s="48"/>
+    </row>
+    <row r="57" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="50" t="n">
+        <v>44478</v>
+      </c>
+      <c r="L57" s="48"/>
+    </row>
+    <row r="58" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="79" t="n">
+        <f aca="false">_xlfn.DAYS(C57,C56)+1</f>
+        <v>13</v>
+      </c>
+      <c r="L58" s="48"/>
+    </row>
+    <row r="59" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="80" t="n">
+        <f aca="false">8*C58</f>
+        <v>104</v>
+      </c>
+      <c r="L59" s="48"/>
+    </row>
+    <row r="60" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L60" s="48"/>
+    </row>
+    <row r="61" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="81" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" s="48"/>
+    </row>
+    <row r="62" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="79" t="n">
+        <f aca="false">C59*C60*C61</f>
+        <v>104</v>
+      </c>
+      <c r="L62" s="48"/>
+    </row>
+    <row r="63" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="82" t="n">
+        <f aca="false">C62/C58</f>
+        <v>8</v>
+      </c>
+      <c r="L63" s="48"/>
+    </row>
+    <row r="64" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="83" t="n">
+        <f aca="false">IFERROR(C63/C61,0)</f>
+        <v>1.6</v>
+      </c>
+      <c r="L64" s="48"/>
+    </row>
+    <row r="65" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="60"/>
+      <c r="L65" s="48"/>
+    </row>
+    <row r="66" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="60"/>
+      <c r="L66" s="48"/>
+    </row>
+    <row r="67" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="60"/>
+      <c r="L67" s="48"/>
+    </row>
+    <row r="68" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="60"/>
+      <c r="L68" s="48"/>
+    </row>
+    <row r="69" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="L69" s="48"/>
+    </row>
+    <row r="70" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="L70" s="48"/>
+    </row>
+    <row r="71" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="84" t="n">
+        <v>44466</v>
+      </c>
+      <c r="C71" s="85" t="n">
+        <f aca="false">Backlog!D18</f>
+        <v>300</v>
+      </c>
+      <c r="D71" s="86" t="n">
+        <f aca="false">C71</f>
+        <v>300</v>
+      </c>
+      <c r="L71" s="48"/>
+    </row>
+    <row r="72" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="84" t="n">
+        <v>44467</v>
+      </c>
+      <c r="C72" s="87" t="n">
+        <f aca="false">C71-($C$71/(($C$58)-1))</f>
+        <v>275</v>
+      </c>
+      <c r="D72" s="86" t="n">
+        <v>280</v>
+      </c>
+      <c r="L72" s="48"/>
+    </row>
+    <row r="73" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="84" t="n">
+        <v>44468</v>
+      </c>
+      <c r="C73" s="87" t="n">
+        <f aca="false">C72-($C$71/(($C$58)-1))</f>
+        <v>250</v>
+      </c>
+      <c r="D73" s="86"/>
+      <c r="L73" s="48"/>
+    </row>
+    <row r="74" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="84" t="n">
+        <v>44469</v>
+      </c>
+      <c r="C74" s="87" t="n">
+        <f aca="false">C73-($C$71/(($C$58)-1))</f>
+        <v>225</v>
+      </c>
+      <c r="D74" s="86"/>
+      <c r="L74" s="48"/>
+    </row>
+    <row r="75" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="84" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C75" s="87" t="n">
+        <f aca="false">C74-($C$71/(($C$58)-1))</f>
+        <v>200</v>
+      </c>
+      <c r="D75" s="86"/>
+      <c r="L75" s="48"/>
+    </row>
+    <row r="76" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="84" t="n">
+        <v>44471</v>
+      </c>
+      <c r="C76" s="87" t="n">
+        <f aca="false">C75-($C$71/(($C$58)-1))</f>
+        <v>175</v>
+      </c>
+      <c r="D76" s="86"/>
+      <c r="L76" s="48"/>
+    </row>
+    <row r="77" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="84" t="n">
+        <v>44472</v>
+      </c>
+      <c r="C77" s="87" t="n">
+        <f aca="false">C76-($C$71/(($C$58)-1))</f>
+        <v>150</v>
+      </c>
+      <c r="D77" s="86"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="68"/>
+    </row>
+    <row r="78" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="84" t="n">
+        <v>44473</v>
+      </c>
+      <c r="C78" s="87" t="n">
+        <f aca="false">C77-($C$71/(($C$58)-1))</f>
+        <v>125</v>
+      </c>
+      <c r="D78" s="86"/>
+    </row>
+    <row r="79" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="84" t="n">
+        <v>44474</v>
+      </c>
+      <c r="C79" s="87" t="n">
+        <f aca="false">C78-($C$71/(($C$58)-1))</f>
+        <v>100</v>
+      </c>
+      <c r="D79" s="86"/>
+    </row>
+    <row r="80" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="84" t="n">
+        <v>44475</v>
+      </c>
+      <c r="C80" s="87" t="n">
+        <f aca="false">C79-($C$71/(($C$58)-1))</f>
+        <v>75</v>
+      </c>
+      <c r="D80" s="86"/>
+    </row>
+    <row r="81" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="84" t="n">
+        <v>44476</v>
+      </c>
+      <c r="C81" s="87" t="n">
+        <f aca="false">C80-($C$71/(($C$58)-1))</f>
+        <v>50</v>
+      </c>
+      <c r="D81" s="86"/>
+    </row>
+    <row r="82" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="84" t="n">
+        <v>44477</v>
+      </c>
+      <c r="C82" s="87" t="n">
+        <f aca="false">C81-($C$71/(($C$58)-1))</f>
+        <v>25</v>
+      </c>
+      <c r="D82" s="86"/>
+    </row>
+    <row r="83" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="84" t="n">
+        <v>44478</v>
+      </c>
+      <c r="C83" s="87" t="n">
+        <f aca="false">C82-($C$71/(($C$58)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="86"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4671,12 +5421,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AR33"/>
+  <dimension ref="A2:AR35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+      <selection pane="bottomLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4684,19 +5434,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="88" width="15.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="88" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="88" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="88" width="4.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="88" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F2" s="35" t="s">
-        <v>165</v>
+      <c r="F2" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="35" t="n">
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="89" t="n">
@@ -4797,7 +5547,7 @@
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="93"/>
       <c r="C5" s="94" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D5" s="95" t="n">
         <v>44450</v>
@@ -4953,25 +5703,25 @@
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="101" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H6" s="101"/>
       <c r="I6" s="102" t="str">
@@ -5121,12 +5871,12 @@
     </row>
     <row r="7" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="103" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B7" s="103"/>
       <c r="C7" s="104" t="n">
-        <f aca="false">(C8+C15+C21+C28)/4</f>
-        <v>0.425</v>
+        <f aca="false">(C8+C15+C21+C30)/4</f>
+        <v>0.45625</v>
       </c>
       <c r="D7" s="105" t="n">
         <v>44450</v>
@@ -5176,7 +5926,7 @@
     </row>
     <row r="8" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="103" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B8" s="103"/>
       <c r="C8" s="104" t="n">
@@ -5236,10 +5986,10 @@
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="108" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C9" s="109" t="n">
         <v>1</v>
@@ -5297,10 +6047,10 @@
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="114" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C10" s="115" t="n">
         <v>1</v>
@@ -5358,10 +6108,10 @@
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="114" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C11" s="115" t="n">
         <v>0.4</v>
@@ -5419,10 +6169,10 @@
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="114" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B12" s="114" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C12" s="115" t="n">
         <v>0.5</v>
@@ -5480,10 +6230,10 @@
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="114" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B13" s="114" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C13" s="115" t="n">
         <v>1</v>
@@ -5587,7 +6337,7 @@
     </row>
     <row r="15" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="103" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B15" s="103"/>
       <c r="C15" s="104" t="n">
@@ -5648,10 +6398,10 @@
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B16" s="114" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C16" s="115" t="n">
         <v>1</v>
@@ -5682,7 +6432,7 @@
       <c r="R16" s="118"/>
       <c r="S16" s="118"/>
       <c r="T16" s="118" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="U16" s="118"/>
       <c r="V16" s="118"/>
@@ -5711,10 +6461,10 @@
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="114" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C17" s="115" t="n">
         <v>1</v>
@@ -5772,10 +6522,10 @@
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="114" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B18" s="114" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C18" s="115" t="n">
         <v>0.7</v>
@@ -5833,10 +6583,10 @@
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="114" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C19" s="115" t="n">
         <v>0.1</v>
@@ -5940,17 +6690,27 @@
     </row>
     <row r="21" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="103" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="B21" s="103"/>
       <c r="C21" s="104" t="n">
-        <f aca="false">(C22+C23+C24+C25+C26)/5</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
+        <f aca="false">(C22+C23+C24+C25)/4</f>
+        <v>0.125</v>
+      </c>
+      <c r="D21" s="116" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E21" s="116" t="n">
+        <v>44478</v>
+      </c>
+      <c r="F21" s="106" t="n">
+        <f aca="false">Backlog!D18</f>
+        <v>300</v>
+      </c>
+      <c r="G21" s="106" t="n">
+        <f aca="false">F21*C21</f>
+        <v>37.5</v>
+      </c>
       <c r="H21" s="103"/>
       <c r="I21" s="103"/>
       <c r="J21" s="103"/>
@@ -5991,18 +6751,27 @@
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="114" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C22" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="116" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E22" s="116" t="n">
+        <v>44467</v>
+      </c>
+      <c r="F22" s="117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" s="112" t="n">
+        <f aca="false">C22*F22</f>
+        <v>10</v>
+      </c>
       <c r="H22" s="114"/>
       <c r="I22" s="118"/>
       <c r="J22" s="118"/>
@@ -6043,18 +6812,27 @@
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="114" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C23" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
+      <c r="D23" s="116" t="n">
+        <v>44467</v>
+      </c>
+      <c r="E23" s="116" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F23" s="117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" s="112" t="n">
+        <f aca="false">C23*F23</f>
+        <v>0</v>
+      </c>
       <c r="H23" s="114"/>
       <c r="I23" s="118"/>
       <c r="J23" s="118"/>
@@ -6095,18 +6873,27 @@
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="114" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="B24" s="114" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C24" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
+      <c r="D24" s="116" t="n">
+        <v>44468</v>
+      </c>
+      <c r="E24" s="116" t="n">
+        <v>44470</v>
+      </c>
+      <c r="F24" s="117" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" s="112" t="n">
+        <f aca="false">C24*F24</f>
+        <v>0</v>
+      </c>
       <c r="H24" s="114"/>
       <c r="I24" s="118"/>
       <c r="J24" s="118"/>
@@ -6147,18 +6934,27 @@
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="114" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="B25" s="114" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C25" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
+      <c r="D25" s="116" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E25" s="116" t="n">
+        <v>44472</v>
+      </c>
+      <c r="F25" s="117" t="n">
+        <v>80</v>
+      </c>
+      <c r="G25" s="112" t="n">
+        <f aca="false">C25*F25</f>
+        <v>0</v>
+      </c>
       <c r="H25" s="114"/>
       <c r="I25" s="118"/>
       <c r="J25" s="118"/>
@@ -6199,18 +6995,27 @@
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="114" t="s">
         <v>190</v>
-      </c>
-      <c r="B26" s="114" t="s">
-        <v>186</v>
       </c>
       <c r="C26" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
+      <c r="D26" s="116" t="n">
+        <v>44472</v>
+      </c>
+      <c r="E26" s="116" t="n">
+        <v>44473</v>
+      </c>
+      <c r="F26" s="117" t="n">
+        <v>80</v>
+      </c>
+      <c r="G26" s="112" t="n">
+        <f aca="false">C26*F26</f>
+        <v>0</v>
+      </c>
       <c r="H26" s="114"/>
       <c r="I26" s="118"/>
       <c r="J26" s="118"/>
@@ -6250,10 +7055,28 @@
       <c r="AR26" s="118"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
+      <c r="A27" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="116" t="n">
+        <v>44473</v>
+      </c>
+      <c r="E27" s="116" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F27" s="117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" s="112" t="n">
+        <f aca="false">C27*F27</f>
+        <v>0</v>
+      </c>
       <c r="H27" s="114"/>
       <c r="I27" s="118"/>
       <c r="J27" s="118"/>
@@ -6293,18 +7116,28 @@
       <c r="AR27" s="118"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="104" t="n">
-        <f aca="false">(C29+C30+C31+C32+C33)/5</f>
+      <c r="A28" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
+      <c r="D28" s="116" t="n">
+        <v>44475</v>
+      </c>
+      <c r="E28" s="116" t="n">
+        <v>44478</v>
+      </c>
+      <c r="F28" s="117" t="n">
+        <v>40</v>
+      </c>
+      <c r="G28" s="112" t="n">
+        <f aca="false">C28*F28</f>
+        <v>0</v>
+      </c>
       <c r="H28" s="114"/>
       <c r="I28" s="118"/>
       <c r="J28" s="118"/>
@@ -6344,15 +7177,6 @@
       <c r="AR28" s="118"/>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="115" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" s="116"/>
       <c r="E29" s="116"/>
       <c r="F29" s="117"/>
@@ -6396,13 +7220,12 @@
       <c r="AR29" s="118"/>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="114" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="115" t="n">
+      <c r="A30" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="114"/>
+      <c r="C30" s="104" t="n">
+        <f aca="false">(C31+C32+C33+C34+C35)/5</f>
         <v>0</v>
       </c>
       <c r="D30" s="116"/>
@@ -6449,10 +7272,10 @@
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="114" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" s="114" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C31" s="115" t="n">
         <v>0</v>
@@ -6501,10 +7324,10 @@
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="114" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C32" s="115" t="n">
         <v>0</v>
@@ -6553,10 +7376,10 @@
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" s="114" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C33" s="115" t="n">
         <v>0</v>
@@ -6603,6 +7426,110 @@
       <c r="AQ33" s="118"/>
       <c r="AR33" s="118"/>
     </row>
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="118"/>
+      <c r="AE34" s="118"/>
+      <c r="AF34" s="118"/>
+      <c r="AG34" s="118"/>
+      <c r="AH34" s="118"/>
+      <c r="AI34" s="118"/>
+      <c r="AJ34" s="118"/>
+      <c r="AK34" s="118"/>
+      <c r="AL34" s="118"/>
+      <c r="AM34" s="118"/>
+      <c r="AN34" s="118"/>
+      <c r="AO34" s="118"/>
+      <c r="AP34" s="118"/>
+      <c r="AQ34" s="118"/>
+      <c r="AR34" s="118"/>
+    </row>
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="118"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="118"/>
+      <c r="Y35" s="118"/>
+      <c r="Z35" s="118"/>
+      <c r="AA35" s="118"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="118"/>
+      <c r="AD35" s="118"/>
+      <c r="AE35" s="118"/>
+      <c r="AF35" s="118"/>
+      <c r="AG35" s="118"/>
+      <c r="AH35" s="118"/>
+      <c r="AI35" s="118"/>
+      <c r="AJ35" s="118"/>
+      <c r="AK35" s="118"/>
+      <c r="AL35" s="118"/>
+      <c r="AM35" s="118"/>
+      <c r="AN35" s="118"/>
+      <c r="AO35" s="118"/>
+      <c r="AP35" s="118"/>
+      <c r="AQ35" s="118"/>
+      <c r="AR35" s="118"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="I4:O4"/>
@@ -6621,12 +7548,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4B541CAF-A090-49D6-BD2B-842A9C2FF7C0}</x14:id>
+          <x14:id>{40CCED3B-B232-4954-BD10-1FF7484057C3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:AR33 I7:AK14 AL7:AR7">
+  <conditionalFormatting sqref="I8:AR35 I7:AK14 AL7:AR7">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(I$5&gt;=$D7,I$5&lt;=((($E7-$D7+1)*$C7)+$D7-1))</formula>
     </cfRule>
@@ -6646,7 +7573,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B2F23C4-40E0-448F-8530-102FE0FF8A60}</x14:id>
+          <x14:id>{61B212C6-7CBE-4A2A-B4E9-59A54EB8C200}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6660,7 +7587,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55B850F0-54AC-4D1E-AC8A-B4D61E9F13A0}</x14:id>
+          <x14:id>{505C1916-7530-4863-98AD-46B9589310EC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6674,12 +7601,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E05F8F49-AECE-4297-9E2B-B59DB4359B00}</x14:id>
+          <x14:id>{A74A1783-B98F-46AA-AE90-C98B20742141}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C26 C16:C20">
+  <conditionalFormatting sqref="C22:C28 C16:C20">
     <cfRule type="dataBar" priority="9">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -6688,7 +7615,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA63BB65-AC60-4C86-9814-CF4D49168875}</x14:id>
+          <x14:id>{F04F13DE-A2B3-4A40-A25C-7A65F0F099AB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6702,7 +7629,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5047D5EB-B3C7-4E89-8FFF-657A159DCB99}</x14:id>
+          <x14:id>{AD9CA219-FEAF-46C6-A51A-F2B56451C7F9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6716,12 +7643,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ADCB0C0-8E51-40E1-B1D4-5856C665235C}</x14:id>
+          <x14:id>{D55DFBA2-9568-4580-9595-77CBBF23E400}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C30">
     <cfRule type="dataBar" priority="12">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -6730,12 +7657,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C14E6012-16BC-458D-8152-F95390EA61D1}</x14:id>
+          <x14:id>{FD439F88-C467-43F4-AF1C-E655394413A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C33">
+  <conditionalFormatting sqref="C31:C35">
     <cfRule type="dataBar" priority="13">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="num" val="0"/>
@@ -6744,7 +7671,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B04D18C0-FD70-4DC9-8C4F-E59B202D7A10}</x14:id>
+          <x14:id>{37FC9178-5CEE-444B-88A6-85E270D990AD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6761,7 +7688,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4B541CAF-A090-49D6-BD2B-842A9C2FF7C0}">
+          <x14:cfRule type="dataBar" id="{40CCED3B-B232-4954-BD10-1FF7484057C3}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6776,7 +7703,7 @@
           <xm:sqref>C10:C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B2F23C4-40E0-448F-8530-102FE0FF8A60}">
+          <x14:cfRule type="dataBar" id="{61B212C6-7CBE-4A2A-B4E9-59A54EB8C200}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6791,7 +7718,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55B850F0-54AC-4D1E-AC8A-B4D61E9F13A0}">
+          <x14:cfRule type="dataBar" id="{505C1916-7530-4863-98AD-46B9589310EC}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6806,7 +7733,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E05F8F49-AECE-4297-9E2B-B59DB4359B00}">
+          <x14:cfRule type="dataBar" id="{A74A1783-B98F-46AA-AE90-C98B20742141}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6821,7 +7748,7 @@
           <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA63BB65-AC60-4C86-9814-CF4D49168875}">
+          <x14:cfRule type="dataBar" id="{F04F13DE-A2B3-4A40-A25C-7A65F0F099AB}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6833,10 +7760,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C22:C26 C16:C20</xm:sqref>
+          <xm:sqref>C22:C28 C16:C20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5047D5EB-B3C7-4E89-8FFF-657A159DCB99}">
+          <x14:cfRule type="dataBar" id="{AD9CA219-FEAF-46C6-A51A-F2B56451C7F9}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6851,7 +7778,7 @@
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3ADCB0C0-8E51-40E1-B1D4-5856C665235C}">
+          <x14:cfRule type="dataBar" id="{D55DFBA2-9568-4580-9595-77CBBF23E400}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6866,7 +7793,7 @@
           <xm:sqref>C21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C14E6012-16BC-458D-8152-F95390EA61D1}">
+          <x14:cfRule type="dataBar" id="{FD439F88-C467-43F4-AF1C-E655394413A8}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6878,10 +7805,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C28</xm:sqref>
+          <xm:sqref>C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B04D18C0-FD70-4DC9-8C4F-E59B202D7A10}">
+          <x14:cfRule type="dataBar" id="{37FC9178-5CEE-444B-88A6-85E270D990AD}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6893,7 +7820,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C29:C33</xm:sqref>
+          <xm:sqref>C31:C35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ScrumEntregable.xlsx
+++ b/ScrumEntregable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos (RF)" sheetId="1" state="visible" r:id="rId2"/>
@@ -1146,169 +1146,161 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1731,7 +1723,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1977,11 +1969,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83995592"/>
-        <c:axId val="10169664"/>
+        <c:axId val="39709558"/>
+        <c:axId val="80829915"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83995592"/>
+        <c:axId val="39709558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2001,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10169664"/>
+        <c:crossAx val="80829915"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2017,7 +2009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10169664"/>
+        <c:axId val="80829915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +2046,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83995592"/>
+        <c:crossAx val="39709558"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2104,7 +2096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2364,11 +2356,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="2452279"/>
-        <c:axId val="13428755"/>
+        <c:axId val="39149555"/>
+        <c:axId val="21264373"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2452279"/>
+        <c:axId val="39149555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,7 +2388,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13428755"/>
+        <c:crossAx val="21264373"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2404,7 +2396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13428755"/>
+        <c:axId val="21264373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2433,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2452279"/>
+        <c:crossAx val="39149555"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2491,7 +2483,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2790,11 +2782,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="91700006"/>
-        <c:axId val="48389977"/>
+        <c:axId val="22569768"/>
+        <c:axId val="9397666"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91700006"/>
+        <c:axId val="22569768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2814,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48389977"/>
+        <c:crossAx val="9397666"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2830,7 +2822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48389977"/>
+        <c:axId val="9397666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +2859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91700006"/>
+        <c:crossAx val="22569768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2922,15 +2914,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>107640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>621360</xdr:colOff>
+      <xdr:colOff>622080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2938,7 +2930,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5550480" y="678600"/>
+        <a:off x="5551200" y="679320"/>
         <a:ext cx="5391360" cy="3269520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2952,15 +2944,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>22680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>536040</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2968,7 +2960,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5465520" y="5764320"/>
+        <a:off x="5466240" y="5765040"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2982,13 +2974,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>22680</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>536040</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
@@ -2998,7 +2990,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5465520" y="11620080"/>
+        <a:off x="5466240" y="11620080"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3068,8 +3060,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3084,7 +3076,7 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3282,7 +3274,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="n">
         <v>16</v>
       </c>
@@ -3294,7 +3286,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="n">
         <v>17</v>
       </c>
@@ -3306,7 +3298,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="n">
         <v>18</v>
       </c>
@@ -3318,7 +3310,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="n">
         <v>19</v>
       </c>
@@ -3330,7 +3322,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="n">
         <v>20</v>
       </c>
@@ -3415,90 +3407,90 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="n">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3528,7 +3520,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.68"/>
@@ -3536,695 +3528,695 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="20"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4255,314 +4247,314 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="8.38"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="37" t="n">
         <f aca="false">D6+D7+D8+D9+D10</f>
         <v>100</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="42" t="n">
+      <c r="D6" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="42" t="n">
+      <c r="E6" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="42" t="n">
+      <c r="D7" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="42" t="n">
+      <c r="E7" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="42" t="n">
+      <c r="D8" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="42" t="n">
+      <c r="D9" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="42" t="n">
+      <c r="E9" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="42" t="n">
+      <c r="D10" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="44" t="n">
+      <c r="D12" s="42" t="n">
         <f aca="false">D13+D14+D15+D16+D17</f>
         <v>140</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="38" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="42" t="n">
+      <c r="D13" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="42" t="n">
+      <c r="D14" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E14" s="42" t="n">
+      <c r="E14" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="42" t="n">
+      <c r="D15" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="42" t="n">
+      <c r="D16" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="44" t="n">
+      <c r="D18" s="42" t="n">
         <f aca="false">D19+D20+D21+D22+D23+D24+D25</f>
         <v>300</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="38" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="42" t="n">
+      <c r="D19" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E19" s="42" t="n">
+      <c r="E19" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="42" t="n">
+      <c r="D20" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E20" s="42" t="n">
+      <c r="E20" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="42" t="n">
+      <c r="D21" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="E21" s="42" t="n">
+      <c r="E21" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="42" t="n">
+      <c r="D22" s="40" t="n">
         <v>80</v>
       </c>
-      <c r="E22" s="42" t="n">
+      <c r="E22" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="42" t="n">
+      <c r="D23" s="40" t="n">
         <v>80</v>
       </c>
-      <c r="E23" s="42" t="n">
+      <c r="E23" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="42" t="n">
+      <c r="D24" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E24" s="42" t="n">
+      <c r="E24" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="42" t="n">
+      <c r="D25" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="E25" s="42" t="n">
+      <c r="E25" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4587,811 +4579,811 @@
   </sheetPr>
   <dimension ref="B2:L83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="35.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="6.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="45" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="35.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="6.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="43" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="C3" s="45"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="50" t="n">
+      <c r="C4" s="48" t="n">
         <v>44450</v>
       </c>
-      <c r="L4" s="48"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="50" t="n">
+      <c r="C5" s="48" t="n">
         <v>44455</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="52" t="n">
+      <c r="C6" s="50" t="n">
         <f aca="false">_xlfn.DAYS(C5,C4)+1</f>
         <v>6</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="53" t="n">
+      <c r="C7" s="51" t="n">
         <f aca="false">8*C6</f>
         <v>48</v>
       </c>
-      <c r="L7" s="48"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="54" t="n">
+      <c r="C8" s="52" t="n">
         <v>0.2</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="56" t="n">
+      <c r="C9" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="57" t="n">
+      <c r="C10" s="55" t="n">
         <f aca="false">C7*C8*C9</f>
         <v>48</v>
       </c>
-      <c r="L10" s="48"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="58" t="n">
+      <c r="C11" s="56" t="n">
         <f aca="false">C10/7</f>
         <v>6.85714285714286</v>
       </c>
-      <c r="L11" s="48"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="57" t="n">
         <f aca="false">IFERROR(C11/C9,0)</f>
         <v>1.37142857142857</v>
       </c>
-      <c r="L12" s="48"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="60"/>
-      <c r="L13" s="48"/>
+      <c r="B13" s="58"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="L14" s="48"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="63" t="n">
+      <c r="B16" s="61" t="n">
         <v>44450</v>
       </c>
-      <c r="C16" s="64" t="n">
+      <c r="C16" s="62" t="n">
         <f aca="false">Backlog!D5</f>
         <v>100</v>
       </c>
-      <c r="D16" s="65" t="n">
+      <c r="D16" s="63" t="n">
         <f aca="false">C16</f>
         <v>100</v>
       </c>
-      <c r="L16" s="48"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="63" t="n">
+      <c r="B17" s="61" t="n">
         <v>44451</v>
       </c>
-      <c r="C17" s="66" t="n">
+      <c r="C17" s="64" t="n">
         <f aca="false">C16-($C$16/(($C$6)-1))</f>
         <v>80</v>
       </c>
-      <c r="D17" s="65" t="n">
+      <c r="D17" s="63" t="n">
         <v>90</v>
       </c>
-      <c r="L17" s="48"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="63" t="n">
+      <c r="B18" s="61" t="n">
         <v>44452</v>
       </c>
-      <c r="C18" s="66" t="n">
+      <c r="C18" s="64" t="n">
         <f aca="false">C17-($C$16/(($C$6)-1))</f>
         <v>60</v>
       </c>
-      <c r="D18" s="65" t="n">
+      <c r="D18" s="63" t="n">
         <v>70</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="63" t="n">
+      <c r="B19" s="61" t="n">
         <v>44453</v>
       </c>
-      <c r="C19" s="66" t="n">
+      <c r="C19" s="64" t="n">
         <f aca="false">C18-($C$16/(($C$6)-1))</f>
         <v>40</v>
       </c>
-      <c r="D19" s="65" t="n">
+      <c r="D19" s="63" t="n">
         <v>52</v>
       </c>
-      <c r="L19" s="48"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="63" t="n">
+      <c r="B20" s="61" t="n">
         <v>44454</v>
       </c>
-      <c r="C20" s="66" t="n">
+      <c r="C20" s="64" t="n">
         <f aca="false">C19-($C$16/(($C$6)-1))</f>
         <v>20</v>
       </c>
-      <c r="D20" s="65" t="n">
+      <c r="D20" s="63" t="n">
         <v>42</v>
       </c>
-      <c r="L20" s="48"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="63" t="n">
+      <c r="B21" s="61" t="n">
         <v>44455</v>
       </c>
-      <c r="C21" s="66" t="n">
+      <c r="C21" s="64" t="n">
         <f aca="false">C20-($C$16/(($C$6)-1))</f>
         <v>0</v>
       </c>
-      <c r="D21" s="65" t="n">
+      <c r="D21" s="63" t="n">
         <v>32</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="L27" s="48"/>
+      <c r="C27" s="76"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="50" t="n">
+      <c r="C28" s="48" t="n">
         <v>44459</v>
       </c>
-      <c r="L28" s="48"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="50" t="n">
+      <c r="C29" s="48" t="n">
         <v>44465</v>
       </c>
-      <c r="L29" s="48"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="79" t="n">
+      <c r="C30" s="77" t="n">
         <f aca="false">_xlfn.DAYS(C29,C28)+1</f>
         <v>7</v>
       </c>
-      <c r="L30" s="48"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="80" t="n">
+      <c r="C31" s="78" t="n">
         <f aca="false">8*C30</f>
         <v>56</v>
       </c>
-      <c r="L31" s="48"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="54" t="n">
+      <c r="C32" s="52" t="n">
         <v>0.2</v>
       </c>
-      <c r="L32" s="48"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="81" t="n">
+      <c r="C33" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="L33" s="48"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="79" t="n">
+      <c r="C34" s="77" t="n">
         <f aca="false">C31*C32*C33</f>
         <v>56</v>
       </c>
-      <c r="L34" s="48"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="82" t="n">
+      <c r="C35" s="80" t="n">
         <f aca="false">C34/C30</f>
         <v>8</v>
       </c>
-      <c r="L35" s="48"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="83" t="n">
+      <c r="C36" s="81" t="n">
         <f aca="false">IFERROR(C35/C33,0)</f>
         <v>1.6</v>
       </c>
-      <c r="L36" s="48"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="60"/>
-      <c r="L37" s="48"/>
+      <c r="B37" s="58"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="60"/>
-      <c r="L38" s="48"/>
+      <c r="B38" s="58"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="60"/>
-      <c r="L39" s="48"/>
+      <c r="B39" s="58"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="60"/>
-      <c r="L40" s="48"/>
+      <c r="B40" s="58"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="L41" s="48"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="L42" s="48"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="84" t="n">
+      <c r="B43" s="82" t="n">
         <v>44459</v>
       </c>
-      <c r="C43" s="85" t="n">
+      <c r="C43" s="83" t="n">
         <f aca="false">Backlog!D12</f>
         <v>140</v>
       </c>
-      <c r="D43" s="86" t="n">
+      <c r="D43" s="84" t="n">
         <f aca="false">C43</f>
         <v>140</v>
       </c>
-      <c r="L43" s="48"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="84" t="n">
+      <c r="B44" s="82" t="n">
         <v>44460</v>
       </c>
-      <c r="C44" s="87" t="n">
+      <c r="C44" s="85" t="n">
         <f aca="false">C43-($C$43/(($C$30)-1))</f>
         <v>116.666666666667</v>
       </c>
-      <c r="D44" s="86" t="n">
+      <c r="D44" s="84" t="n">
         <v>120</v>
       </c>
-      <c r="L44" s="48"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="84" t="n">
+      <c r="B45" s="82" t="n">
         <v>44461</v>
       </c>
-      <c r="C45" s="87" t="n">
+      <c r="C45" s="85" t="n">
         <f aca="false">C44-($C$43/(($C$30)-1))</f>
         <v>93.3333333333333</v>
       </c>
-      <c r="D45" s="86" t="n">
+      <c r="D45" s="84" t="n">
         <v>100</v>
       </c>
-      <c r="L45" s="48"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="84" t="n">
+      <c r="B46" s="82" t="n">
         <v>44462</v>
       </c>
-      <c r="C46" s="87" t="n">
+      <c r="C46" s="85" t="n">
         <f aca="false">C45-($C$43/(($C$30)-1))</f>
         <v>70</v>
       </c>
-      <c r="D46" s="86" t="n">
+      <c r="D46" s="84" t="n">
         <v>70</v>
       </c>
-      <c r="L46" s="48"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="84" t="n">
+      <c r="B47" s="82" t="n">
         <v>44463</v>
       </c>
-      <c r="C47" s="87" t="n">
+      <c r="C47" s="85" t="n">
         <f aca="false">C46-($C$43/(($C$30)-1))</f>
         <v>46.6666666666667</v>
       </c>
-      <c r="D47" s="86" t="n">
+      <c r="D47" s="84" t="n">
         <v>65</v>
       </c>
-      <c r="L47" s="48"/>
+      <c r="L47" s="46"/>
     </row>
     <row r="48" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="84" t="n">
+      <c r="B48" s="82" t="n">
         <v>44464</v>
       </c>
-      <c r="C48" s="87" t="n">
+      <c r="C48" s="85" t="n">
         <f aca="false">C47-($C$43/(($C$30)-1))</f>
         <v>23.3333333333334</v>
       </c>
-      <c r="D48" s="86" t="n">
+      <c r="D48" s="84" t="n">
         <v>55</v>
       </c>
-      <c r="L48" s="48"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="84" t="n">
+      <c r="B49" s="82" t="n">
         <v>44465</v>
       </c>
-      <c r="C49" s="87" t="n">
+      <c r="C49" s="85" t="n">
         <f aca="false">C48-($C$43/(($C$30)-1))</f>
         <v>0</v>
       </c>
-      <c r="D49" s="86" t="n">
+      <c r="D49" s="84" t="n">
         <v>30</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="68"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="70"/>
+      <c r="D53" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
     </row>
     <row r="54" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="75"/>
     </row>
     <row r="55" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="L55" s="48"/>
+      <c r="C55" s="76"/>
+      <c r="L55" s="46"/>
     </row>
     <row r="56" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="50" t="n">
+      <c r="C56" s="48" t="n">
         <v>44466</v>
       </c>
-      <c r="L56" s="48"/>
+      <c r="L56" s="46"/>
     </row>
     <row r="57" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="50" t="n">
+      <c r="C57" s="48" t="n">
         <v>44478</v>
       </c>
-      <c r="L57" s="48"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="79" t="n">
+      <c r="C58" s="77" t="n">
         <f aca="false">_xlfn.DAYS(C57,C56)+1</f>
         <v>13</v>
       </c>
-      <c r="L58" s="48"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="80" t="n">
+      <c r="C59" s="78" t="n">
         <f aca="false">8*C58</f>
         <v>104</v>
       </c>
-      <c r="L59" s="48"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="54" t="n">
+      <c r="C60" s="52" t="n">
         <v>0.2</v>
       </c>
-      <c r="L60" s="48"/>
+      <c r="L60" s="46"/>
     </row>
     <row r="61" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="81" t="n">
+      <c r="C61" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="L61" s="48"/>
+      <c r="L61" s="46"/>
     </row>
     <row r="62" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="79" t="n">
+      <c r="C62" s="77" t="n">
         <f aca="false">C59*C60*C61</f>
         <v>104</v>
       </c>
-      <c r="L62" s="48"/>
+      <c r="L62" s="46"/>
     </row>
     <row r="63" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="82" t="n">
+      <c r="C63" s="80" t="n">
         <f aca="false">C62/C58</f>
         <v>8</v>
       </c>
-      <c r="L63" s="48"/>
+      <c r="L63" s="46"/>
     </row>
     <row r="64" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="83" t="n">
+      <c r="C64" s="81" t="n">
         <f aca="false">IFERROR(C63/C61,0)</f>
         <v>1.6</v>
       </c>
-      <c r="L64" s="48"/>
+      <c r="L64" s="46"/>
     </row>
     <row r="65" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="60"/>
-      <c r="L65" s="48"/>
+      <c r="B65" s="58"/>
+      <c r="L65" s="46"/>
     </row>
     <row r="66" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="60"/>
-      <c r="L66" s="48"/>
+      <c r="B66" s="58"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="60"/>
-      <c r="L67" s="48"/>
+      <c r="B67" s="58"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="60"/>
-      <c r="L68" s="48"/>
+      <c r="B68" s="58"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="L69" s="48"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="L69" s="46"/>
     </row>
     <row r="70" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="62" t="s">
+      <c r="D70" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="L70" s="48"/>
+      <c r="L70" s="46"/>
     </row>
     <row r="71" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="84" t="n">
+      <c r="B71" s="82" t="n">
         <v>44466</v>
       </c>
-      <c r="C71" s="85" t="n">
+      <c r="C71" s="83" t="n">
         <f aca="false">Backlog!D18</f>
         <v>300</v>
       </c>
-      <c r="D71" s="86" t="n">
+      <c r="D71" s="84" t="n">
         <f aca="false">C71</f>
         <v>300</v>
       </c>
-      <c r="L71" s="48"/>
+      <c r="L71" s="46"/>
     </row>
     <row r="72" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="84" t="n">
+      <c r="B72" s="82" t="n">
         <v>44467</v>
       </c>
-      <c r="C72" s="87" t="n">
+      <c r="C72" s="85" t="n">
         <f aca="false">C71-($C$71/(($C$58)-1))</f>
         <v>275</v>
       </c>
-      <c r="D72" s="86" t="n">
+      <c r="D72" s="84" t="n">
         <v>280</v>
       </c>
-      <c r="L72" s="48"/>
+      <c r="L72" s="46"/>
     </row>
     <row r="73" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="84" t="n">
+      <c r="B73" s="82" t="n">
         <v>44468</v>
       </c>
-      <c r="C73" s="87" t="n">
+      <c r="C73" s="85" t="n">
         <f aca="false">C72-($C$71/(($C$58)-1))</f>
         <v>250</v>
       </c>
-      <c r="D73" s="86"/>
-      <c r="L73" s="48"/>
+      <c r="D73" s="84"/>
+      <c r="L73" s="46"/>
     </row>
     <row r="74" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="84" t="n">
+      <c r="B74" s="82" t="n">
         <v>44469</v>
       </c>
-      <c r="C74" s="87" t="n">
+      <c r="C74" s="85" t="n">
         <f aca="false">C73-($C$71/(($C$58)-1))</f>
         <v>225</v>
       </c>
-      <c r="D74" s="86"/>
-      <c r="L74" s="48"/>
+      <c r="D74" s="84"/>
+      <c r="L74" s="46"/>
     </row>
     <row r="75" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="84" t="n">
+      <c r="B75" s="82" t="n">
         <v>44470</v>
       </c>
-      <c r="C75" s="87" t="n">
+      <c r="C75" s="85" t="n">
         <f aca="false">C74-($C$71/(($C$58)-1))</f>
         <v>200</v>
       </c>
-      <c r="D75" s="86"/>
-      <c r="L75" s="48"/>
+      <c r="D75" s="84"/>
+      <c r="L75" s="46"/>
     </row>
     <row r="76" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="84" t="n">
+      <c r="B76" s="82" t="n">
         <v>44471</v>
       </c>
-      <c r="C76" s="87" t="n">
+      <c r="C76" s="85" t="n">
         <f aca="false">C75-($C$71/(($C$58)-1))</f>
         <v>175</v>
       </c>
-      <c r="D76" s="86"/>
-      <c r="L76" s="48"/>
+      <c r="D76" s="84"/>
+      <c r="L76" s="46"/>
     </row>
     <row r="77" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="84" t="n">
+      <c r="B77" s="82" t="n">
         <v>44472</v>
       </c>
-      <c r="C77" s="87" t="n">
+      <c r="C77" s="85" t="n">
         <f aca="false">C76-($C$71/(($C$58)-1))</f>
         <v>150</v>
       </c>
-      <c r="D77" s="86"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="68"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="66"/>
     </row>
     <row r="78" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="84" t="n">
+      <c r="B78" s="82" t="n">
         <v>44473</v>
       </c>
-      <c r="C78" s="87" t="n">
+      <c r="C78" s="85" t="n">
         <f aca="false">C77-($C$71/(($C$58)-1))</f>
         <v>125</v>
       </c>
-      <c r="D78" s="86"/>
+      <c r="D78" s="84"/>
     </row>
     <row r="79" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="84" t="n">
+      <c r="B79" s="82" t="n">
         <v>44474</v>
       </c>
-      <c r="C79" s="87" t="n">
+      <c r="C79" s="85" t="n">
         <f aca="false">C78-($C$71/(($C$58)-1))</f>
         <v>100</v>
       </c>
-      <c r="D79" s="86"/>
+      <c r="D79" s="84"/>
     </row>
     <row r="80" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="84" t="n">
+      <c r="B80" s="82" t="n">
         <v>44475</v>
       </c>
-      <c r="C80" s="87" t="n">
+      <c r="C80" s="85" t="n">
         <f aca="false">C79-($C$71/(($C$58)-1))</f>
         <v>75</v>
       </c>
-      <c r="D80" s="86"/>
+      <c r="D80" s="84"/>
     </row>
     <row r="81" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="84" t="n">
+      <c r="B81" s="82" t="n">
         <v>44476</v>
       </c>
-      <c r="C81" s="87" t="n">
+      <c r="C81" s="85" t="n">
         <f aca="false">C80-($C$71/(($C$58)-1))</f>
         <v>50</v>
       </c>
-      <c r="D81" s="86"/>
+      <c r="D81" s="84"/>
     </row>
     <row r="82" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="84" t="n">
+      <c r="B82" s="82" t="n">
         <v>44477</v>
       </c>
-      <c r="C82" s="87" t="n">
+      <c r="C82" s="85" t="n">
         <f aca="false">C81-($C$71/(($C$58)-1))</f>
         <v>25</v>
       </c>
-      <c r="D82" s="86"/>
+      <c r="D82" s="84"/>
     </row>
     <row r="83" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="84" t="n">
+      <c r="B83" s="82" t="n">
         <v>44478</v>
       </c>
-      <c r="C83" s="87" t="n">
+      <c r="C83" s="85" t="n">
         <f aca="false">C82-($C$71/(($C$58)-1))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="86"/>
+      <c r="D83" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5423,2112 +5415,2112 @@
   </sheetPr>
   <dimension ref="A2:AR35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="88" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="88" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="88" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="88" width="4.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="88" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="86" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="86" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="86" width="4.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="86" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="33" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="89" t="n">
+      <c r="E4" s="87" t="n">
         <f aca="false">D5+D4</f>
         <v>44450</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92" t="n">
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90" t="n">
         <f aca="false">I5</f>
         <v>44450</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92" t="n">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90" t="n">
         <f aca="false">P5</f>
         <v>44457</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92" t="n">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90" t="n">
         <f aca="false">W5</f>
         <v>44464</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92" t="n">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90" t="n">
         <f aca="false">AD5</f>
         <v>44471</v>
       </c>
-      <c r="AE4" s="92" t="n">
+      <c r="AE4" s="90" t="n">
         <f aca="false">AE5</f>
         <v>44472</v>
       </c>
-      <c r="AF4" s="92" t="n">
+      <c r="AF4" s="90" t="n">
         <f aca="false">AF5</f>
         <v>44473</v>
       </c>
-      <c r="AG4" s="92" t="n">
+      <c r="AG4" s="90" t="n">
         <f aca="false">AG5</f>
         <v>44474</v>
       </c>
-      <c r="AH4" s="92" t="n">
+      <c r="AH4" s="90" t="n">
         <f aca="false">AH5</f>
         <v>44475</v>
       </c>
-      <c r="AI4" s="92" t="n">
+      <c r="AI4" s="90" t="n">
         <f aca="false">AI5</f>
         <v>44476</v>
       </c>
-      <c r="AJ4" s="92" t="n">
+      <c r="AJ4" s="90" t="n">
         <f aca="false">AJ5</f>
         <v>44477</v>
       </c>
-      <c r="AK4" s="92" t="n">
+      <c r="AK4" s="90" t="n">
         <f aca="false">AK5</f>
         <v>44478</v>
       </c>
-      <c r="AL4" s="92" t="n">
+      <c r="AL4" s="90" t="n">
         <f aca="false">AL5</f>
         <v>44479</v>
       </c>
-      <c r="AM4" s="92" t="n">
+      <c r="AM4" s="90" t="n">
         <f aca="false">AM5</f>
         <v>44480</v>
       </c>
-      <c r="AN4" s="92" t="n">
+      <c r="AN4" s="90" t="n">
         <f aca="false">AN5</f>
         <v>44481</v>
       </c>
-      <c r="AO4" s="92" t="n">
+      <c r="AO4" s="90" t="n">
         <f aca="false">AO5</f>
         <v>44482</v>
       </c>
-      <c r="AP4" s="92" t="n">
+      <c r="AP4" s="90" t="n">
         <f aca="false">AP5</f>
         <v>44483</v>
       </c>
-      <c r="AQ4" s="92" t="n">
+      <c r="AQ4" s="90" t="n">
         <f aca="false">AQ5</f>
         <v>44484</v>
       </c>
-      <c r="AR4" s="92"/>
+      <c r="AR4" s="90"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="93"/>
-      <c r="C5" s="94" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="95" t="n">
+      <c r="D5" s="93" t="n">
         <v>44450</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98" t="n">
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96" t="n">
         <f aca="false">E4</f>
         <v>44450</v>
       </c>
-      <c r="J5" s="99" t="n">
+      <c r="J5" s="97" t="n">
         <f aca="false">I5+1</f>
         <v>44451</v>
       </c>
-      <c r="K5" s="99" t="n">
+      <c r="K5" s="97" t="n">
         <f aca="false">J5+1</f>
         <v>44452</v>
       </c>
-      <c r="L5" s="99" t="n">
+      <c r="L5" s="97" t="n">
         <f aca="false">K5+1</f>
         <v>44453</v>
       </c>
-      <c r="M5" s="99" t="n">
+      <c r="M5" s="97" t="n">
         <f aca="false">L5+1</f>
         <v>44454</v>
       </c>
-      <c r="N5" s="99" t="n">
+      <c r="N5" s="97" t="n">
         <f aca="false">M5+1</f>
         <v>44455</v>
       </c>
-      <c r="O5" s="100" t="n">
+      <c r="O5" s="98" t="n">
         <f aca="false">N5+1</f>
         <v>44456</v>
       </c>
-      <c r="P5" s="98" t="n">
+      <c r="P5" s="96" t="n">
         <f aca="false">O5+1</f>
         <v>44457</v>
       </c>
-      <c r="Q5" s="99" t="n">
+      <c r="Q5" s="97" t="n">
         <f aca="false">P5+1</f>
         <v>44458</v>
       </c>
-      <c r="R5" s="99" t="n">
+      <c r="R5" s="97" t="n">
         <f aca="false">Q5+1</f>
         <v>44459</v>
       </c>
-      <c r="S5" s="99" t="n">
+      <c r="S5" s="97" t="n">
         <f aca="false">R5+1</f>
         <v>44460</v>
       </c>
-      <c r="T5" s="99" t="n">
+      <c r="T5" s="97" t="n">
         <f aca="false">S5+1</f>
         <v>44461</v>
       </c>
-      <c r="U5" s="99" t="n">
+      <c r="U5" s="97" t="n">
         <f aca="false">T5+1</f>
         <v>44462</v>
       </c>
-      <c r="V5" s="100" t="n">
+      <c r="V5" s="98" t="n">
         <f aca="false">U5+1</f>
         <v>44463</v>
       </c>
-      <c r="W5" s="98" t="n">
+      <c r="W5" s="96" t="n">
         <f aca="false">V5+1</f>
         <v>44464</v>
       </c>
-      <c r="X5" s="99" t="n">
+      <c r="X5" s="97" t="n">
         <f aca="false">W5+1</f>
         <v>44465</v>
       </c>
-      <c r="Y5" s="99" t="n">
+      <c r="Y5" s="97" t="n">
         <f aca="false">X5+1</f>
         <v>44466</v>
       </c>
-      <c r="Z5" s="99" t="n">
+      <c r="Z5" s="97" t="n">
         <f aca="false">Y5+1</f>
         <v>44467</v>
       </c>
-      <c r="AA5" s="99" t="n">
+      <c r="AA5" s="97" t="n">
         <f aca="false">Z5+1</f>
         <v>44468</v>
       </c>
-      <c r="AB5" s="99" t="n">
+      <c r="AB5" s="97" t="n">
         <f aca="false">AA5+1</f>
         <v>44469</v>
       </c>
-      <c r="AC5" s="100" t="n">
+      <c r="AC5" s="98" t="n">
         <f aca="false">AB5+1</f>
         <v>44470</v>
       </c>
-      <c r="AD5" s="98" t="n">
+      <c r="AD5" s="96" t="n">
         <f aca="false">AC5+1</f>
         <v>44471</v>
       </c>
-      <c r="AE5" s="99" t="n">
+      <c r="AE5" s="97" t="n">
         <f aca="false">AD5+1</f>
         <v>44472</v>
       </c>
-      <c r="AF5" s="99" t="n">
+      <c r="AF5" s="97" t="n">
         <f aca="false">AE5+1</f>
         <v>44473</v>
       </c>
-      <c r="AG5" s="99" t="n">
+      <c r="AG5" s="97" t="n">
         <f aca="false">AF5+1</f>
         <v>44474</v>
       </c>
-      <c r="AH5" s="99" t="n">
+      <c r="AH5" s="97" t="n">
         <f aca="false">AG5+1</f>
         <v>44475</v>
       </c>
-      <c r="AI5" s="99" t="n">
+      <c r="AI5" s="97" t="n">
         <f aca="false">AH5+1</f>
         <v>44476</v>
       </c>
-      <c r="AJ5" s="100" t="n">
+      <c r="AJ5" s="98" t="n">
         <f aca="false">AI5+1</f>
         <v>44477</v>
       </c>
-      <c r="AK5" s="98" t="n">
+      <c r="AK5" s="96" t="n">
         <f aca="false">AJ5+1</f>
         <v>44478</v>
       </c>
-      <c r="AL5" s="99" t="n">
+      <c r="AL5" s="97" t="n">
         <f aca="false">AK5+1</f>
         <v>44479</v>
       </c>
-      <c r="AM5" s="99" t="n">
+      <c r="AM5" s="97" t="n">
         <f aca="false">AL5+1</f>
         <v>44480</v>
       </c>
-      <c r="AN5" s="99" t="n">
+      <c r="AN5" s="97" t="n">
         <f aca="false">AM5+1</f>
         <v>44481</v>
       </c>
-      <c r="AO5" s="99" t="n">
+      <c r="AO5" s="97" t="n">
         <f aca="false">AN5+1</f>
         <v>44482</v>
       </c>
-      <c r="AP5" s="99" t="n">
+      <c r="AP5" s="97" t="n">
         <f aca="false">AO5+1</f>
         <v>44483</v>
       </c>
-      <c r="AQ5" s="100" t="n">
+      <c r="AQ5" s="98" t="n">
         <f aca="false">AP5+1</f>
         <v>44484</v>
       </c>
-      <c r="AR5" s="100" t="n">
+      <c r="AR5" s="98" t="n">
         <f aca="false">AQ5+1</f>
         <v>44485</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102" t="str">
+      <c r="H6" s="99"/>
+      <c r="I6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(I5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="J6" s="102" t="str">
+      <c r="J6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(J5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="K6" s="102" t="str">
+      <c r="K6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(K5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="L6" s="102" t="str">
+      <c r="L6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(L5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="M6" s="102" t="str">
+      <c r="M6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(M5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="N6" s="102" t="str">
+      <c r="N6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(N5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="O6" s="102" t="str">
+      <c r="O6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(O5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="P6" s="102" t="str">
+      <c r="P6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(P5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="Q6" s="102" t="str">
+      <c r="Q6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Q5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="R6" s="102" t="str">
+      <c r="R6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(R5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="S6" s="102" t="str">
+      <c r="S6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(S5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="T6" s="102" t="str">
+      <c r="T6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(T5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="U6" s="102" t="str">
+      <c r="U6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(U5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="V6" s="102" t="str">
+      <c r="V6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(V5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="W6" s="102" t="str">
+      <c r="W6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(W5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="X6" s="102" t="str">
+      <c r="X6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(X5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="Y6" s="102" t="str">
+      <c r="Y6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Y5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="Z6" s="102" t="str">
+      <c r="Z6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Z5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AA6" s="102" t="str">
+      <c r="AA6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AA5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AB6" s="102" t="str">
+      <c r="AB6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AB5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AC6" s="102" t="str">
+      <c r="AC6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AC5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AD6" s="102" t="str">
+      <c r="AD6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AD5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AE6" s="102" t="str">
+      <c r="AE6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AE5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AF6" s="102" t="str">
+      <c r="AF6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AF5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AG6" s="102" t="str">
+      <c r="AG6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AG5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AH6" s="102" t="str">
+      <c r="AH6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AH5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="102" t="str">
+      <c r="AI6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AI5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AJ6" s="102" t="str">
+      <c r="AJ6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AJ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AK6" s="102" t="str">
+      <c r="AK6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AK5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AL6" s="102" t="str">
+      <c r="AL6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AL5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AM6" s="102" t="str">
+      <c r="AM6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AM5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AN6" s="102" t="str">
+      <c r="AN6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AN5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AO6" s="102" t="str">
+      <c r="AO6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AO5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AP6" s="102" t="str">
+      <c r="AP6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AP5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AQ6" s="102" t="str">
+      <c r="AQ6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AQ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AR6" s="102" t="str">
+      <c r="AR6" s="100" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AR5,"DDD")))</f>
         <v>S</v>
       </c>
     </row>
-    <row r="7" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="103" t="s">
+    <row r="7" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104" t="n">
+      <c r="B7" s="101"/>
+      <c r="C7" s="102" t="n">
         <f aca="false">(C8+C15+C21+C30)/4</f>
         <v>0.45625</v>
       </c>
-      <c r="D7" s="105" t="n">
+      <c r="D7" s="103" t="n">
         <v>44450</v>
       </c>
-      <c r="E7" s="105" t="n">
+      <c r="E7" s="103" t="n">
         <v>44485</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="103"/>
-    </row>
-    <row r="8" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="103" t="s">
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="101"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="101"/>
+    </row>
+    <row r="8" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104" t="n">
+      <c r="B8" s="101"/>
+      <c r="C8" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="105" t="n">
+      <c r="D8" s="103" t="n">
         <v>44450</v>
       </c>
-      <c r="E8" s="105" t="n">
+      <c r="E8" s="103" t="n">
         <v>44458</v>
       </c>
-      <c r="F8" s="106" t="n">
+      <c r="F8" s="104" t="n">
         <f aca="false">Backlog!D5</f>
         <v>100</v>
       </c>
-      <c r="G8" s="106" t="n">
+      <c r="G8" s="104" t="n">
         <f aca="false">C8*F8</f>
         <v>100</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="101"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="109" t="n">
+      <c r="C9" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="110" t="n">
+      <c r="D9" s="108" t="n">
         <v>44450</v>
       </c>
-      <c r="E9" s="110" t="n">
+      <c r="E9" s="108" t="n">
         <v>44452</v>
       </c>
-      <c r="F9" s="111" t="n">
+      <c r="F9" s="109" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="112" t="n">
+      <c r="G9" s="110" t="n">
         <f aca="false">C9*F9</f>
         <v>10</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
-      <c r="AO9" s="113"/>
-      <c r="AP9" s="113"/>
-      <c r="AQ9" s="113"/>
-      <c r="AR9" s="113"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="115" t="n">
+      <c r="C10" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="116" t="n">
+      <c r="D10" s="114" t="n">
         <v>44452</v>
       </c>
-      <c r="E10" s="116" t="n">
+      <c r="E10" s="114" t="n">
         <v>44453</v>
       </c>
-      <c r="F10" s="117" t="n">
+      <c r="F10" s="115" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="112" t="n">
+      <c r="G10" s="110" t="n">
         <f aca="false">C10*F10</f>
         <v>20</v>
       </c>
-      <c r="H10" s="114"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="118"/>
-      <c r="AO10" s="118"/>
-      <c r="AP10" s="118"/>
-      <c r="AQ10" s="118"/>
-      <c r="AR10" s="118"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="115" t="n">
+      <c r="C11" s="113" t="n">
         <v>0.4</v>
       </c>
-      <c r="D11" s="116" t="n">
+      <c r="D11" s="114" t="n">
         <v>44453</v>
       </c>
-      <c r="E11" s="116" t="n">
+      <c r="E11" s="114" t="n">
         <v>44455</v>
       </c>
-      <c r="F11" s="117" t="n">
+      <c r="F11" s="115" t="n">
         <v>40</v>
       </c>
-      <c r="G11" s="112" t="n">
+      <c r="G11" s="110" t="n">
         <f aca="false">C11*F11</f>
         <v>16</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="115" t="n">
+      <c r="C12" s="113" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="116" t="n">
+      <c r="D12" s="114" t="n">
         <v>44454</v>
       </c>
-      <c r="E12" s="116" t="n">
+      <c r="E12" s="114" t="n">
         <v>44455</v>
       </c>
-      <c r="F12" s="117" t="n">
+      <c r="F12" s="115" t="n">
         <v>20</v>
       </c>
-      <c r="G12" s="112" t="n">
+      <c r="G12" s="110" t="n">
         <f aca="false">C12*F12</f>
         <v>10</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
-      <c r="AQ12" s="118"/>
-      <c r="AR12" s="118"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="116"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="116"/>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="116"/>
+      <c r="AJ12" s="116"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="116"/>
+      <c r="AP12" s="116"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="116"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="115" t="n">
+      <c r="C13" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="116" t="n">
+      <c r="D13" s="114" t="n">
         <v>44455</v>
       </c>
-      <c r="E13" s="116" t="n">
+      <c r="E13" s="114" t="n">
         <v>44458</v>
       </c>
-      <c r="F13" s="117" t="n">
+      <c r="F13" s="115" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="112" t="n">
+      <c r="G13" s="110" t="n">
         <f aca="false">C13*F13</f>
         <v>10</v>
       </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="118"/>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="116"/>
+      <c r="AJ13" s="116"/>
+      <c r="AK13" s="116"/>
+      <c r="AL13" s="116"/>
+      <c r="AM13" s="116"/>
+      <c r="AN13" s="116"/>
+      <c r="AO13" s="116"/>
+      <c r="AP13" s="116"/>
+      <c r="AQ13" s="116"/>
+      <c r="AR13" s="116"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-    </row>
-    <row r="15" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="103" t="s">
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="116"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="116"/>
+      <c r="AO14" s="116"/>
+      <c r="AP14" s="116"/>
+      <c r="AQ14" s="116"/>
+      <c r="AR14" s="116"/>
+    </row>
+    <row r="15" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104" t="n">
+      <c r="B15" s="101"/>
+      <c r="C15" s="102" t="n">
         <f aca="false">(C16+C17+C18+C19)/4</f>
         <v>0.7</v>
       </c>
-      <c r="D15" s="116" t="n">
+      <c r="D15" s="114" t="n">
         <v>44459</v>
       </c>
-      <c r="E15" s="116" t="n">
+      <c r="E15" s="114" t="n">
         <v>44465</v>
       </c>
-      <c r="F15" s="106" t="n">
+      <c r="F15" s="104" t="n">
         <f aca="false">Backlog!D12</f>
         <v>140</v>
       </c>
-      <c r="G15" s="106" t="n">
+      <c r="G15" s="104" t="n">
         <f aca="false">C15*F15</f>
         <v>98</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="103"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="101"/>
+      <c r="AJ15" s="101"/>
+      <c r="AK15" s="101"/>
+      <c r="AL15" s="101"/>
+      <c r="AM15" s="101"/>
+      <c r="AN15" s="101"/>
+      <c r="AO15" s="101"/>
+      <c r="AP15" s="101"/>
+      <c r="AQ15" s="101"/>
+      <c r="AR15" s="101"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="115" t="n">
+      <c r="C16" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="116" t="n">
+      <c r="D16" s="114" t="n">
         <v>44459</v>
       </c>
-      <c r="E16" s="116" t="n">
+      <c r="E16" s="114" t="n">
         <v>44460</v>
       </c>
-      <c r="F16" s="111" t="n">
+      <c r="F16" s="109" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="112" t="n">
+      <c r="G16" s="110" t="n">
         <f aca="false">C16*F16</f>
         <v>20</v>
       </c>
-      <c r="H16" s="114"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118" t="s">
+      <c r="H16" s="112"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="116"/>
+      <c r="AP16" s="116"/>
+      <c r="AQ16" s="116"/>
+      <c r="AR16" s="116"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="115" t="n">
+      <c r="C17" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="116" t="n">
+      <c r="D17" s="114" t="n">
         <v>44460</v>
       </c>
-      <c r="E17" s="116" t="n">
+      <c r="E17" s="114" t="n">
         <v>44461</v>
       </c>
-      <c r="F17" s="117" t="n">
+      <c r="F17" s="115" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="112" t="n">
+      <c r="G17" s="110" t="n">
         <f aca="false">C17*F17</f>
         <v>20</v>
       </c>
-      <c r="H17" s="114"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="118"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="116"/>
+      <c r="AJ17" s="116"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="116"/>
+      <c r="AM17" s="116"/>
+      <c r="AN17" s="116"/>
+      <c r="AO17" s="116"/>
+      <c r="AP17" s="116"/>
+      <c r="AQ17" s="116"/>
+      <c r="AR17" s="116"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="115" t="n">
+      <c r="C18" s="113" t="n">
         <v>0.7</v>
       </c>
-      <c r="D18" s="116" t="n">
+      <c r="D18" s="114" t="n">
         <v>44461</v>
       </c>
-      <c r="E18" s="116" t="n">
+      <c r="E18" s="114" t="n">
         <v>44463</v>
       </c>
-      <c r="F18" s="117" t="n">
+      <c r="F18" s="115" t="n">
         <v>40</v>
       </c>
-      <c r="G18" s="112" t="n">
+      <c r="G18" s="110" t="n">
         <f aca="false">C18*F18</f>
         <v>28</v>
       </c>
-      <c r="H18" s="114"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="118"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="116"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="116"/>
+      <c r="AO18" s="116"/>
+      <c r="AP18" s="116"/>
+      <c r="AQ18" s="116"/>
+      <c r="AR18" s="116"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="115" t="n">
+      <c r="C19" s="113" t="n">
         <v>0.1</v>
       </c>
-      <c r="D19" s="116" t="n">
+      <c r="D19" s="114" t="n">
         <v>44463</v>
       </c>
-      <c r="E19" s="116" t="n">
+      <c r="E19" s="114" t="n">
         <v>44465</v>
       </c>
-      <c r="F19" s="117" t="n">
+      <c r="F19" s="115" t="n">
         <v>60</v>
       </c>
-      <c r="G19" s="112" t="n">
+      <c r="G19" s="110" t="n">
         <f aca="false">C19*F19</f>
         <v>6</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="116"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="116"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="116"/>
+      <c r="AO19" s="116"/>
+      <c r="AP19" s="116"/>
+      <c r="AQ19" s="116"/>
+      <c r="AR19" s="116"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="114"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-    </row>
-    <row r="21" s="107" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="103" t="s">
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="116"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="116"/>
+      <c r="AJ20" s="116"/>
+      <c r="AK20" s="116"/>
+      <c r="AL20" s="116"/>
+      <c r="AM20" s="116"/>
+      <c r="AN20" s="116"/>
+      <c r="AO20" s="116"/>
+      <c r="AP20" s="116"/>
+      <c r="AQ20" s="116"/>
+      <c r="AR20" s="116"/>
+    </row>
+    <row r="21" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104" t="n">
+      <c r="B21" s="101"/>
+      <c r="C21" s="102" t="n">
         <f aca="false">(C22+C23+C24+C25)/4</f>
         <v>0.125</v>
       </c>
-      <c r="D21" s="116" t="n">
+      <c r="D21" s="114" t="n">
         <v>44466</v>
       </c>
-      <c r="E21" s="116" t="n">
+      <c r="E21" s="114" t="n">
         <v>44478</v>
       </c>
-      <c r="F21" s="106" t="n">
+      <c r="F21" s="104" t="n">
         <f aca="false">Backlog!D18</f>
         <v>300</v>
       </c>
-      <c r="G21" s="106" t="n">
+      <c r="G21" s="104" t="n">
         <f aca="false">F21*C21</f>
         <v>37.5</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="101"/>
+      <c r="AL21" s="101"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="101"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="101"/>
+      <c r="AQ21" s="101"/>
+      <c r="AR21" s="101"/>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="115" t="n">
+      <c r="C22" s="113" t="n">
         <v>0.5</v>
       </c>
-      <c r="D22" s="116" t="n">
+      <c r="D22" s="114" t="n">
         <v>44466</v>
       </c>
-      <c r="E22" s="116" t="n">
+      <c r="E22" s="114" t="n">
         <v>44467</v>
       </c>
-      <c r="F22" s="117" t="n">
+      <c r="F22" s="115" t="n">
         <v>20</v>
       </c>
-      <c r="G22" s="112" t="n">
+      <c r="G22" s="110" t="n">
         <f aca="false">C22*F22</f>
         <v>10</v>
       </c>
-      <c r="H22" s="114"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="118"/>
-      <c r="AG22" s="118"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="116"/>
+      <c r="AF22" s="116"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="116"/>
+      <c r="AJ22" s="116"/>
+      <c r="AK22" s="116"/>
+      <c r="AL22" s="116"/>
+      <c r="AM22" s="116"/>
+      <c r="AN22" s="116"/>
+      <c r="AO22" s="116"/>
+      <c r="AP22" s="116"/>
+      <c r="AQ22" s="116"/>
+      <c r="AR22" s="116"/>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="115" t="n">
+      <c r="C23" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="116" t="n">
+      <c r="D23" s="114" t="n">
         <v>44467</v>
       </c>
-      <c r="E23" s="116" t="n">
+      <c r="E23" s="114" t="n">
         <v>44468</v>
       </c>
-      <c r="F23" s="117" t="n">
+      <c r="F23" s="115" t="n">
         <v>20</v>
       </c>
-      <c r="G23" s="112" t="n">
+      <c r="G23" s="110" t="n">
         <f aca="false">C23*F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="114"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="118"/>
-      <c r="AG23" s="118"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="118"/>
-      <c r="AK23" s="118"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
-      <c r="AQ23" s="118"/>
-      <c r="AR23" s="118"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="116"/>
+      <c r="AF23" s="116"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="116"/>
+      <c r="AI23" s="116"/>
+      <c r="AJ23" s="116"/>
+      <c r="AK23" s="116"/>
+      <c r="AL23" s="116"/>
+      <c r="AM23" s="116"/>
+      <c r="AN23" s="116"/>
+      <c r="AO23" s="116"/>
+      <c r="AP23" s="116"/>
+      <c r="AQ23" s="116"/>
+      <c r="AR23" s="116"/>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="115" t="n">
+      <c r="C24" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="116" t="n">
+      <c r="D24" s="114" t="n">
         <v>44468</v>
       </c>
-      <c r="E24" s="116" t="n">
+      <c r="E24" s="114" t="n">
         <v>44470</v>
       </c>
-      <c r="F24" s="117" t="n">
+      <c r="F24" s="115" t="n">
         <v>40</v>
       </c>
-      <c r="G24" s="112" t="n">
+      <c r="G24" s="110" t="n">
         <f aca="false">C24*F24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="114"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="118"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="118"/>
-      <c r="AG24" s="118"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="118"/>
-      <c r="AJ24" s="118"/>
-      <c r="AK24" s="118"/>
-      <c r="AL24" s="118"/>
-      <c r="AM24" s="118"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="118"/>
-      <c r="AP24" s="118"/>
-      <c r="AQ24" s="118"/>
-      <c r="AR24" s="118"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="116"/>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="116"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="116"/>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="115" t="n">
+      <c r="C25" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="116" t="n">
+      <c r="D25" s="114" t="n">
         <v>44470</v>
       </c>
-      <c r="E25" s="116" t="n">
+      <c r="E25" s="114" t="n">
         <v>44472</v>
       </c>
-      <c r="F25" s="117" t="n">
+      <c r="F25" s="115" t="n">
         <v>80</v>
       </c>
-      <c r="G25" s="112" t="n">
+      <c r="G25" s="110" t="n">
         <f aca="false">C25*F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="114"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="118"/>
-      <c r="AK25" s="118"/>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="118"/>
-      <c r="AQ25" s="118"/>
-      <c r="AR25" s="118"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="116"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="116"/>
+      <c r="AJ25" s="116"/>
+      <c r="AK25" s="116"/>
+      <c r="AL25" s="116"/>
+      <c r="AM25" s="116"/>
+      <c r="AN25" s="116"/>
+      <c r="AO25" s="116"/>
+      <c r="AP25" s="116"/>
+      <c r="AQ25" s="116"/>
+      <c r="AR25" s="116"/>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="115" t="n">
+      <c r="C26" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="116" t="n">
+      <c r="D26" s="114" t="n">
         <v>44472</v>
       </c>
-      <c r="E26" s="116" t="n">
+      <c r="E26" s="114" t="n">
         <v>44473</v>
       </c>
-      <c r="F26" s="117" t="n">
+      <c r="F26" s="115" t="n">
         <v>80</v>
       </c>
-      <c r="G26" s="112" t="n">
+      <c r="G26" s="110" t="n">
         <f aca="false">C26*F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="114"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="118"/>
-      <c r="AG26" s="118"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="118"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
-      <c r="AQ26" s="118"/>
-      <c r="AR26" s="118"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="116"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="116"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="116"/>
+      <c r="AJ26" s="116"/>
+      <c r="AK26" s="116"/>
+      <c r="AL26" s="116"/>
+      <c r="AM26" s="116"/>
+      <c r="AN26" s="116"/>
+      <c r="AO26" s="116"/>
+      <c r="AP26" s="116"/>
+      <c r="AQ26" s="116"/>
+      <c r="AR26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="115" t="n">
+      <c r="C27" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="116" t="n">
+      <c r="D27" s="114" t="n">
         <v>44473</v>
       </c>
-      <c r="E27" s="116" t="n">
+      <c r="E27" s="114" t="n">
         <v>44475</v>
       </c>
-      <c r="F27" s="117" t="n">
+      <c r="F27" s="115" t="n">
         <v>20</v>
       </c>
-      <c r="G27" s="112" t="n">
+      <c r="G27" s="110" t="n">
         <f aca="false">C27*F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="114"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="118"/>
-      <c r="AE27" s="118"/>
-      <c r="AF27" s="118"/>
-      <c r="AG27" s="118"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="118"/>
-      <c r="AJ27" s="118"/>
-      <c r="AK27" s="118"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="118"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="118"/>
-      <c r="AQ27" s="118"/>
-      <c r="AR27" s="118"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="116"/>
+      <c r="AE27" s="116"/>
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="116"/>
+      <c r="AJ27" s="116"/>
+      <c r="AK27" s="116"/>
+      <c r="AL27" s="116"/>
+      <c r="AM27" s="116"/>
+      <c r="AN27" s="116"/>
+      <c r="AO27" s="116"/>
+      <c r="AP27" s="116"/>
+      <c r="AQ27" s="116"/>
+      <c r="AR27" s="116"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="114" t="s">
+      <c r="A28" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="115" t="n">
+      <c r="C28" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="116" t="n">
+      <c r="D28" s="114" t="n">
         <v>44475</v>
       </c>
-      <c r="E28" s="116" t="n">
+      <c r="E28" s="114" t="n">
         <v>44478</v>
       </c>
-      <c r="F28" s="117" t="n">
+      <c r="F28" s="115" t="n">
         <v>40</v>
       </c>
-      <c r="G28" s="112" t="n">
+      <c r="G28" s="110" t="n">
         <f aca="false">C28*F28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="114"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="118"/>
-      <c r="AE28" s="118"/>
-      <c r="AF28" s="118"/>
-      <c r="AG28" s="118"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="118"/>
-      <c r="AJ28" s="118"/>
-      <c r="AK28" s="118"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="118"/>
-      <c r="AQ28" s="118"/>
-      <c r="AR28" s="118"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="116"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="116"/>
+      <c r="AE28" s="116"/>
+      <c r="AF28" s="116"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="116"/>
+      <c r="AJ28" s="116"/>
+      <c r="AK28" s="116"/>
+      <c r="AL28" s="116"/>
+      <c r="AM28" s="116"/>
+      <c r="AN28" s="116"/>
+      <c r="AO28" s="116"/>
+      <c r="AP28" s="116"/>
+      <c r="AQ28" s="116"/>
+      <c r="AR28" s="116"/>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="118"/>
-      <c r="AE29" s="118"/>
-      <c r="AF29" s="118"/>
-      <c r="AG29" s="118"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AK29" s="118"/>
-      <c r="AL29" s="118"/>
-      <c r="AM29" s="118"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="118"/>
-      <c r="AQ29" s="118"/>
-      <c r="AR29" s="118"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="116"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="116"/>
+      <c r="AD29" s="116"/>
+      <c r="AE29" s="116"/>
+      <c r="AF29" s="116"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="116"/>
+      <c r="AJ29" s="116"/>
+      <c r="AK29" s="116"/>
+      <c r="AL29" s="116"/>
+      <c r="AM29" s="116"/>
+      <c r="AN29" s="116"/>
+      <c r="AO29" s="116"/>
+      <c r="AP29" s="116"/>
+      <c r="AQ29" s="116"/>
+      <c r="AR29" s="116"/>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="101" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="104" t="n">
+      <c r="B30" s="112"/>
+      <c r="C30" s="102" t="n">
         <f aca="false">(C31+C32+C33+C34+C35)/5</f>
         <v>0</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="118"/>
-      <c r="AE30" s="118"/>
-      <c r="AF30" s="118"/>
-      <c r="AG30" s="118"/>
-      <c r="AH30" s="118"/>
-      <c r="AI30" s="118"/>
-      <c r="AJ30" s="118"/>
-      <c r="AK30" s="118"/>
-      <c r="AL30" s="118"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="118"/>
-      <c r="AP30" s="118"/>
-      <c r="AQ30" s="118"/>
-      <c r="AR30" s="118"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="116"/>
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="116"/>
+      <c r="AI30" s="116"/>
+      <c r="AJ30" s="116"/>
+      <c r="AK30" s="116"/>
+      <c r="AL30" s="116"/>
+      <c r="AM30" s="116"/>
+      <c r="AN30" s="116"/>
+      <c r="AO30" s="116"/>
+      <c r="AP30" s="116"/>
+      <c r="AQ30" s="116"/>
+      <c r="AR30" s="116"/>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="114" t="s">
+      <c r="A31" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="115" t="n">
+      <c r="C31" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="118"/>
-      <c r="AE31" s="118"/>
-      <c r="AF31" s="118"/>
-      <c r="AG31" s="118"/>
-      <c r="AH31" s="118"/>
-      <c r="AI31" s="118"/>
-      <c r="AJ31" s="118"/>
-      <c r="AK31" s="118"/>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="118"/>
-      <c r="AP31" s="118"/>
-      <c r="AQ31" s="118"/>
-      <c r="AR31" s="118"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="116"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="116"/>
+      <c r="AE31" s="116"/>
+      <c r="AF31" s="116"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="116"/>
+      <c r="AJ31" s="116"/>
+      <c r="AK31" s="116"/>
+      <c r="AL31" s="116"/>
+      <c r="AM31" s="116"/>
+      <c r="AN31" s="116"/>
+      <c r="AO31" s="116"/>
+      <c r="AP31" s="116"/>
+      <c r="AQ31" s="116"/>
+      <c r="AR31" s="116"/>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="114" t="s">
+      <c r="A32" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="115" t="n">
+      <c r="C32" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="118"/>
-      <c r="AE32" s="118"/>
-      <c r="AF32" s="118"/>
-      <c r="AG32" s="118"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="118"/>
-      <c r="AK32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
-      <c r="AQ32" s="118"/>
-      <c r="AR32" s="118"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="116"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="116"/>
+      <c r="AJ32" s="116"/>
+      <c r="AK32" s="116"/>
+      <c r="AL32" s="116"/>
+      <c r="AM32" s="116"/>
+      <c r="AN32" s="116"/>
+      <c r="AO32" s="116"/>
+      <c r="AP32" s="116"/>
+      <c r="AQ32" s="116"/>
+      <c r="AR32" s="116"/>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="115" t="n">
+      <c r="C33" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="118"/>
-      <c r="AE33" s="118"/>
-      <c r="AF33" s="118"/>
-      <c r="AG33" s="118"/>
-      <c r="AH33" s="118"/>
-      <c r="AI33" s="118"/>
-      <c r="AJ33" s="118"/>
-      <c r="AK33" s="118"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
-      <c r="AQ33" s="118"/>
-      <c r="AR33" s="118"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="116"/>
+      <c r="AE33" s="116"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="116"/>
+      <c r="AJ33" s="116"/>
+      <c r="AK33" s="116"/>
+      <c r="AL33" s="116"/>
+      <c r="AM33" s="116"/>
+      <c r="AN33" s="116"/>
+      <c r="AO33" s="116"/>
+      <c r="AP33" s="116"/>
+      <c r="AQ33" s="116"/>
+      <c r="AR33" s="116"/>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="115" t="n">
+      <c r="C34" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="118"/>
-      <c r="AE34" s="118"/>
-      <c r="AF34" s="118"/>
-      <c r="AG34" s="118"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="118"/>
-      <c r="AL34" s="118"/>
-      <c r="AM34" s="118"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="118"/>
-      <c r="AP34" s="118"/>
-      <c r="AQ34" s="118"/>
-      <c r="AR34" s="118"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="116"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="116"/>
+      <c r="AB34" s="116"/>
+      <c r="AC34" s="116"/>
+      <c r="AD34" s="116"/>
+      <c r="AE34" s="116"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="116"/>
+      <c r="AI34" s="116"/>
+      <c r="AJ34" s="116"/>
+      <c r="AK34" s="116"/>
+      <c r="AL34" s="116"/>
+      <c r="AM34" s="116"/>
+      <c r="AN34" s="116"/>
+      <c r="AO34" s="116"/>
+      <c r="AP34" s="116"/>
+      <c r="AQ34" s="116"/>
+      <c r="AR34" s="116"/>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="115" t="n">
+      <c r="C35" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="118"/>
-      <c r="AA35" s="118"/>
-      <c r="AB35" s="118"/>
-      <c r="AC35" s="118"/>
-      <c r="AD35" s="118"/>
-      <c r="AE35" s="118"/>
-      <c r="AF35" s="118"/>
-      <c r="AG35" s="118"/>
-      <c r="AH35" s="118"/>
-      <c r="AI35" s="118"/>
-      <c r="AJ35" s="118"/>
-      <c r="AK35" s="118"/>
-      <c r="AL35" s="118"/>
-      <c r="AM35" s="118"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="118"/>
-      <c r="AP35" s="118"/>
-      <c r="AQ35" s="118"/>
-      <c r="AR35" s="118"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="116"/>
+      <c r="V35" s="116"/>
+      <c r="W35" s="116"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="116"/>
+      <c r="AB35" s="116"/>
+      <c r="AC35" s="116"/>
+      <c r="AD35" s="116"/>
+      <c r="AE35" s="116"/>
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="116"/>
+      <c r="AI35" s="116"/>
+      <c r="AJ35" s="116"/>
+      <c r="AK35" s="116"/>
+      <c r="AL35" s="116"/>
+      <c r="AM35" s="116"/>
+      <c r="AN35" s="116"/>
+      <c r="AO35" s="116"/>
+      <c r="AP35" s="116"/>
+      <c r="AQ35" s="116"/>
+      <c r="AR35" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7548,7 +7540,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40CCED3B-B232-4954-BD10-1FF7484057C3}</x14:id>
+          <x14:id>{F2608553-C142-4379-BD00-1391B99736E9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7573,7 +7565,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61B212C6-7CBE-4A2A-B4E9-59A54EB8C200}</x14:id>
+          <x14:id>{2389CE7F-6998-49BD-842F-ACB3B9BE7BBB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7587,7 +7579,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{505C1916-7530-4863-98AD-46B9589310EC}</x14:id>
+          <x14:id>{442C274C-B0A5-4F8B-9C21-4976CB28775C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7601,7 +7593,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A74A1783-B98F-46AA-AE90-C98B20742141}</x14:id>
+          <x14:id>{BFA8D88C-8B28-4E23-B3F7-10C1DB51F096}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7615,7 +7607,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F04F13DE-A2B3-4A40-A25C-7A65F0F099AB}</x14:id>
+          <x14:id>{A6D510C2-B514-4CA0-844B-F11EEFB956C0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7629,7 +7621,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD9CA219-FEAF-46C6-A51A-F2B56451C7F9}</x14:id>
+          <x14:id>{4AD2A61F-D31C-4516-8DDC-805F641AF2FD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7643,7 +7635,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D55DFBA2-9568-4580-9595-77CBBF23E400}</x14:id>
+          <x14:id>{F421B249-25B8-4492-B07C-5B959CF81DA1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7657,7 +7649,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD439F88-C467-43F4-AF1C-E655394413A8}</x14:id>
+          <x14:id>{30ACAA58-ECD7-4360-B369-497A8547B558}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7671,7 +7663,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37FC9178-5CEE-444B-88A6-85E270D990AD}</x14:id>
+          <x14:id>{4180E652-DE74-479F-89D9-30A95F8AD150}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7688,7 +7680,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40CCED3B-B232-4954-BD10-1FF7484057C3}">
+          <x14:cfRule type="dataBar" id="{F2608553-C142-4379-BD00-1391B99736E9}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7703,7 +7695,7 @@
           <xm:sqref>C10:C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61B212C6-7CBE-4A2A-B4E9-59A54EB8C200}">
+          <x14:cfRule type="dataBar" id="{2389CE7F-6998-49BD-842F-ACB3B9BE7BBB}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7718,7 +7710,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{505C1916-7530-4863-98AD-46B9589310EC}">
+          <x14:cfRule type="dataBar" id="{442C274C-B0A5-4F8B-9C21-4976CB28775C}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7733,7 +7725,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A74A1783-B98F-46AA-AE90-C98B20742141}">
+          <x14:cfRule type="dataBar" id="{BFA8D88C-8B28-4E23-B3F7-10C1DB51F096}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7748,7 +7740,7 @@
           <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F04F13DE-A2B3-4A40-A25C-7A65F0F099AB}">
+          <x14:cfRule type="dataBar" id="{A6D510C2-B514-4CA0-844B-F11EEFB956C0}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7763,7 +7755,7 @@
           <xm:sqref>C22:C28 C16:C20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD9CA219-FEAF-46C6-A51A-F2B56451C7F9}">
+          <x14:cfRule type="dataBar" id="{4AD2A61F-D31C-4516-8DDC-805F641AF2FD}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7778,7 +7770,7 @@
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D55DFBA2-9568-4580-9595-77CBBF23E400}">
+          <x14:cfRule type="dataBar" id="{F421B249-25B8-4492-B07C-5B959CF81DA1}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7793,7 +7785,7 @@
           <xm:sqref>C21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD439F88-C467-43F4-AF1C-E655394413A8}">
+          <x14:cfRule type="dataBar" id="{30ACAA58-ECD7-4360-B369-497A8547B558}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7808,7 +7800,7 @@
           <xm:sqref>C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37FC9178-5CEE-444B-88A6-85E270D990AD}">
+          <x14:cfRule type="dataBar" id="{4180E652-DE74-479F-89D9-30A95F8AD150}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ScrumEntregable.xlsx
+++ b/ScrumEntregable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos (RF)" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="201">
   <si>
     <t xml:space="preserve">Ítem</t>
   </si>
@@ -524,6 +524,9 @@
     <t xml:space="preserve">Diseño y modelo conceptual </t>
   </si>
   <si>
+    <t xml:space="preserve">sprint3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarea 3,1</t>
   </si>
   <si>
@@ -680,13 +683,22 @@
     <t xml:space="preserve">Luis</t>
   </si>
   <si>
+    <t xml:space="preserve">Luis,Sofia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Sofia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÉPICA 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 4,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Persona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÉPICA 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 4,1</t>
   </si>
   <si>
     <t xml:space="preserve">Tarea 4,2</t>
@@ -1146,7 +1158,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1488,6 +1500,10 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1969,11 +1985,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39709558"/>
-        <c:axId val="80829915"/>
+        <c:axId val="8066048"/>
+        <c:axId val="36443475"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39709558"/>
+        <c:axId val="8066048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80829915"/>
+        <c:crossAx val="36443475"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2009,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80829915"/>
+        <c:axId val="36443475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2062,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39709558"/>
+        <c:crossAx val="8066048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2356,11 +2372,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39149555"/>
-        <c:axId val="21264373"/>
+        <c:axId val="31952178"/>
+        <c:axId val="14027774"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39149555"/>
+        <c:axId val="31952178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2404,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21264373"/>
+        <c:crossAx val="14027774"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2396,7 +2412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21264373"/>
+        <c:axId val="14027774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39149555"/>
+        <c:crossAx val="31952178"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2767,7 +2783,40 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,11 +2831,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22569768"/>
-        <c:axId val="9397666"/>
+        <c:axId val="94296891"/>
+        <c:axId val="665377"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22569768"/>
+        <c:axId val="94296891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,7 +2863,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9397666"/>
+        <c:crossAx val="665377"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2822,7 +2871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9397666"/>
+        <c:axId val="665377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2908,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22569768"/>
+        <c:crossAx val="94296891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2914,15 +2963,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>109080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>622080</xdr:colOff>
+      <xdr:colOff>623520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2930,7 +2979,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5551200" y="679320"/>
+        <a:off x="5552640" y="680760"/>
         <a:ext cx="5391360" cy="3269520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2944,15 +2993,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>536760</xdr:colOff>
+      <xdr:colOff>538200</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2960,7 +3009,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5466240" y="5765040"/>
+        <a:off x="5467680" y="5766480"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2974,13 +3023,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>536760</xdr:colOff>
+      <xdr:colOff>538200</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
@@ -2990,7 +3039,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5466240" y="11620080"/>
+        <a:off x="5467680" y="11620080"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3060,7 +3109,7 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3076,7 +3125,7 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="2" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
@@ -3103,7 +3152,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="n">
         <v>2</v>
       </c>
@@ -3115,7 +3164,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="n">
         <v>3</v>
       </c>
@@ -3127,7 +3176,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" s="2" customFormat="true" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="n">
         <v>4</v>
       </c>
@@ -3139,7 +3188,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="n">
         <v>5</v>
       </c>
@@ -3151,7 +3200,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" s="2" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="n">
         <v>6</v>
       </c>
@@ -3163,7 +3212,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" s="2" customFormat="true" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="2" customFormat="true" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="n">
         <v>7</v>
       </c>
@@ -3175,7 +3224,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="n">
         <v>8</v>
       </c>
@@ -3187,7 +3236,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="n">
         <v>9</v>
       </c>
@@ -3199,7 +3248,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="n">
         <v>10</v>
       </c>
@@ -3211,7 +3260,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="8" t="n">
         <v>11</v>
       </c>
@@ -3226,7 +3275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="true" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="n">
         <v>12</v>
       </c>
@@ -3238,7 +3287,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="n">
         <v>13</v>
       </c>
@@ -3250,7 +3299,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="n">
         <v>14</v>
       </c>
@@ -3262,7 +3311,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="n">
         <v>15</v>
       </c>
@@ -3274,7 +3323,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="n">
         <v>16</v>
       </c>
@@ -3286,7 +3335,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="n">
         <v>17</v>
       </c>
@@ -3298,7 +3347,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="n">
         <v>18</v>
       </c>
@@ -3310,7 +3359,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="n">
         <v>19</v>
       </c>
@@ -3322,7 +3371,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="true" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="n">
         <v>20</v>
       </c>
@@ -3511,7 +3560,7 @@
   <dimension ref="B2:F52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
@@ -4237,9 +4286,9 @@
   <dimension ref="B3:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4448,15 +4497,15 @@
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="38" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" s="40" t="n">
         <v>20</v>
@@ -4468,10 +4517,10 @@
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D20" s="40" t="n">
         <v>20</v>
@@ -4483,10 +4532,10 @@
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="40" t="n">
         <v>40</v>
@@ -4498,10 +4547,10 @@
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" s="40" t="n">
         <v>80</v>
@@ -4513,10 +4562,10 @@
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D23" s="40" t="n">
         <v>80</v>
@@ -4528,10 +4577,10 @@
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D24" s="40" t="n">
         <v>20</v>
@@ -4543,10 +4592,10 @@
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D25" s="40" t="n">
         <v>40</v>
@@ -4577,10 +4626,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L83"/>
+  <dimension ref="B2:L86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
+      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4594,7 +4643,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -4609,14 +4658,14 @@
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="45"/>
       <c r="L3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="48" t="n">
         <v>44450</v>
@@ -4625,7 +4674,7 @@
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="48" t="n">
         <v>44455</v>
@@ -4634,7 +4683,7 @@
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="50" t="n">
         <f aca="false">_xlfn.DAYS(C5,C4)+1</f>
@@ -4644,7 +4693,7 @@
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="51" t="n">
         <f aca="false">8*C6</f>
@@ -4654,7 +4703,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="52" t="n">
         <v>0.2</v>
@@ -4663,7 +4712,7 @@
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="54" t="n">
         <v>5</v>
@@ -4672,7 +4721,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" s="55" t="n">
         <f aca="false">C7*C8*C9</f>
@@ -4682,7 +4731,7 @@
     </row>
     <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="56" t="n">
         <f aca="false">C10/7</f>
@@ -4692,7 +4741,7 @@
     </row>
     <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="57" t="n">
         <f aca="false">IFERROR(C11/C9,0)</f>
@@ -4706,7 +4755,7 @@
     </row>
     <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -4714,13 +4763,13 @@
     </row>
     <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" s="46"/>
     </row>
@@ -4817,14 +4866,14 @@
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" s="70"/>
       <c r="D25" s="70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
@@ -4849,14 +4898,14 @@
     </row>
     <row r="27" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" s="76"/>
       <c r="L27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" s="48" t="n">
         <v>44459</v>
@@ -4865,7 +4914,7 @@
     </row>
     <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" s="48" t="n">
         <v>44465</v>
@@ -4874,7 +4923,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30" s="77" t="n">
         <f aca="false">_xlfn.DAYS(C29,C28)+1</f>
@@ -4884,7 +4933,7 @@
     </row>
     <row r="31" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C31" s="78" t="n">
         <f aca="false">8*C30</f>
@@ -4894,7 +4943,7 @@
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="52" t="n">
         <v>0.2</v>
@@ -4903,7 +4952,7 @@
     </row>
     <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C33" s="79" t="n">
         <v>5</v>
@@ -4912,7 +4961,7 @@
     </row>
     <row r="34" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" s="77" t="n">
         <f aca="false">C31*C32*C33</f>
@@ -4922,7 +4971,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" s="80" t="n">
         <f aca="false">C34/C30</f>
@@ -4932,7 +4981,7 @@
     </row>
     <row r="36" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" s="81" t="n">
         <f aca="false">IFERROR(C35/C33,0)</f>
@@ -4958,7 +5007,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -4966,13 +5015,13 @@
     </row>
     <row r="42" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L42" s="46"/>
     </row>
@@ -5077,14 +5126,14 @@
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53" s="70"/>
       <c r="D53" s="70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F53" s="70"/>
       <c r="G53" s="70"/>
@@ -5109,14 +5158,14 @@
     </row>
     <row r="55" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C55" s="76"/>
       <c r="L55" s="46"/>
     </row>
     <row r="56" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C56" s="48" t="n">
         <v>44466</v>
@@ -5125,7 +5174,7 @@
     </row>
     <row r="57" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C57" s="48" t="n">
         <v>44478</v>
@@ -5134,7 +5183,7 @@
     </row>
     <row r="58" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C58" s="77" t="n">
         <f aca="false">_xlfn.DAYS(C57,C56)+1</f>
@@ -5144,7 +5193,7 @@
     </row>
     <row r="59" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" s="78" t="n">
         <f aca="false">8*C58</f>
@@ -5154,7 +5203,7 @@
     </row>
     <row r="60" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C60" s="52" t="n">
         <v>0.2</v>
@@ -5163,7 +5212,7 @@
     </row>
     <row r="61" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="79" t="n">
         <v>5</v>
@@ -5172,7 +5221,7 @@
     </row>
     <row r="62" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" s="77" t="n">
         <f aca="false">C59*C60*C61</f>
@@ -5182,7 +5231,7 @@
     </row>
     <row r="63" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C63" s="80" t="n">
         <f aca="false">C62/C58</f>
@@ -5192,7 +5241,7 @@
     </row>
     <row r="64" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="81" t="n">
         <f aca="false">IFERROR(C63/C61,0)</f>
@@ -5218,7 +5267,7 @@
     </row>
     <row r="69" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -5226,13 +5275,13 @@
     </row>
     <row r="70" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L70" s="46"/>
     </row>
@@ -5259,7 +5308,7 @@
         <v>275</v>
       </c>
       <c r="D72" s="84" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L72" s="46"/>
     </row>
@@ -5271,7 +5320,9 @@
         <f aca="false">C72-($C$71/(($C$58)-1))</f>
         <v>250</v>
       </c>
-      <c r="D73" s="84"/>
+      <c r="D73" s="84" t="n">
+        <v>280</v>
+      </c>
       <c r="L73" s="46"/>
     </row>
     <row r="74" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5282,7 +5333,9 @@
         <f aca="false">C73-($C$71/(($C$58)-1))</f>
         <v>225</v>
       </c>
-      <c r="D74" s="84"/>
+      <c r="D74" s="84" t="n">
+        <v>270</v>
+      </c>
       <c r="L74" s="46"/>
     </row>
     <row r="75" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5346,9 @@
         <f aca="false">C74-($C$71/(($C$58)-1))</f>
         <v>200</v>
       </c>
-      <c r="D75" s="84"/>
+      <c r="D75" s="84" t="n">
+        <v>260</v>
+      </c>
       <c r="L75" s="46"/>
     </row>
     <row r="76" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5359,9 @@
         <f aca="false">C75-($C$71/(($C$58)-1))</f>
         <v>175</v>
       </c>
-      <c r="D76" s="84"/>
+      <c r="D76" s="84" t="n">
+        <v>250</v>
+      </c>
       <c r="L76" s="46"/>
     </row>
     <row r="77" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,15 +5372,17 @@
         <f aca="false">C76-($C$71/(($C$58)-1))</f>
         <v>150</v>
       </c>
-      <c r="D77" s="84"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="66"/>
+      <c r="D77" s="84" t="n">
+        <v>240</v>
+      </c>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="46"/>
     </row>
     <row r="78" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="82" t="n">
@@ -5333,7 +5392,10 @@
         <f aca="false">C77-($C$71/(($C$58)-1))</f>
         <v>125</v>
       </c>
-      <c r="D78" s="84"/>
+      <c r="D78" s="84" t="n">
+        <v>224</v>
+      </c>
+      <c r="L78" s="46"/>
     </row>
     <row r="79" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="82" t="n">
@@ -5343,7 +5405,10 @@
         <f aca="false">C78-($C$71/(($C$58)-1))</f>
         <v>100</v>
       </c>
-      <c r="D79" s="84"/>
+      <c r="D79" s="84" t="n">
+        <v>214</v>
+      </c>
+      <c r="L79" s="46"/>
     </row>
     <row r="80" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="82" t="n">
@@ -5353,7 +5418,11 @@
         <f aca="false">C79-($C$71/(($C$58)-1))</f>
         <v>75</v>
       </c>
-      <c r="D80" s="84"/>
+      <c r="D80" s="84" t="n">
+        <v>202</v>
+      </c>
+      <c r="J80" s="0"/>
+      <c r="L80" s="46"/>
     </row>
     <row r="81" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="82" t="n">
@@ -5363,7 +5432,11 @@
         <f aca="false">C80-($C$71/(($C$58)-1))</f>
         <v>50</v>
       </c>
-      <c r="D81" s="84"/>
+      <c r="D81" s="84" t="n">
+        <v>182</v>
+      </c>
+      <c r="J81" s="0"/>
+      <c r="L81" s="46"/>
     </row>
     <row r="82" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="82" t="n">
@@ -5373,7 +5446,11 @@
         <f aca="false">C81-($C$71/(($C$58)-1))</f>
         <v>25</v>
       </c>
-      <c r="D82" s="84"/>
+      <c r="D82" s="84" t="n">
+        <v>162</v>
+      </c>
+      <c r="J82" s="0"/>
+      <c r="L82" s="46"/>
     </row>
     <row r="83" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="82" t="n">
@@ -5383,7 +5460,26 @@
         <f aca="false">C82-($C$71/(($C$58)-1))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="84"/>
+      <c r="D83" s="84" t="n">
+        <v>162</v>
+      </c>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="66"/>
+    </row>
+    <row r="84" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5415,2112 +5511,2112 @@
   </sheetPr>
   <dimension ref="A2:AR35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="86" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="86" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="87" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="87" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="87" width="12.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="86" width="4.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="86" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="8" style="87" width="4.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="45" style="87" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F2" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D4" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="87" t="n">
+      <c r="E4" s="88" t="n">
         <f aca="false">D5+D4</f>
         <v>44450</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90" t="n">
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91" t="n">
         <f aca="false">I5</f>
         <v>44450</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90" t="n">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91" t="n">
         <f aca="false">P5</f>
         <v>44457</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90" t="n">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91" t="n">
         <f aca="false">W5</f>
         <v>44464</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90" t="n">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91" t="n">
         <f aca="false">AD5</f>
         <v>44471</v>
       </c>
-      <c r="AE4" s="90" t="n">
+      <c r="AE4" s="91" t="n">
         <f aca="false">AE5</f>
         <v>44472</v>
       </c>
-      <c r="AF4" s="90" t="n">
+      <c r="AF4" s="91" t="n">
         <f aca="false">AF5</f>
         <v>44473</v>
       </c>
-      <c r="AG4" s="90" t="n">
+      <c r="AG4" s="91" t="n">
         <f aca="false">AG5</f>
         <v>44474</v>
       </c>
-      <c r="AH4" s="90" t="n">
+      <c r="AH4" s="91" t="n">
         <f aca="false">AH5</f>
         <v>44475</v>
       </c>
-      <c r="AI4" s="90" t="n">
+      <c r="AI4" s="91" t="n">
         <f aca="false">AI5</f>
         <v>44476</v>
       </c>
-      <c r="AJ4" s="90" t="n">
+      <c r="AJ4" s="91" t="n">
         <f aca="false">AJ5</f>
         <v>44477</v>
       </c>
-      <c r="AK4" s="90" t="n">
+      <c r="AK4" s="91" t="n">
         <f aca="false">AK5</f>
         <v>44478</v>
       </c>
-      <c r="AL4" s="90" t="n">
+      <c r="AL4" s="91" t="n">
         <f aca="false">AL5</f>
         <v>44479</v>
       </c>
-      <c r="AM4" s="90" t="n">
+      <c r="AM4" s="91" t="n">
         <f aca="false">AM5</f>
         <v>44480</v>
       </c>
-      <c r="AN4" s="90" t="n">
+      <c r="AN4" s="91" t="n">
         <f aca="false">AN5</f>
         <v>44481</v>
       </c>
-      <c r="AO4" s="90" t="n">
+      <c r="AO4" s="91" t="n">
         <f aca="false">AO5</f>
         <v>44482</v>
       </c>
-      <c r="AP4" s="90" t="n">
+      <c r="AP4" s="91" t="n">
         <f aca="false">AP5</f>
         <v>44483</v>
       </c>
-      <c r="AQ4" s="90" t="n">
+      <c r="AQ4" s="91" t="n">
         <f aca="false">AQ5</f>
         <v>44484</v>
       </c>
-      <c r="AR4" s="90"/>
+      <c r="AR4" s="91"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="91"/>
-      <c r="C5" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="93" t="n">
+      <c r="B5" s="92"/>
+      <c r="C5" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="94" t="n">
         <v>44450</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96" t="n">
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97" t="n">
         <f aca="false">E4</f>
         <v>44450</v>
       </c>
-      <c r="J5" s="97" t="n">
+      <c r="J5" s="98" t="n">
         <f aca="false">I5+1</f>
         <v>44451</v>
       </c>
-      <c r="K5" s="97" t="n">
+      <c r="K5" s="98" t="n">
         <f aca="false">J5+1</f>
         <v>44452</v>
       </c>
-      <c r="L5" s="97" t="n">
+      <c r="L5" s="98" t="n">
         <f aca="false">K5+1</f>
         <v>44453</v>
       </c>
-      <c r="M5" s="97" t="n">
+      <c r="M5" s="98" t="n">
         <f aca="false">L5+1</f>
         <v>44454</v>
       </c>
-      <c r="N5" s="97" t="n">
+      <c r="N5" s="98" t="n">
         <f aca="false">M5+1</f>
         <v>44455</v>
       </c>
-      <c r="O5" s="98" t="n">
+      <c r="O5" s="99" t="n">
         <f aca="false">N5+1</f>
         <v>44456</v>
       </c>
-      <c r="P5" s="96" t="n">
+      <c r="P5" s="97" t="n">
         <f aca="false">O5+1</f>
         <v>44457</v>
       </c>
-      <c r="Q5" s="97" t="n">
+      <c r="Q5" s="98" t="n">
         <f aca="false">P5+1</f>
         <v>44458</v>
       </c>
-      <c r="R5" s="97" t="n">
+      <c r="R5" s="98" t="n">
         <f aca="false">Q5+1</f>
         <v>44459</v>
       </c>
-      <c r="S5" s="97" t="n">
+      <c r="S5" s="98" t="n">
         <f aca="false">R5+1</f>
         <v>44460</v>
       </c>
-      <c r="T5" s="97" t="n">
+      <c r="T5" s="98" t="n">
         <f aca="false">S5+1</f>
         <v>44461</v>
       </c>
-      <c r="U5" s="97" t="n">
+      <c r="U5" s="98" t="n">
         <f aca="false">T5+1</f>
         <v>44462</v>
       </c>
-      <c r="V5" s="98" t="n">
+      <c r="V5" s="99" t="n">
         <f aca="false">U5+1</f>
         <v>44463</v>
       </c>
-      <c r="W5" s="96" t="n">
+      <c r="W5" s="97" t="n">
         <f aca="false">V5+1</f>
         <v>44464</v>
       </c>
-      <c r="X5" s="97" t="n">
+      <c r="X5" s="98" t="n">
         <f aca="false">W5+1</f>
         <v>44465</v>
       </c>
-      <c r="Y5" s="97" t="n">
+      <c r="Y5" s="98" t="n">
         <f aca="false">X5+1</f>
         <v>44466</v>
       </c>
-      <c r="Z5" s="97" t="n">
+      <c r="Z5" s="98" t="n">
         <f aca="false">Y5+1</f>
         <v>44467</v>
       </c>
-      <c r="AA5" s="97" t="n">
+      <c r="AA5" s="98" t="n">
         <f aca="false">Z5+1</f>
         <v>44468</v>
       </c>
-      <c r="AB5" s="97" t="n">
+      <c r="AB5" s="98" t="n">
         <f aca="false">AA5+1</f>
         <v>44469</v>
       </c>
-      <c r="AC5" s="98" t="n">
+      <c r="AC5" s="99" t="n">
         <f aca="false">AB5+1</f>
         <v>44470</v>
       </c>
-      <c r="AD5" s="96" t="n">
+      <c r="AD5" s="97" t="n">
         <f aca="false">AC5+1</f>
         <v>44471</v>
       </c>
-      <c r="AE5" s="97" t="n">
+      <c r="AE5" s="98" t="n">
         <f aca="false">AD5+1</f>
         <v>44472</v>
       </c>
-      <c r="AF5" s="97" t="n">
+      <c r="AF5" s="98" t="n">
         <f aca="false">AE5+1</f>
         <v>44473</v>
       </c>
-      <c r="AG5" s="97" t="n">
+      <c r="AG5" s="98" t="n">
         <f aca="false">AF5+1</f>
         <v>44474</v>
       </c>
-      <c r="AH5" s="97" t="n">
+      <c r="AH5" s="98" t="n">
         <f aca="false">AG5+1</f>
         <v>44475</v>
       </c>
-      <c r="AI5" s="97" t="n">
+      <c r="AI5" s="98" t="n">
         <f aca="false">AH5+1</f>
         <v>44476</v>
       </c>
-      <c r="AJ5" s="98" t="n">
+      <c r="AJ5" s="99" t="n">
         <f aca="false">AI5+1</f>
         <v>44477</v>
       </c>
-      <c r="AK5" s="96" t="n">
+      <c r="AK5" s="97" t="n">
         <f aca="false">AJ5+1</f>
         <v>44478</v>
       </c>
-      <c r="AL5" s="97" t="n">
+      <c r="AL5" s="98" t="n">
         <f aca="false">AK5+1</f>
         <v>44479</v>
       </c>
-      <c r="AM5" s="97" t="n">
+      <c r="AM5" s="98" t="n">
         <f aca="false">AL5+1</f>
         <v>44480</v>
       </c>
-      <c r="AN5" s="97" t="n">
+      <c r="AN5" s="98" t="n">
         <f aca="false">AM5+1</f>
         <v>44481</v>
       </c>
-      <c r="AO5" s="97" t="n">
+      <c r="AO5" s="98" t="n">
         <f aca="false">AN5+1</f>
         <v>44482</v>
       </c>
-      <c r="AP5" s="97" t="n">
+      <c r="AP5" s="98" t="n">
         <f aca="false">AO5+1</f>
         <v>44483</v>
       </c>
-      <c r="AQ5" s="98" t="n">
+      <c r="AQ5" s="99" t="n">
         <f aca="false">AP5+1</f>
         <v>44484</v>
       </c>
-      <c r="AR5" s="98" t="n">
+      <c r="AR5" s="99" t="n">
         <f aca="false">AQ5+1</f>
         <v>44485</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="B6" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="C6" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="E6" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="F6" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100" t="str">
+      <c r="G6" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(I5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="J6" s="100" t="str">
+      <c r="J6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(J5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="K6" s="100" t="str">
+      <c r="K6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(K5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="L6" s="100" t="str">
+      <c r="L6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(L5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="M6" s="100" t="str">
+      <c r="M6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(M5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="N6" s="100" t="str">
+      <c r="N6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(N5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="O6" s="100" t="str">
+      <c r="O6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(O5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="P6" s="100" t="str">
+      <c r="P6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(P5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="Q6" s="100" t="str">
+      <c r="Q6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Q5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="R6" s="100" t="str">
+      <c r="R6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(R5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="S6" s="100" t="str">
+      <c r="S6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(S5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="T6" s="100" t="str">
+      <c r="T6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(T5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="U6" s="100" t="str">
+      <c r="U6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(U5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="V6" s="100" t="str">
+      <c r="V6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(V5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="W6" s="100" t="str">
+      <c r="W6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(W5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="X6" s="100" t="str">
+      <c r="X6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(X5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="Y6" s="100" t="str">
+      <c r="Y6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Y5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="Z6" s="100" t="str">
+      <c r="Z6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(Z5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AA6" s="100" t="str">
+      <c r="AA6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AA5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AB6" s="100" t="str">
+      <c r="AB6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AB5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AC6" s="100" t="str">
+      <c r="AC6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AC5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AD6" s="100" t="str">
+      <c r="AD6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AD5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AE6" s="100" t="str">
+      <c r="AE6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AE5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AF6" s="100" t="str">
+      <c r="AF6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AF5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AG6" s="100" t="str">
+      <c r="AG6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AG5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AH6" s="100" t="str">
+      <c r="AH6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AH5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AI6" s="100" t="str">
+      <c r="AI6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AI5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AJ6" s="100" t="str">
+      <c r="AJ6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AJ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AK6" s="100" t="str">
+      <c r="AK6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AK5,"DDD")))</f>
         <v>S</v>
       </c>
-      <c r="AL6" s="100" t="str">
+      <c r="AL6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AL5,"DDD")))</f>
         <v>D</v>
       </c>
-      <c r="AM6" s="100" t="str">
+      <c r="AM6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AM5,"DDD")))</f>
         <v>L</v>
       </c>
-      <c r="AN6" s="100" t="str">
+      <c r="AN6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AN5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AO6" s="100" t="str">
+      <c r="AO6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AO5,"DDD")))</f>
         <v>M</v>
       </c>
-      <c r="AP6" s="100" t="str">
+      <c r="AP6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AP5,"DDD")))</f>
         <v>J</v>
       </c>
-      <c r="AQ6" s="100" t="str">
+      <c r="AQ6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AQ5,"DDD")))</f>
         <v>V</v>
       </c>
-      <c r="AR6" s="100" t="str">
+      <c r="AR6" s="101" t="str">
         <f aca="false">UPPER(LEFT(TEXT(AR5,"DDD")))</f>
         <v>S</v>
       </c>
     </row>
-    <row r="7" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102" t="n">
+    <row r="7" s="106" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103" t="n">
         <f aca="false">(C8+C15+C21+C30)/4</f>
-        <v>0.45625</v>
-      </c>
-      <c r="D7" s="103" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="D7" s="104" t="n">
         <v>44450</v>
       </c>
-      <c r="E7" s="103" t="n">
+      <c r="E7" s="104" t="n">
         <v>44485</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="101"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="101"/>
-      <c r="AP7" s="101"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="101"/>
-    </row>
-    <row r="8" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="102"/>
+      <c r="AR7" s="102"/>
+    </row>
+    <row r="8" s="106" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102" t="n">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="103" t="n">
+      <c r="D8" s="104" t="n">
         <v>44450</v>
       </c>
-      <c r="E8" s="103" t="n">
+      <c r="E8" s="104" t="n">
         <v>44458</v>
       </c>
-      <c r="F8" s="104" t="n">
+      <c r="F8" s="105" t="n">
         <f aca="false">Backlog!D5</f>
         <v>100</v>
       </c>
-      <c r="G8" s="104" t="n">
+      <c r="G8" s="105" t="n">
         <f aca="false">C8*F8</f>
         <v>100</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="102"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="102"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="107" t="n">
+      <c r="B9" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="108" t="n">
+      <c r="D9" s="109" t="n">
         <v>44450</v>
       </c>
-      <c r="E9" s="108" t="n">
+      <c r="E9" s="109" t="n">
         <v>44452</v>
       </c>
-      <c r="F9" s="109" t="n">
+      <c r="F9" s="110" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="110" t="n">
+      <c r="G9" s="111" t="n">
         <f aca="false">C9*F9</f>
         <v>10</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="111"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="112"/>
+      <c r="AJ9" s="112"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="112"/>
+      <c r="AN9" s="112"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="112"/>
+      <c r="AQ9" s="112"/>
+      <c r="AR9" s="112"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="112" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="113" t="n">
+      <c r="B10" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="114" t="n">
+      <c r="D10" s="115" t="n">
         <v>44452</v>
       </c>
-      <c r="E10" s="114" t="n">
+      <c r="E10" s="115" t="n">
         <v>44453</v>
       </c>
-      <c r="F10" s="115" t="n">
+      <c r="F10" s="116" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="110" t="n">
+      <c r="G10" s="111" t="n">
         <f aca="false">C10*F10</f>
         <v>20</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="116"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="116"/>
-      <c r="AO10" s="116"/>
-      <c r="AP10" s="116"/>
-      <c r="AQ10" s="116"/>
-      <c r="AR10" s="116"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="117"/>
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="117"/>
+      <c r="AI10" s="117"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="117"/>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="113" t="n">
+      <c r="B11" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="114" t="n">
         <v>0.4</v>
       </c>
-      <c r="D11" s="114" t="n">
+      <c r="D11" s="115" t="n">
         <v>44453</v>
       </c>
-      <c r="E11" s="114" t="n">
+      <c r="E11" s="115" t="n">
         <v>44455</v>
       </c>
-      <c r="F11" s="115" t="n">
+      <c r="F11" s="116" t="n">
         <v>40</v>
       </c>
-      <c r="G11" s="110" t="n">
+      <c r="G11" s="111" t="n">
         <f aca="false">C11*F11</f>
         <v>16</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="116"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="116"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="116"/>
-      <c r="AO11" s="116"/>
-      <c r="AP11" s="116"/>
-      <c r="AQ11" s="116"/>
-      <c r="AR11" s="116"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="117"/>
+      <c r="AH11" s="117"/>
+      <c r="AI11" s="117"/>
+      <c r="AJ11" s="117"/>
+      <c r="AK11" s="117"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="117"/>
+      <c r="AR11" s="117"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="113" t="n">
+      <c r="B12" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="114" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="114" t="n">
+      <c r="D12" s="115" t="n">
         <v>44454</v>
       </c>
-      <c r="E12" s="114" t="n">
+      <c r="E12" s="115" t="n">
         <v>44455</v>
       </c>
-      <c r="F12" s="115" t="n">
+      <c r="F12" s="116" t="n">
         <v>20</v>
       </c>
-      <c r="G12" s="110" t="n">
+      <c r="G12" s="111" t="n">
         <f aca="false">C12*F12</f>
         <v>10</v>
       </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="116"/>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="116"/>
-      <c r="AE12" s="116"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="116"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="116"/>
-      <c r="AO12" s="116"/>
-      <c r="AP12" s="116"/>
-      <c r="AQ12" s="116"/>
-      <c r="AR12" s="116"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="117"/>
+      <c r="AI12" s="117"/>
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="117"/>
+      <c r="AR12" s="117"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="113" t="n">
+      <c r="B13" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="114" t="n">
+      <c r="D13" s="115" t="n">
         <v>44455</v>
       </c>
-      <c r="E13" s="114" t="n">
+      <c r="E13" s="115" t="n">
         <v>44458</v>
       </c>
-      <c r="F13" s="115" t="n">
+      <c r="F13" s="116" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="110" t="n">
+      <c r="G13" s="111" t="n">
         <f aca="false">C13*F13</f>
         <v>10</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="116"/>
-      <c r="AO13" s="116"/>
-      <c r="AP13" s="116"/>
-      <c r="AQ13" s="116"/>
-      <c r="AR13" s="116"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="117"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="117"/>
+      <c r="AQ13" s="117"/>
+      <c r="AR13" s="117"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="116"/>
-      <c r="AO14" s="116"/>
-      <c r="AP14" s="116"/>
-      <c r="AQ14" s="116"/>
-      <c r="AR14" s="116"/>
-    </row>
-    <row r="15" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="117"/>
+      <c r="AG14" s="117"/>
+      <c r="AH14" s="117"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="117"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="117"/>
+      <c r="AR14" s="117"/>
+    </row>
+    <row r="15" s="106" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102" t="n">
+      <c r="B15" s="102"/>
+      <c r="C15" s="103" t="n">
         <f aca="false">(C16+C17+C18+C19)/4</f>
         <v>0.7</v>
       </c>
-      <c r="D15" s="114" t="n">
+      <c r="D15" s="115" t="n">
         <v>44459</v>
       </c>
-      <c r="E15" s="114" t="n">
+      <c r="E15" s="115" t="n">
         <v>44465</v>
       </c>
-      <c r="F15" s="104" t="n">
+      <c r="F15" s="105" t="n">
         <f aca="false">Backlog!D12</f>
         <v>140</v>
       </c>
-      <c r="G15" s="104" t="n">
+      <c r="G15" s="105" t="n">
         <f aca="false">C15*F15</f>
         <v>98</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="101"/>
-      <c r="AK15" s="101"/>
-      <c r="AL15" s="101"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="101"/>
-      <c r="AO15" s="101"/>
-      <c r="AP15" s="101"/>
-      <c r="AQ15" s="101"/>
-      <c r="AR15" s="101"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="102"/>
+      <c r="AO15" s="102"/>
+      <c r="AP15" s="102"/>
+      <c r="AQ15" s="102"/>
+      <c r="AR15" s="102"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="113" t="n">
+      <c r="B16" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="114" t="n">
+      <c r="D16" s="115" t="n">
         <v>44459</v>
       </c>
-      <c r="E16" s="114" t="n">
+      <c r="E16" s="115" t="n">
         <v>44460</v>
       </c>
-      <c r="F16" s="109" t="n">
+      <c r="F16" s="110" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="110" t="n">
+      <c r="G16" s="111" t="n">
         <f aca="false">C16*F16</f>
         <v>20</v>
       </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="117"/>
+      <c r="AR16" s="117"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="113" t="n">
+      <c r="B17" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="114" t="n">
+      <c r="D17" s="115" t="n">
         <v>44460</v>
       </c>
-      <c r="E17" s="114" t="n">
+      <c r="E17" s="115" t="n">
         <v>44461</v>
       </c>
-      <c r="F17" s="115" t="n">
+      <c r="F17" s="116" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="110" t="n">
+      <c r="G17" s="111" t="n">
         <f aca="false">C17*F17</f>
         <v>20</v>
       </c>
-      <c r="H17" s="112"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="116"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="116"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="116"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="116"/>
-      <c r="AO17" s="116"/>
-      <c r="AP17" s="116"/>
-      <c r="AQ17" s="116"/>
-      <c r="AR17" s="116"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="117"/>
+      <c r="AP17" s="117"/>
+      <c r="AQ17" s="117"/>
+      <c r="AR17" s="117"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="113" t="n">
+      <c r="B18" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="114" t="n">
         <v>0.7</v>
       </c>
-      <c r="D18" s="114" t="n">
+      <c r="D18" s="115" t="n">
         <v>44461</v>
       </c>
-      <c r="E18" s="114" t="n">
+      <c r="E18" s="115" t="n">
         <v>44463</v>
       </c>
-      <c r="F18" s="115" t="n">
+      <c r="F18" s="116" t="n">
         <v>40</v>
       </c>
-      <c r="G18" s="110" t="n">
+      <c r="G18" s="111" t="n">
         <f aca="false">C18*F18</f>
         <v>28</v>
       </c>
-      <c r="H18" s="112"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="116"/>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="116"/>
-      <c r="AJ18" s="116"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="116"/>
-      <c r="AN18" s="116"/>
-      <c r="AO18" s="116"/>
-      <c r="AP18" s="116"/>
-      <c r="AQ18" s="116"/>
-      <c r="AR18" s="116"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="117"/>
+      <c r="AP18" s="117"/>
+      <c r="AQ18" s="117"/>
+      <c r="AR18" s="117"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="112" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="113" t="n">
+      <c r="B19" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="114" t="n">
         <v>0.1</v>
       </c>
-      <c r="D19" s="114" t="n">
+      <c r="D19" s="115" t="n">
         <v>44463</v>
       </c>
-      <c r="E19" s="114" t="n">
+      <c r="E19" s="115" t="n">
         <v>44465</v>
       </c>
-      <c r="F19" s="115" t="n">
+      <c r="F19" s="116" t="n">
         <v>60</v>
       </c>
-      <c r="G19" s="110" t="n">
+      <c r="G19" s="111" t="n">
         <f aca="false">C19*F19</f>
         <v>6</v>
       </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="116"/>
-      <c r="AB19" s="116"/>
-      <c r="AC19" s="116"/>
-      <c r="AD19" s="116"/>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="116"/>
-      <c r="AK19" s="116"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="116"/>
-      <c r="AN19" s="116"/>
-      <c r="AO19" s="116"/>
-      <c r="AP19" s="116"/>
-      <c r="AQ19" s="116"/>
-      <c r="AR19" s="116"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="117"/>
+      <c r="AO19" s="117"/>
+      <c r="AP19" s="117"/>
+      <c r="AQ19" s="117"/>
+      <c r="AR19" s="117"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="116"/>
-      <c r="AJ20" s="116"/>
-      <c r="AK20" s="116"/>
-      <c r="AL20" s="116"/>
-      <c r="AM20" s="116"/>
-      <c r="AN20" s="116"/>
-      <c r="AO20" s="116"/>
-      <c r="AP20" s="116"/>
-      <c r="AQ20" s="116"/>
-      <c r="AR20" s="116"/>
-    </row>
-    <row r="21" s="105" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="101" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="117"/>
+      <c r="AR20" s="117"/>
+    </row>
+    <row r="21" s="106" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102" t="n">
+      <c r="B21" s="102"/>
+      <c r="C21" s="103" t="n">
         <f aca="false">(C22+C23+C24+C25)/4</f>
-        <v>0.125</v>
-      </c>
-      <c r="D21" s="114" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="115" t="n">
         <v>44466</v>
       </c>
-      <c r="E21" s="114" t="n">
+      <c r="E21" s="115" t="n">
         <v>44478</v>
       </c>
-      <c r="F21" s="104" t="n">
+      <c r="F21" s="105" t="n">
         <f aca="false">Backlog!D18</f>
         <v>300</v>
       </c>
-      <c r="G21" s="104" t="n">
+      <c r="G21" s="105" t="n">
         <f aca="false">F21*C21</f>
-        <v>37.5</v>
-      </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="101"/>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="101"/>
-      <c r="AK21" s="101"/>
-      <c r="AL21" s="101"/>
-      <c r="AM21" s="101"/>
-      <c r="AN21" s="101"/>
-      <c r="AO21" s="101"/>
-      <c r="AP21" s="101"/>
-      <c r="AQ21" s="101"/>
-      <c r="AR21" s="101"/>
+        <v>225</v>
+      </c>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="102"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="102"/>
+      <c r="AJ21" s="102"/>
+      <c r="AK21" s="102"/>
+      <c r="AL21" s="102"/>
+      <c r="AM21" s="102"/>
+      <c r="AN21" s="102"/>
+      <c r="AO21" s="102"/>
+      <c r="AP21" s="102"/>
+      <c r="AQ21" s="102"/>
+      <c r="AR21" s="102"/>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="113" t="n">
+      <c r="A22" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="115" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E22" s="115" t="n">
+        <v>44467</v>
+      </c>
+      <c r="F22" s="116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" s="111" t="n">
+        <f aca="false">C22*F22</f>
+        <v>20</v>
+      </c>
+      <c r="H22" s="113"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="117"/>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="117"/>
+      <c r="AO22" s="117"/>
+      <c r="AP22" s="117"/>
+      <c r="AQ22" s="117"/>
+      <c r="AR22" s="117"/>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="115" t="n">
+        <v>44467</v>
+      </c>
+      <c r="E23" s="115" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F23" s="116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" s="111" t="n">
+        <f aca="false">C23*F23</f>
+        <v>20</v>
+      </c>
+      <c r="H23" s="113"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="117"/>
+      <c r="AG23" s="117"/>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="117"/>
+      <c r="AO23" s="117"/>
+      <c r="AP23" s="117"/>
+      <c r="AQ23" s="117"/>
+      <c r="AR23" s="117"/>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" s="115" t="n">
+        <v>44469</v>
+      </c>
+      <c r="E24" s="115" t="n">
+        <v>44470</v>
+      </c>
+      <c r="F24" s="116" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" s="111" t="n">
+        <f aca="false">C24*F24</f>
+        <v>36</v>
+      </c>
+      <c r="H24" s="113"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="117"/>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="115" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E25" s="115" t="n">
+        <v>44472</v>
+      </c>
+      <c r="F25" s="116" t="n">
+        <v>80</v>
+      </c>
+      <c r="G25" s="111" t="n">
+        <f aca="false">C25*F25</f>
+        <v>8</v>
+      </c>
+      <c r="H25" s="113"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="117"/>
+      <c r="AG25" s="117"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="117"/>
+      <c r="AO25" s="117"/>
+      <c r="AP25" s="117"/>
+      <c r="AQ25" s="117"/>
+      <c r="AR25" s="117"/>
+    </row>
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="114" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="115" t="n">
+        <v>44472</v>
+      </c>
+      <c r="E26" s="115" t="n">
+        <v>44473</v>
+      </c>
+      <c r="F26" s="116" t="n">
+        <v>80</v>
+      </c>
+      <c r="G26" s="111" t="n">
+        <f aca="false">C26*F26</f>
+        <v>12</v>
+      </c>
+      <c r="H26" s="113"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="117"/>
+      <c r="AG26" s="117"/>
+      <c r="AH26" s="117"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="117"/>
+      <c r="AO26" s="117"/>
+      <c r="AP26" s="117"/>
+      <c r="AQ26" s="117"/>
+      <c r="AR26" s="117"/>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="115" t="n">
+        <v>44473</v>
+      </c>
+      <c r="E27" s="115" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F27" s="116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" s="111" t="n">
+        <f aca="false">C27*F27</f>
+        <v>20</v>
+      </c>
+      <c r="H27" s="113"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="117"/>
+      <c r="AG27" s="117"/>
+      <c r="AH27" s="117"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="117"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="117"/>
+      <c r="AO27" s="117"/>
+      <c r="AP27" s="117"/>
+      <c r="AQ27" s="117"/>
+      <c r="AR27" s="117"/>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="114" t="n">
         <v>0.5</v>
       </c>
-      <c r="D22" s="114" t="n">
-        <v>44466</v>
-      </c>
-      <c r="E22" s="114" t="n">
-        <v>44467</v>
-      </c>
-      <c r="F22" s="115" t="n">
+      <c r="D28" s="115" t="n">
+        <v>44475</v>
+      </c>
+      <c r="E28" s="115" t="n">
+        <v>44478</v>
+      </c>
+      <c r="F28" s="116" t="n">
+        <v>40</v>
+      </c>
+      <c r="G28" s="111" t="n">
+        <f aca="false">C28*F28</f>
         <v>20</v>
       </c>
-      <c r="G22" s="110" t="n">
-        <f aca="false">C22*F22</f>
-        <v>10</v>
-      </c>
-      <c r="H22" s="112"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="116"/>
-      <c r="AB22" s="116"/>
-      <c r="AC22" s="116"/>
-      <c r="AD22" s="116"/>
-      <c r="AE22" s="116"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="116"/>
-      <c r="AJ22" s="116"/>
-      <c r="AK22" s="116"/>
-      <c r="AL22" s="116"/>
-      <c r="AM22" s="116"/>
-      <c r="AN22" s="116"/>
-      <c r="AO22" s="116"/>
-      <c r="AP22" s="116"/>
-      <c r="AQ22" s="116"/>
-      <c r="AR22" s="116"/>
-    </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="112" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="114" t="n">
-        <v>44467</v>
-      </c>
-      <c r="E23" s="114" t="n">
-        <v>44468</v>
-      </c>
-      <c r="F23" s="115" t="n">
-        <v>20</v>
-      </c>
-      <c r="G23" s="110" t="n">
-        <f aca="false">C23*F23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="116"/>
-      <c r="AJ23" s="116"/>
-      <c r="AK23" s="116"/>
-      <c r="AL23" s="116"/>
-      <c r="AM23" s="116"/>
-      <c r="AN23" s="116"/>
-      <c r="AO23" s="116"/>
-      <c r="AP23" s="116"/>
-      <c r="AQ23" s="116"/>
-      <c r="AR23" s="116"/>
-    </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="114" t="n">
-        <v>44468</v>
-      </c>
-      <c r="E24" s="114" t="n">
-        <v>44470</v>
-      </c>
-      <c r="F24" s="115" t="n">
-        <v>40</v>
-      </c>
-      <c r="G24" s="110" t="n">
-        <f aca="false">C24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="116"/>
-      <c r="AM24" s="116"/>
-      <c r="AN24" s="116"/>
-      <c r="AO24" s="116"/>
-      <c r="AP24" s="116"/>
-      <c r="AQ24" s="116"/>
-      <c r="AR24" s="116"/>
-    </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="114" t="n">
-        <v>44470</v>
-      </c>
-      <c r="E25" s="114" t="n">
-        <v>44472</v>
-      </c>
-      <c r="F25" s="115" t="n">
-        <v>80</v>
-      </c>
-      <c r="G25" s="110" t="n">
-        <f aca="false">C25*F25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="112"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="116"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="116"/>
-      <c r="AD25" s="116"/>
-      <c r="AE25" s="116"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="116"/>
-      <c r="AJ25" s="116"/>
-      <c r="AK25" s="116"/>
-      <c r="AL25" s="116"/>
-      <c r="AM25" s="116"/>
-      <c r="AN25" s="116"/>
-      <c r="AO25" s="116"/>
-      <c r="AP25" s="116"/>
-      <c r="AQ25" s="116"/>
-      <c r="AR25" s="116"/>
-    </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="114" t="n">
-        <v>44472</v>
-      </c>
-      <c r="E26" s="114" t="n">
-        <v>44473</v>
-      </c>
-      <c r="F26" s="115" t="n">
-        <v>80</v>
-      </c>
-      <c r="G26" s="110" t="n">
-        <f aca="false">C26*F26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="116"/>
-      <c r="AE26" s="116"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="116"/>
-      <c r="AJ26" s="116"/>
-      <c r="AK26" s="116"/>
-      <c r="AL26" s="116"/>
-      <c r="AM26" s="116"/>
-      <c r="AN26" s="116"/>
-      <c r="AO26" s="116"/>
-      <c r="AP26" s="116"/>
-      <c r="AQ26" s="116"/>
-      <c r="AR26" s="116"/>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="114" t="n">
-        <v>44473</v>
-      </c>
-      <c r="E27" s="114" t="n">
-        <v>44475</v>
-      </c>
-      <c r="F27" s="115" t="n">
-        <v>20</v>
-      </c>
-      <c r="G27" s="110" t="n">
-        <f aca="false">C27*F27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="112"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
-      <c r="AA27" s="116"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="116"/>
-      <c r="AD27" s="116"/>
-      <c r="AE27" s="116"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="116"/>
-      <c r="AJ27" s="116"/>
-      <c r="AK27" s="116"/>
-      <c r="AL27" s="116"/>
-      <c r="AM27" s="116"/>
-      <c r="AN27" s="116"/>
-      <c r="AO27" s="116"/>
-      <c r="AP27" s="116"/>
-      <c r="AQ27" s="116"/>
-      <c r="AR27" s="116"/>
-    </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="114" t="n">
-        <v>44475</v>
-      </c>
-      <c r="E28" s="114" t="n">
-        <v>44478</v>
-      </c>
-      <c r="F28" s="115" t="n">
-        <v>40</v>
-      </c>
-      <c r="G28" s="110" t="n">
-        <f aca="false">C28*F28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="116"/>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="116"/>
-      <c r="AC28" s="116"/>
-      <c r="AD28" s="116"/>
-      <c r="AE28" s="116"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="116"/>
-      <c r="AJ28" s="116"/>
-      <c r="AK28" s="116"/>
-      <c r="AL28" s="116"/>
-      <c r="AM28" s="116"/>
-      <c r="AN28" s="116"/>
-      <c r="AO28" s="116"/>
-      <c r="AP28" s="116"/>
-      <c r="AQ28" s="116"/>
-      <c r="AR28" s="116"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="117"/>
+      <c r="AG28" s="117"/>
+      <c r="AH28" s="117"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="117"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="117"/>
+      <c r="AO28" s="117"/>
+      <c r="AP28" s="117"/>
+      <c r="AQ28" s="117"/>
+      <c r="AR28" s="117"/>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="116"/>
-      <c r="AD29" s="116"/>
-      <c r="AE29" s="116"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="116"/>
-      <c r="AJ29" s="116"/>
-      <c r="AK29" s="116"/>
-      <c r="AL29" s="116"/>
-      <c r="AM29" s="116"/>
-      <c r="AN29" s="116"/>
-      <c r="AO29" s="116"/>
-      <c r="AP29" s="116"/>
-      <c r="AQ29" s="116"/>
-      <c r="AR29" s="116"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="117"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="117"/>
+      <c r="AG29" s="117"/>
+      <c r="AH29" s="117"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="117"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="117"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="117"/>
+      <c r="AO29" s="117"/>
+      <c r="AP29" s="117"/>
+      <c r="AQ29" s="117"/>
+      <c r="AR29" s="117"/>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="101" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="102" t="n">
+      <c r="A30" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="103" t="n">
         <f aca="false">(C31+C32+C33+C34+C35)/5</f>
         <v>0</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="116"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="116"/>
-      <c r="AJ30" s="116"/>
-      <c r="AK30" s="116"/>
-      <c r="AL30" s="116"/>
-      <c r="AM30" s="116"/>
-      <c r="AN30" s="116"/>
-      <c r="AO30" s="116"/>
-      <c r="AP30" s="116"/>
-      <c r="AQ30" s="116"/>
-      <c r="AR30" s="116"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="117"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="117"/>
+      <c r="AH30" s="117"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="117"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="117"/>
+      <c r="AN30" s="117"/>
+      <c r="AO30" s="117"/>
+      <c r="AP30" s="117"/>
+      <c r="AQ30" s="117"/>
+      <c r="AR30" s="117"/>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="113" t="n">
+      <c r="A31" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
-      <c r="AE31" s="116"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="116"/>
-      <c r="AJ31" s="116"/>
-      <c r="AK31" s="116"/>
-      <c r="AL31" s="116"/>
-      <c r="AM31" s="116"/>
-      <c r="AN31" s="116"/>
-      <c r="AO31" s="116"/>
-      <c r="AP31" s="116"/>
-      <c r="AQ31" s="116"/>
-      <c r="AR31" s="116"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="117"/>
+      <c r="AG31" s="117"/>
+      <c r="AH31" s="117"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="117"/>
+      <c r="AK31" s="117"/>
+      <c r="AL31" s="117"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="117"/>
+      <c r="AO31" s="117"/>
+      <c r="AP31" s="117"/>
+      <c r="AQ31" s="117"/>
+      <c r="AR31" s="117"/>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="113" t="n">
+      <c r="A32" s="113" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="116"/>
-      <c r="AJ32" s="116"/>
-      <c r="AK32" s="116"/>
-      <c r="AL32" s="116"/>
-      <c r="AM32" s="116"/>
-      <c r="AN32" s="116"/>
-      <c r="AO32" s="116"/>
-      <c r="AP32" s="116"/>
-      <c r="AQ32" s="116"/>
-      <c r="AR32" s="116"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="117"/>
+      <c r="AG32" s="117"/>
+      <c r="AH32" s="117"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="117"/>
+      <c r="AO32" s="117"/>
+      <c r="AP32" s="117"/>
+      <c r="AQ32" s="117"/>
+      <c r="AR32" s="117"/>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="113" t="n">
+      <c r="A33" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="116"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="116"/>
-      <c r="AJ33" s="116"/>
-      <c r="AK33" s="116"/>
-      <c r="AL33" s="116"/>
-      <c r="AM33" s="116"/>
-      <c r="AN33" s="116"/>
-      <c r="AO33" s="116"/>
-      <c r="AP33" s="116"/>
-      <c r="AQ33" s="116"/>
-      <c r="AR33" s="116"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="117"/>
+      <c r="AG33" s="117"/>
+      <c r="AH33" s="117"/>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="117"/>
+      <c r="AL33" s="117"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="117"/>
+      <c r="AO33" s="117"/>
+      <c r="AP33" s="117"/>
+      <c r="AQ33" s="117"/>
+      <c r="AR33" s="117"/>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="113" t="n">
+      <c r="A34" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="116"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="116"/>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="116"/>
-      <c r="AJ34" s="116"/>
-      <c r="AK34" s="116"/>
-      <c r="AL34" s="116"/>
-      <c r="AM34" s="116"/>
-      <c r="AN34" s="116"/>
-      <c r="AO34" s="116"/>
-      <c r="AP34" s="116"/>
-      <c r="AQ34" s="116"/>
-      <c r="AR34" s="116"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="117"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="117"/>
+      <c r="AH34" s="117"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="117"/>
+      <c r="AO34" s="117"/>
+      <c r="AP34" s="117"/>
+      <c r="AQ34" s="117"/>
+      <c r="AR34" s="117"/>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="113" t="n">
+      <c r="C35" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
-      <c r="V35" s="116"/>
-      <c r="W35" s="116"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="116"/>
-      <c r="AB35" s="116"/>
-      <c r="AC35" s="116"/>
-      <c r="AD35" s="116"/>
-      <c r="AE35" s="116"/>
-      <c r="AF35" s="116"/>
-      <c r="AG35" s="116"/>
-      <c r="AH35" s="116"/>
-      <c r="AI35" s="116"/>
-      <c r="AJ35" s="116"/>
-      <c r="AK35" s="116"/>
-      <c r="AL35" s="116"/>
-      <c r="AM35" s="116"/>
-      <c r="AN35" s="116"/>
-      <c r="AO35" s="116"/>
-      <c r="AP35" s="116"/>
-      <c r="AQ35" s="116"/>
-      <c r="AR35" s="116"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="117"/>
+      <c r="AD35" s="117"/>
+      <c r="AE35" s="117"/>
+      <c r="AF35" s="117"/>
+      <c r="AG35" s="117"/>
+      <c r="AH35" s="117"/>
+      <c r="AI35" s="117"/>
+      <c r="AJ35" s="117"/>
+      <c r="AK35" s="117"/>
+      <c r="AL35" s="117"/>
+      <c r="AM35" s="117"/>
+      <c r="AN35" s="117"/>
+      <c r="AO35" s="117"/>
+      <c r="AP35" s="117"/>
+      <c r="AQ35" s="117"/>
+      <c r="AR35" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7540,7 +7636,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F2608553-C142-4379-BD00-1391B99736E9}</x14:id>
+          <x14:id>{499F92A8-D3C2-4677-A69C-CDC0206787A1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7565,7 +7661,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2389CE7F-6998-49BD-842F-ACB3B9BE7BBB}</x14:id>
+          <x14:id>{F025B529-20DB-4AE4-ACE4-6255ACB137D3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7579,7 +7675,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{442C274C-B0A5-4F8B-9C21-4976CB28775C}</x14:id>
+          <x14:id>{60469579-A1AA-46D5-8AAF-6970547DC6E7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7593,7 +7689,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BFA8D88C-8B28-4E23-B3F7-10C1DB51F096}</x14:id>
+          <x14:id>{3B5DAC78-2722-42CF-99BD-A0DA65F3E4E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7607,7 +7703,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6D510C2-B514-4CA0-844B-F11EEFB956C0}</x14:id>
+          <x14:id>{AD91F3B0-B67D-4FF7-AC29-E7643BC03144}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7621,7 +7717,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4AD2A61F-D31C-4516-8DDC-805F641AF2FD}</x14:id>
+          <x14:id>{4658843D-502D-4D51-BF40-8A23209893F5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7635,7 +7731,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F421B249-25B8-4492-B07C-5B959CF81DA1}</x14:id>
+          <x14:id>{1A631E10-4C68-4A77-BA16-7865341D8462}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7649,7 +7745,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30ACAA58-ECD7-4360-B369-497A8547B558}</x14:id>
+          <x14:id>{7DA6DD7B-6CCB-4E68-8391-89A0F78A29A2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7663,7 +7759,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4180E652-DE74-479F-89D9-30A95F8AD150}</x14:id>
+          <x14:id>{8D3F50DB-E514-41B6-90F3-1F5625D9103E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7680,7 +7776,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F2608553-C142-4379-BD00-1391B99736E9}">
+          <x14:cfRule type="dataBar" id="{499F92A8-D3C2-4677-A69C-CDC0206787A1}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7695,7 +7791,7 @@
           <xm:sqref>C10:C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2389CE7F-6998-49BD-842F-ACB3B9BE7BBB}">
+          <x14:cfRule type="dataBar" id="{F025B529-20DB-4AE4-ACE4-6255ACB137D3}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7710,7 +7806,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{442C274C-B0A5-4F8B-9C21-4976CB28775C}">
+          <x14:cfRule type="dataBar" id="{60469579-A1AA-46D5-8AAF-6970547DC6E7}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7725,7 +7821,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BFA8D88C-8B28-4E23-B3F7-10C1DB51F096}">
+          <x14:cfRule type="dataBar" id="{3B5DAC78-2722-42CF-99BD-A0DA65F3E4E3}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7740,7 +7836,7 @@
           <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A6D510C2-B514-4CA0-844B-F11EEFB956C0}">
+          <x14:cfRule type="dataBar" id="{AD91F3B0-B67D-4FF7-AC29-E7643BC03144}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7755,7 +7851,7 @@
           <xm:sqref>C22:C28 C16:C20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4AD2A61F-D31C-4516-8DDC-805F641AF2FD}">
+          <x14:cfRule type="dataBar" id="{4658843D-502D-4D51-BF40-8A23209893F5}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7770,7 +7866,7 @@
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F421B249-25B8-4492-B07C-5B959CF81DA1}">
+          <x14:cfRule type="dataBar" id="{1A631E10-4C68-4A77-BA16-7865341D8462}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7785,7 +7881,7 @@
           <xm:sqref>C21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{30ACAA58-ECD7-4360-B369-497A8547B558}">
+          <x14:cfRule type="dataBar" id="{7DA6DD7B-6CCB-4E68-8391-89A0F78A29A2}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7800,7 +7896,7 @@
           <xm:sqref>C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4180E652-DE74-479F-89D9-30A95F8AD150}">
+          <x14:cfRule type="dataBar" id="{8D3F50DB-E514-41B6-90F3-1F5625D9103E}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ScrumEntregable.xlsx
+++ b/ScrumEntregable.xlsx
@@ -1985,11 +1985,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8066048"/>
-        <c:axId val="36443475"/>
+        <c:axId val="96721244"/>
+        <c:axId val="82416102"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8066048"/>
+        <c:axId val="96721244"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36443475"/>
+        <c:crossAx val="82416102"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36443475"/>
+        <c:axId val="82416102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2062,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8066048"/>
+        <c:crossAx val="96721244"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2372,11 +2372,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31952178"/>
-        <c:axId val="14027774"/>
+        <c:axId val="28952312"/>
+        <c:axId val="84875890"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31952178"/>
+        <c:axId val="28952312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2404,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14027774"/>
+        <c:crossAx val="84875890"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2412,7 +2412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14027774"/>
+        <c:axId val="84875890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31952178"/>
+        <c:crossAx val="28952312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2831,11 +2831,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94296891"/>
-        <c:axId val="665377"/>
+        <c:axId val="6367199"/>
+        <c:axId val="39550582"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94296891"/>
+        <c:axId val="6367199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2863,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665377"/>
+        <c:crossAx val="39550582"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2871,7 +2871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="665377"/>
+        <c:axId val="39550582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2908,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94296891"/>
+        <c:crossAx val="6367199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2963,15 +2963,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>623520</xdr:colOff>
+      <xdr:colOff>624240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2979,7 +2979,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5552640" y="680760"/>
+        <a:off x="5553360" y="681480"/>
         <a:ext cx="5391360" cy="3269520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2993,15 +2993,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>24840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>538200</xdr:colOff>
+      <xdr:colOff>538920</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3009,7 +3009,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5467680" y="5766480"/>
+        <a:off x="5468400" y="5767200"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3023,13 +3023,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>24840</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>538200</xdr:colOff>
+      <xdr:colOff>538920</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
@@ -3039,7 +3039,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5467680" y="11620080"/>
+        <a:off x="5468400" y="11620080"/>
         <a:ext cx="5391000" cy="4121280"/>
       </xdr:xfrm>
       <a:graphic>
@@ -7636,7 +7636,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{499F92A8-D3C2-4677-A69C-CDC0206787A1}</x14:id>
+          <x14:id>{2FE2786A-1FB2-41FE-B86E-A8E5C0B59B70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7661,7 +7661,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F025B529-20DB-4AE4-ACE4-6255ACB137D3}</x14:id>
+          <x14:id>{E75060BB-8732-42AD-9960-899BEA8A7310}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7675,7 +7675,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60469579-A1AA-46D5-8AAF-6970547DC6E7}</x14:id>
+          <x14:id>{D3249138-54B1-4F30-98E9-40F37099805A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7689,7 +7689,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3B5DAC78-2722-42CF-99BD-A0DA65F3E4E3}</x14:id>
+          <x14:id>{34AA11DD-5B55-46EA-9C61-1680715DB0A6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7703,7 +7703,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD91F3B0-B67D-4FF7-AC29-E7643BC03144}</x14:id>
+          <x14:id>{56B42215-E434-46E3-AC7F-808000A7C718}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7717,7 +7717,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4658843D-502D-4D51-BF40-8A23209893F5}</x14:id>
+          <x14:id>{D0C5C634-7B45-4A57-97F8-20A6D466F9F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7731,7 +7731,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A631E10-4C68-4A77-BA16-7865341D8462}</x14:id>
+          <x14:id>{9A7B20BE-2083-46C6-8BD9-CE1BE2E568B5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7745,7 +7745,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7DA6DD7B-6CCB-4E68-8391-89A0F78A29A2}</x14:id>
+          <x14:id>{49669370-C648-4EC7-9055-20F4CBE511BF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7759,7 +7759,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8D3F50DB-E514-41B6-90F3-1F5625D9103E}</x14:id>
+          <x14:id>{20269810-BBD8-414F-A65F-14D6D7B24DDC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7776,7 +7776,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{499F92A8-D3C2-4677-A69C-CDC0206787A1}">
+          <x14:cfRule type="dataBar" id="{2FE2786A-1FB2-41FE-B86E-A8E5C0B59B70}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7791,7 +7791,7 @@
           <xm:sqref>C10:C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F025B529-20DB-4AE4-ACE4-6255ACB137D3}">
+          <x14:cfRule type="dataBar" id="{E75060BB-8732-42AD-9960-899BEA8A7310}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7806,7 +7806,7 @@
           <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60469579-A1AA-46D5-8AAF-6970547DC6E7}">
+          <x14:cfRule type="dataBar" id="{D3249138-54B1-4F30-98E9-40F37099805A}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7821,7 +7821,7 @@
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3B5DAC78-2722-42CF-99BD-A0DA65F3E4E3}">
+          <x14:cfRule type="dataBar" id="{34AA11DD-5B55-46EA-9C61-1680715DB0A6}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7836,7 +7836,7 @@
           <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD91F3B0-B67D-4FF7-AC29-E7643BC03144}">
+          <x14:cfRule type="dataBar" id="{56B42215-E434-46E3-AC7F-808000A7C718}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7851,7 +7851,7 @@
           <xm:sqref>C22:C28 C16:C20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4658843D-502D-4D51-BF40-8A23209893F5}">
+          <x14:cfRule type="dataBar" id="{D0C5C634-7B45-4A57-97F8-20A6D466F9F0}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7866,7 +7866,7 @@
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A631E10-4C68-4A77-BA16-7865341D8462}">
+          <x14:cfRule type="dataBar" id="{9A7B20BE-2083-46C6-8BD9-CE1BE2E568B5}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7881,7 +7881,7 @@
           <xm:sqref>C21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7DA6DD7B-6CCB-4E68-8391-89A0F78A29A2}">
+          <x14:cfRule type="dataBar" id="{49669370-C648-4EC7-9055-20F4CBE511BF}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7896,7 +7896,7 @@
           <xm:sqref>C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8D3F50DB-E514-41B6-90F3-1F5625D9103E}">
+          <x14:cfRule type="dataBar" id="{20269810-BBD8-414F-A65F-14D6D7B24DDC}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
